--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Сентябрь" sheetId="1" r:id="rId1"/>
     <sheet name="Сентябрь (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Сентябрь СИЗ" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="224">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Председатель комиссии:</t>
   </si>
   <si>
-    <t>заместитель директора по производству и технологии</t>
-  </si>
-  <si>
     <t>Александрович И.М.</t>
   </si>
   <si>
@@ -114,21 +111,12 @@
     <t>Члены комиссии:</t>
   </si>
   <si>
-    <t>главный механик</t>
-  </si>
-  <si>
     <t>Романьков С.Л.</t>
   </si>
   <si>
-    <t>главный энергетик</t>
-  </si>
-  <si>
     <t>Лызо С.И.</t>
   </si>
   <si>
-    <t>главный бухгалтер</t>
-  </si>
-  <si>
     <t>Бадюкова И.А.</t>
   </si>
   <si>
@@ -138,15 +126,9 @@
     <t>МОЛ:</t>
   </si>
   <si>
-    <t>главный экономист</t>
-  </si>
-  <si>
     <t>Лефол ламира</t>
   </si>
   <si>
-    <t>начальник производства</t>
-  </si>
-  <si>
     <t>Карчмит Я.В.</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>назначенная приказом (распоряжением) от 29 октября 2018 г. № 11 произвела проверку состояния предметов, находящихся в подотчете у _________________________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
-  </si>
-  <si>
     <t>Кислород технический газообразный  (1бал=6,4мз)</t>
   </si>
   <si>
@@ -666,9 +645,6 @@
     <t>рул.</t>
   </si>
   <si>
-    <t>Монтаж «Пылеулавливающего агрегата ПУАВ-3000 /Россия/. Устройства «Лиана – 160» /Россия/»</t>
-  </si>
-  <si>
     <t>Перчатки с 2-слойным латексным покрытием</t>
   </si>
   <si>
@@ -682,6 +658,102 @@
   </si>
   <si>
     <t>шт.</t>
+  </si>
+  <si>
+    <r>
+      <t>назначенная приказом (распоряжением) от 29 октября 2018 г. № 11 произвела проверку состояния предметов, находящихся в подотчете у __</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Гавриленко А.Д.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
+    </r>
+  </si>
+  <si>
+    <t>Начальник участка ремонта форм</t>
+  </si>
+  <si>
+    <t>Главный экономист</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер</t>
+  </si>
+  <si>
+    <t>Главный энергетик</t>
+  </si>
+  <si>
+    <t>Начальник производства</t>
+  </si>
+  <si>
+    <t>Главный механик</t>
+  </si>
+  <si>
+    <t>Заместитель директора по производству и технологии</t>
+  </si>
+  <si>
+    <t>Гавриленко А.Д.</t>
+  </si>
+  <si>
+    <t>Монтаж «Пылеулавливающего агрегата ПУАВ-3000 /Россия/ с устройством «Лиана – 160» /Россия/»</t>
+  </si>
+  <si>
+    <r>
+      <t>назначенная приказом (распоряжением) от 29 октября 2018 г. № 11 произвела проверку состояния предметов, находящихся в подотчете у __</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Гавриленко А.Д.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>___________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>назначенная приказом (распоряжением) от 29 октября 2018 г. № 11 произвела проверку состояния предметов, находящихся в подотчете у ___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Гавриленко А.Д.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -693,7 +765,7 @@
     <numFmt numFmtId="165" formatCode="0;[Red]\-0"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]\-0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -757,6 +829,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1047,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1081,12 +1160,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1203,22 +1276,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1236,13 +1324,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1252,15 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,10 +1658,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A103" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD116"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A162" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1584,186 +1672,186 @@
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="A1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="F1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="F2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="F4" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="A14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
+      <c r="A15" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="41"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1787,4281 +1875,4307 @@
       <c r="G19" s="6">
         <v>7</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>1</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="28">
         <v>7931</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="35">
         <v>12.8</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <v>1.82</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="30">
         <f>E20*F20</f>
         <v>23.296000000000003</v>
       </c>
-      <c r="H20" s="49" t="s">
-        <v>198</v>
+      <c r="H20" s="47" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <f>A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="28">
         <v>4896</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="38">
-        <v>2</v>
-      </c>
-      <c r="F21" s="36">
+      <c r="D21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="36">
+        <v>2</v>
+      </c>
+      <c r="F21" s="34">
         <v>91.71</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <f>E21*F21</f>
         <v>183.42</v>
       </c>
-      <c r="H21" s="49" t="s">
-        <v>199</v>
+      <c r="H21" s="47" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <f t="shared" ref="A22:A85" si="0">A21+1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="28">
         <v>6343</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="D22" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="36">
         <v>4</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <v>72.12</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <f t="shared" ref="G22:G85" si="1">E22*F22</f>
         <v>288.48</v>
       </c>
-      <c r="H22" s="49" t="s">
-        <v>199</v>
+      <c r="H22" s="47" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="28">
         <v>7961</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="D23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="36">
         <v>60</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <v>5.76</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="30">
         <f t="shared" si="1"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="H23" s="50" t="s">
-        <v>197</v>
+      <c r="H23" s="48" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="30">
+      <c r="B24" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="28">
         <v>1654</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="36">
         <v>50</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="34">
         <v>26.59</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <f t="shared" si="1"/>
         <v>1329.5</v>
       </c>
-      <c r="H24" s="49" t="s">
-        <v>200</v>
+      <c r="H24" s="47" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="28">
         <v>3416</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="38">
-        <v>2</v>
-      </c>
-      <c r="F25" s="36">
+      <c r="D25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="36">
+        <v>2</v>
+      </c>
+      <c r="F25" s="34">
         <v>16.46</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="30">
         <f t="shared" si="1"/>
         <v>32.92</v>
       </c>
-      <c r="H25" s="49" t="s">
-        <v>201</v>
+      <c r="H25" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="30">
+      <c r="B26" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="28">
         <v>3417</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="38">
-        <v>2</v>
-      </c>
-      <c r="F26" s="36">
+      <c r="D26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="36">
+        <v>2</v>
+      </c>
+      <c r="F26" s="34">
         <v>17.63</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="30">
         <f t="shared" si="1"/>
         <v>35.26</v>
       </c>
-      <c r="H26" s="49" t="s">
-        <v>201</v>
+      <c r="H26" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="30">
+      <c r="B27" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="28">
         <v>3418</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="38">
-        <v>2</v>
-      </c>
-      <c r="F27" s="36">
+      <c r="D27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="36">
+        <v>2</v>
+      </c>
+      <c r="F27" s="34">
         <v>17.63</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="30">
         <f t="shared" si="1"/>
         <v>35.26</v>
       </c>
-      <c r="H27" s="49" t="s">
-        <v>201</v>
+      <c r="H27" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="30">
+      <c r="B28" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="28">
         <v>7382</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="39">
-        <v>2</v>
-      </c>
-      <c r="F28" s="36">
+      <c r="D28" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="37">
+        <v>2</v>
+      </c>
+      <c r="F28" s="34">
         <v>15.11</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="30">
         <f t="shared" si="1"/>
         <v>30.22</v>
       </c>
-      <c r="H28" s="49" t="s">
-        <v>201</v>
+      <c r="H28" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="30">
+      <c r="B29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="28">
         <v>7384</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="33">
-        <v>2</v>
-      </c>
-      <c r="F29" s="31">
+      <c r="D29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="31">
+        <v>2</v>
+      </c>
+      <c r="F29" s="29">
         <v>15.11</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="30">
         <f t="shared" si="1"/>
         <v>30.22</v>
       </c>
-      <c r="H29" s="49" t="s">
-        <v>201</v>
+      <c r="H29" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
+      <c r="A30" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="30">
+      <c r="B30" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="28">
         <v>4230</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="D30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="31">
         <v>40</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <v>31.93</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <f t="shared" si="1"/>
         <v>1277.2</v>
       </c>
-      <c r="H30" s="50" t="s">
-        <v>197</v>
+      <c r="H30" s="48" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+      <c r="A31" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="30">
+      <c r="B31" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="28">
         <v>4231</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="D31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="31">
         <v>30</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="29">
         <v>31.93</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="30">
         <f t="shared" si="1"/>
         <v>957.9</v>
       </c>
-      <c r="H31" s="50" t="s">
-        <v>197</v>
+      <c r="H31" s="48" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="30">
+      <c r="B32" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="28">
         <v>4232</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="33">
+      <c r="D32" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="31">
         <v>20</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="29">
         <v>31.93</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="30">
         <f t="shared" si="1"/>
         <v>638.6</v>
       </c>
-      <c r="H32" s="50" t="s">
-        <v>197</v>
+      <c r="H32" s="48" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+      <c r="A33" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="30">
+      <c r="B33" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="28">
         <v>4233</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="33">
+      <c r="D33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="31">
         <v>20</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="29">
         <v>31.93</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="30">
         <f t="shared" si="1"/>
         <v>638.6</v>
       </c>
-      <c r="H33" s="50" t="s">
-        <v>197</v>
+      <c r="H33" s="48" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
+      <c r="A34" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="30">
+      <c r="B34" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="28">
         <v>7741</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="33">
+      <c r="D34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="31">
         <v>5</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="30">
         <f t="shared" si="1"/>
         <v>24.25</v>
       </c>
-      <c r="H34" s="49" t="s">
-        <v>202</v>
+      <c r="H34" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+      <c r="A35" s="26">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="30">
+      <c r="B35" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="28">
         <v>4327</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="33">
+      <c r="D35" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="31">
         <v>10</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <v>7.49</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="30">
         <f t="shared" si="1"/>
         <v>74.900000000000006</v>
       </c>
-      <c r="H35" s="49" t="s">
-        <v>202</v>
+      <c r="H35" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
+      <c r="A36" s="26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="30">
+      <c r="B36" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="28">
         <v>7378</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="33">
+      <c r="D36" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="31">
         <v>10</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="29">
         <v>9.56</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="30">
         <f t="shared" si="1"/>
         <v>95.600000000000009</v>
       </c>
-      <c r="H36" s="49" t="s">
-        <v>202</v>
+      <c r="H36" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
+      <c r="A37" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="B37" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="28">
         <v>4328</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="33">
+      <c r="D37" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="31">
         <v>10</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="29">
         <v>9.56</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="30">
         <f t="shared" si="1"/>
         <v>95.600000000000009</v>
       </c>
-      <c r="H37" s="49" t="s">
-        <v>202</v>
+      <c r="H37" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="26">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="30">
+      <c r="B38" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="28">
         <v>7084</v>
       </c>
-      <c r="D38" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="33">
+      <c r="D38" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="31">
         <v>10</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="29">
         <v>5.0599999999999996</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="30">
         <f t="shared" si="1"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="H38" s="49" t="s">
-        <v>202</v>
+      <c r="H38" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+      <c r="A39" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="30">
+      <c r="B39" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="28">
         <v>6187</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="33">
+      <c r="D39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="31">
         <v>1</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="29">
         <v>51.87</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="30">
         <f t="shared" si="1"/>
         <v>51.87</v>
       </c>
-      <c r="H39" s="49" t="s">
-        <v>202</v>
+      <c r="H39" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="26">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="30">
+      <c r="B40" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="28">
         <v>5801</v>
       </c>
-      <c r="D40" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="33">
+      <c r="D40" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="31">
         <v>10</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="29">
         <v>3.66</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="30">
         <f t="shared" si="1"/>
         <v>36.6</v>
       </c>
-      <c r="H40" s="49" t="s">
-        <v>202</v>
+      <c r="H40" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="A41" s="26">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="30">
+      <c r="B41" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="28">
         <v>5802</v>
       </c>
-      <c r="D41" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="33">
+      <c r="D41" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="31">
         <v>10</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="29">
         <v>3.66</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="30">
         <f t="shared" si="1"/>
         <v>36.6</v>
       </c>
-      <c r="H41" s="49" t="s">
-        <v>202</v>
+      <c r="H41" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="30">
+      <c r="B42" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="28">
         <v>4324</v>
       </c>
-      <c r="D42" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="33">
+      <c r="D42" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="31">
         <v>10</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="29">
         <v>3.66</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="30">
         <f t="shared" si="1"/>
         <v>36.6</v>
       </c>
-      <c r="H42" s="49" t="s">
-        <v>202</v>
+      <c r="H42" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+      <c r="A43" s="26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="30">
+      <c r="B43" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="28">
         <v>5803</v>
       </c>
-      <c r="D43" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="33">
+      <c r="D43" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="31">
         <v>10</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="29">
         <v>4.18</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="30">
         <f t="shared" si="1"/>
         <v>41.8</v>
       </c>
-      <c r="H43" s="49" t="s">
-        <v>202</v>
+      <c r="H43" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+      <c r="A44" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="30">
+      <c r="B44" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="28">
         <v>5804</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="33">
+      <c r="D44" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="31">
         <v>10</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="29">
         <v>4.18</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="30">
         <f t="shared" si="1"/>
         <v>41.8</v>
       </c>
-      <c r="H44" s="49" t="s">
-        <v>202</v>
+      <c r="H44" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="A45" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="30">
+      <c r="B45" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="28">
         <v>4325</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="33">
+      <c r="D45" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="31">
         <v>10</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="29">
         <v>4.18</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="30">
         <f t="shared" si="1"/>
         <v>41.8</v>
       </c>
-      <c r="H45" s="49" t="s">
-        <v>202</v>
+      <c r="H45" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
+      <c r="A46" s="26">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="30">
+      <c r="B46" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="28">
         <v>7737</v>
       </c>
-      <c r="D46" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="33">
+      <c r="D46" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="31">
         <v>10</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="29">
         <v>5.0599999999999996</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="30">
         <f t="shared" si="1"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="H46" s="49" t="s">
-        <v>202</v>
+      <c r="H46" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
+      <c r="A47" s="26">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="30">
+      <c r="B47" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="28">
         <v>7745</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="33">
+      <c r="D47" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="31">
         <v>10</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="29">
         <v>5.0599999999999996</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="30">
         <f t="shared" si="1"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="H47" s="49" t="s">
-        <v>202</v>
+      <c r="H47" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
+      <c r="A48" s="26">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="30">
+      <c r="B48" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="28">
         <v>7736</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="33">
+      <c r="D48" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="31">
         <v>10</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="29">
         <v>5.0599999999999996</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="30">
         <f t="shared" si="1"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="H48" s="49" t="s">
-        <v>202</v>
+      <c r="H48" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
+      <c r="A49" s="26">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="30">
+      <c r="B49" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="28">
         <v>5805</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="33">
+      <c r="D49" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="31">
         <v>10</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="29">
         <v>4.42</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="30">
         <f t="shared" si="1"/>
         <v>44.2</v>
       </c>
-      <c r="H49" s="49" t="s">
-        <v>202</v>
+      <c r="H49" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
+      <c r="A50" s="26">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B50" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="30">
+      <c r="B50" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="28">
         <v>5806</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="33">
+      <c r="D50" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="31">
         <v>10</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="29">
         <v>4.42</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="30">
         <f t="shared" si="1"/>
         <v>44.2</v>
       </c>
-      <c r="H50" s="49" t="s">
-        <v>202</v>
+      <c r="H50" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
+      <c r="A51" s="26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B51" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="30">
+      <c r="B51" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="28">
         <v>4326</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="33">
+      <c r="D51" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="31">
         <v>10</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="29">
         <v>4.42</v>
       </c>
-      <c r="G51" s="32">
+      <c r="G51" s="30">
         <f t="shared" si="1"/>
         <v>44.2</v>
       </c>
-      <c r="H51" s="49" t="s">
-        <v>202</v>
+      <c r="H51" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
+      <c r="A52" s="26">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B52" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="30">
+      <c r="B52" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="28">
         <v>7738</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="33">
+      <c r="D52" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="31">
         <v>10</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="29">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="30">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="H52" s="49" t="s">
-        <v>202</v>
+      <c r="H52" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
+      <c r="A53" s="26">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="30">
+      <c r="B53" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="28">
         <v>7739</v>
       </c>
-      <c r="D53" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="33">
+      <c r="D53" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="31">
         <v>10</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="29">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="30">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="H53" s="49" t="s">
-        <v>202</v>
+      <c r="H53" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
+      <c r="A54" s="26">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="30">
+      <c r="B54" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="28">
         <v>7740</v>
       </c>
-      <c r="D54" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="33">
+      <c r="D54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="31">
         <v>10</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="29">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G54" s="32">
+      <c r="G54" s="30">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="H54" s="49" t="s">
-        <v>202</v>
+      <c r="H54" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
+      <c r="A55" s="26">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="30">
+      <c r="B55" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="28">
         <v>7746</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="33">
+      <c r="D55" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="31">
         <v>10</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="29">
         <v>6.25</v>
       </c>
-      <c r="G55" s="32">
+      <c r="G55" s="30">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="H55" s="49" t="s">
-        <v>202</v>
+      <c r="H55" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
+      <c r="A56" s="26">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="30">
+      <c r="B56" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="28">
         <v>7743</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="33">
+      <c r="D56" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="31">
         <v>10</v>
       </c>
-      <c r="F56" s="31">
+      <c r="F56" s="29">
         <v>6.25</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="30">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="H56" s="49" t="s">
-        <v>202</v>
+      <c r="H56" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="A57" s="26">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="30">
+      <c r="B57" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="28">
         <v>7747</v>
       </c>
-      <c r="D57" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="33">
+      <c r="D57" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="31">
         <v>10</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="29">
         <v>6.25</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="30">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="H57" s="49" t="s">
-        <v>202</v>
+      <c r="H57" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
+      <c r="A58" s="26">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="30">
+      <c r="B58" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="28">
         <v>6806</v>
       </c>
-      <c r="D58" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="33">
+      <c r="D58" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="31">
         <v>10</v>
       </c>
-      <c r="F58" s="31">
+      <c r="F58" s="29">
         <v>1.24</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="30">
         <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
-      <c r="H58" s="49" t="s">
-        <v>202</v>
+      <c r="H58" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
+      <c r="A59" s="26">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="30">
+      <c r="B59" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="28">
         <v>6813</v>
       </c>
-      <c r="D59" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="33">
+      <c r="D59" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="31">
         <v>7</v>
       </c>
-      <c r="F59" s="31">
+      <c r="F59" s="29">
         <v>1.58</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="30">
         <f t="shared" si="1"/>
         <v>11.06</v>
       </c>
-      <c r="H59" s="49" t="s">
-        <v>202</v>
+      <c r="H59" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
+      <c r="A60" s="26">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="30">
+      <c r="B60" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="28">
         <v>6807</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="33">
+      <c r="D60" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="31">
         <v>1</v>
       </c>
-      <c r="F60" s="31">
+      <c r="F60" s="29">
         <v>1.57</v>
       </c>
-      <c r="G60" s="32">
+      <c r="G60" s="30">
         <f t="shared" si="1"/>
         <v>1.57</v>
       </c>
-      <c r="H60" s="49" t="s">
-        <v>202</v>
+      <c r="H60" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A61" s="28">
+      <c r="A61" s="26">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="30">
+      <c r="B61" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="28">
         <v>6190</v>
       </c>
-      <c r="D61" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="33">
+      <c r="D61" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="31">
         <v>5</v>
       </c>
-      <c r="F61" s="31">
+      <c r="F61" s="29">
         <v>3.99</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="30">
         <f t="shared" si="1"/>
         <v>19.950000000000003</v>
       </c>
-      <c r="H61" s="49" t="s">
-        <v>202</v>
+      <c r="H61" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
+      <c r="A62" s="26">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="30">
+      <c r="B62" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="28">
         <v>5812</v>
       </c>
-      <c r="D62" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="33">
+      <c r="D62" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="31">
         <v>10</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="29">
         <v>0.79</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="30">
         <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
-      <c r="H62" s="49" t="s">
-        <v>202</v>
+      <c r="H62" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
+      <c r="A63" s="26">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="30">
+      <c r="B63" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="28">
         <v>5813</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="33">
+      <c r="D63" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="31">
         <v>10</v>
       </c>
-      <c r="F63" s="31">
+      <c r="F63" s="29">
         <v>0.93</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="30">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="H63" s="49" t="s">
-        <v>202</v>
+      <c r="H63" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
+      <c r="A64" s="26">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B64" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="30">
+      <c r="B64" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="28">
         <v>5814</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="33">
+      <c r="D64" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="31">
         <v>10</v>
       </c>
-      <c r="F64" s="31">
+      <c r="F64" s="29">
         <v>1.35</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="30">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="H64" s="49" t="s">
-        <v>202</v>
+      <c r="H64" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A65" s="28">
+      <c r="A65" s="26">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B65" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="30">
+      <c r="B65" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="28">
         <v>5815</v>
       </c>
-      <c r="D65" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="33">
+      <c r="D65" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="31">
         <v>20</v>
       </c>
-      <c r="F65" s="31">
+      <c r="F65" s="29">
         <v>4.29</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="30">
         <f t="shared" si="1"/>
         <v>85.8</v>
       </c>
-      <c r="H65" s="49" t="s">
-        <v>202</v>
+      <c r="H65" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
+      <c r="A66" s="26">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B66" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="30">
+      <c r="B66" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="28">
         <v>5776</v>
       </c>
-      <c r="D66" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="33">
+      <c r="D66" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="31">
         <v>3</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="29">
         <v>6.9</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="30">
         <f t="shared" si="1"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="H66" s="49" t="s">
-        <v>201</v>
+      <c r="H66" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
+      <c r="A67" s="26">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="30">
+      <c r="B67" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="28">
         <v>5774</v>
       </c>
-      <c r="D67" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="33">
+      <c r="D67" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="31">
         <v>3</v>
       </c>
-      <c r="F67" s="31">
+      <c r="F67" s="29">
         <v>6.9</v>
       </c>
-      <c r="G67" s="32">
+      <c r="G67" s="30">
         <f t="shared" si="1"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="H67" s="49" t="s">
-        <v>201</v>
+      <c r="H67" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
+      <c r="A68" s="26">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="30">
+      <c r="B68" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="28">
         <v>5775</v>
       </c>
-      <c r="D68" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="33">
+      <c r="D68" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="31">
         <v>3</v>
       </c>
-      <c r="F68" s="31">
+      <c r="F68" s="29">
         <v>6.9</v>
       </c>
-      <c r="G68" s="32">
+      <c r="G68" s="30">
         <f t="shared" si="1"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="H68" s="49" t="s">
-        <v>201</v>
+      <c r="H68" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
+      <c r="A69" s="26">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B69" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="30">
+      <c r="B69" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="28">
         <v>5808</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" s="33">
+      <c r="D69" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="31">
         <v>20</v>
       </c>
-      <c r="F69" s="31">
+      <c r="F69" s="29">
         <v>3.8</v>
       </c>
-      <c r="G69" s="32">
+      <c r="G69" s="30">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="H69" s="49" t="s">
-        <v>202</v>
+      <c r="H69" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
+      <c r="A70" s="26">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B70" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="30">
+      <c r="B70" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="28">
         <v>7079</v>
       </c>
-      <c r="D70" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="33">
+      <c r="D70" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="31">
         <v>5</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="29">
         <v>6.36</v>
       </c>
-      <c r="G70" s="32">
+      <c r="G70" s="30">
         <f t="shared" si="1"/>
         <v>31.8</v>
       </c>
-      <c r="H70" s="49" t="s">
-        <v>202</v>
+      <c r="H70" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
+      <c r="A71" s="26">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B71" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="30">
+      <c r="B71" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="28">
         <v>7080</v>
       </c>
-      <c r="D71" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="33">
+      <c r="D71" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="31">
         <v>5</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="29">
         <v>5.9</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="30">
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="H71" s="49" t="s">
-        <v>202</v>
+      <c r="H71" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A72" s="28">
+      <c r="A72" s="26">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B72" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="30">
+      <c r="B72" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="28">
         <v>7081</v>
       </c>
-      <c r="D72" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="33">
+      <c r="D72" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="31">
         <v>5</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F72" s="29">
         <v>5.61</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G72" s="30">
         <f t="shared" si="1"/>
         <v>28.05</v>
       </c>
-      <c r="H72" s="49" t="s">
-        <v>202</v>
+      <c r="H72" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
+      <c r="A73" s="26">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="30">
+      <c r="B73" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="28">
         <v>4333</v>
       </c>
-      <c r="D73" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="33">
+      <c r="D73" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="31">
         <v>10</v>
       </c>
-      <c r="F73" s="31">
+      <c r="F73" s="29">
         <v>6.81</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="30">
         <f t="shared" si="1"/>
         <v>68.099999999999994</v>
       </c>
-      <c r="H73" s="49" t="s">
-        <v>202</v>
+      <c r="H73" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
+      <c r="A74" s="26">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="30">
+      <c r="B74" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="28">
         <v>1669</v>
       </c>
-      <c r="D74" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="33">
+      <c r="D74" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="31">
         <v>1</v>
       </c>
-      <c r="F74" s="31">
+      <c r="F74" s="29">
         <v>22.16</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="30">
         <f t="shared" si="1"/>
         <v>22.16</v>
       </c>
-      <c r="H74" s="49" t="s">
-        <v>202</v>
+      <c r="H74" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
+      <c r="A75" s="26">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="30">
+      <c r="B75" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="28">
         <v>1670</v>
       </c>
-      <c r="D75" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="33">
+      <c r="D75" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="31">
         <v>1</v>
       </c>
-      <c r="F75" s="31">
+      <c r="F75" s="29">
         <v>51.3</v>
       </c>
-      <c r="G75" s="32">
+      <c r="G75" s="30">
         <f t="shared" si="1"/>
         <v>51.3</v>
       </c>
-      <c r="H75" s="49" t="s">
-        <v>202</v>
+      <c r="H75" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A76" s="28">
+      <c r="A76" s="26">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="30">
+      <c r="B76" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="28">
         <v>1671</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="33">
+      <c r="D76" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="31">
         <v>1</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="29">
         <v>76.72</v>
       </c>
-      <c r="G76" s="32">
+      <c r="G76" s="30">
         <f t="shared" si="1"/>
         <v>76.72</v>
       </c>
-      <c r="H76" s="49" t="s">
-        <v>202</v>
+      <c r="H76" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A77" s="28">
+      <c r="A77" s="26">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B77" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="30">
+      <c r="B77" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="28">
         <v>4365</v>
       </c>
-      <c r="D77" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="33">
+      <c r="D77" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="31">
         <v>1</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="29">
         <v>6.89</v>
       </c>
-      <c r="G77" s="32">
+      <c r="G77" s="30">
         <f t="shared" si="1"/>
         <v>6.89</v>
       </c>
-      <c r="H77" s="49" t="s">
-        <v>201</v>
+      <c r="H77" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A78" s="28">
+      <c r="A78" s="26">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B78" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="30">
+      <c r="B78" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="28">
         <v>1226</v>
       </c>
-      <c r="D78" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="33">
-        <v>2</v>
-      </c>
-      <c r="F78" s="31">
+      <c r="D78" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="31">
+        <v>2</v>
+      </c>
+      <c r="F78" s="29">
         <v>29</v>
       </c>
-      <c r="G78" s="32">
+      <c r="G78" s="30">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="H78" s="51" t="s">
-        <v>201</v>
+      <c r="H78" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A79" s="28">
+      <c r="A79" s="26">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B79" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="30">
+      <c r="B79" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="28">
         <v>1231</v>
       </c>
-      <c r="D79" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="33">
-        <v>2</v>
-      </c>
-      <c r="F79" s="31">
+      <c r="D79" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="31">
+        <v>2</v>
+      </c>
+      <c r="F79" s="29">
         <v>43.8</v>
       </c>
-      <c r="G79" s="32">
+      <c r="G79" s="30">
         <f t="shared" si="1"/>
         <v>87.6</v>
       </c>
-      <c r="H79" s="51" t="s">
-        <v>201</v>
+      <c r="H79" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A80" s="28">
+      <c r="A80" s="26">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B80" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="30">
+      <c r="B80" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="28">
         <v>1238</v>
       </c>
-      <c r="D80" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" s="33">
-        <v>2</v>
-      </c>
-      <c r="F80" s="31">
+      <c r="D80" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="31">
+        <v>2</v>
+      </c>
+      <c r="F80" s="29">
         <v>8</v>
       </c>
-      <c r="G80" s="32">
+      <c r="G80" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H80" s="51" t="s">
-        <v>201</v>
+      <c r="H80" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
+      <c r="A81" s="26">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B81" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="30">
+      <c r="B81" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="28">
         <v>7744</v>
       </c>
-      <c r="D81" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" s="33">
-        <v>2</v>
-      </c>
-      <c r="F81" s="31">
+      <c r="D81" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="31">
+        <v>2</v>
+      </c>
+      <c r="F81" s="29">
         <v>9.98</v>
       </c>
-      <c r="G81" s="32">
+      <c r="G81" s="30">
         <f t="shared" si="1"/>
         <v>19.96</v>
       </c>
-      <c r="H81" s="51" t="s">
-        <v>201</v>
+      <c r="H81" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
+      <c r="A82" s="26">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B82" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="30">
+      <c r="B82" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="28">
         <v>6272</v>
       </c>
-      <c r="D82" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E82" s="33">
-        <v>2</v>
-      </c>
-      <c r="F82" s="31">
+      <c r="D82" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="31">
+        <v>2</v>
+      </c>
+      <c r="F82" s="29">
         <v>130</v>
       </c>
-      <c r="G82" s="32">
+      <c r="G82" s="30">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="H82" s="51" t="s">
-        <v>201</v>
+      <c r="H82" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A83" s="28">
+      <c r="A83" s="26">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B83" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="30">
+      <c r="B83" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="28">
         <v>7200</v>
       </c>
-      <c r="D83" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="33">
-        <v>2</v>
-      </c>
-      <c r="F83" s="31">
+      <c r="D83" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="31">
+        <v>2</v>
+      </c>
+      <c r="F83" s="29">
         <v>2.84</v>
       </c>
-      <c r="G83" s="32">
+      <c r="G83" s="30">
         <f t="shared" si="1"/>
         <v>5.68</v>
       </c>
-      <c r="H83" s="51" t="s">
-        <v>201</v>
+      <c r="H83" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A84" s="28">
+      <c r="A84" s="26">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B84" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="30">
+      <c r="B84" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="28">
         <v>7201</v>
       </c>
-      <c r="D84" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="33">
-        <v>2</v>
-      </c>
-      <c r="F84" s="31">
+      <c r="D84" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="31">
+        <v>2</v>
+      </c>
+      <c r="F84" s="29">
         <v>3.88</v>
       </c>
-      <c r="G84" s="32">
+      <c r="G84" s="30">
         <f t="shared" si="1"/>
         <v>7.76</v>
       </c>
-      <c r="H84" s="51" t="s">
-        <v>201</v>
+      <c r="H84" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A85" s="28">
+      <c r="A85" s="26">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B85" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="30">
+      <c r="B85" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="28">
         <v>7670</v>
       </c>
-      <c r="D85" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" s="33">
-        <v>2</v>
-      </c>
-      <c r="F85" s="31">
+      <c r="D85" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="31">
+        <v>2</v>
+      </c>
+      <c r="F85" s="29">
         <v>8.0500000000000007</v>
       </c>
-      <c r="G85" s="32">
+      <c r="G85" s="30">
         <f t="shared" si="1"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="H85" s="51" t="s">
-        <v>201</v>
+      <c r="H85" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A86" s="28">
+      <c r="A86" s="26">
         <f t="shared" ref="A86:A149" si="2">A85+1</f>
         <v>67</v>
       </c>
-      <c r="B86" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="30">
+      <c r="B86" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="28">
         <v>7202</v>
       </c>
-      <c r="D86" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="33">
-        <v>2</v>
-      </c>
-      <c r="F86" s="31">
+      <c r="D86" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="31">
+        <v>2</v>
+      </c>
+      <c r="F86" s="29">
         <v>5.85</v>
       </c>
-      <c r="G86" s="32">
+      <c r="G86" s="30">
         <f t="shared" ref="G86:G149" si="3">E86*F86</f>
         <v>11.7</v>
       </c>
-      <c r="H86" s="51" t="s">
-        <v>201</v>
+      <c r="H86" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A87" s="28">
+      <c r="A87" s="26">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B87" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="30">
+      <c r="B87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="28">
         <v>7203</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="33">
-        <v>2</v>
-      </c>
-      <c r="F87" s="31">
+      <c r="D87" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="31">
+        <v>2</v>
+      </c>
+      <c r="F87" s="29">
         <v>14.82</v>
       </c>
-      <c r="G87" s="32">
+      <c r="G87" s="30">
         <f t="shared" si="3"/>
         <v>29.64</v>
       </c>
-      <c r="H87" s="51" t="s">
-        <v>201</v>
+      <c r="H87" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A88" s="28">
+      <c r="A88" s="26">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B88" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="30">
+      <c r="B88" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="28">
         <v>7204</v>
       </c>
-      <c r="D88" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="33">
-        <v>2</v>
-      </c>
-      <c r="F88" s="31">
+      <c r="D88" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="31">
+        <v>2</v>
+      </c>
+      <c r="F88" s="29">
         <v>1.26</v>
       </c>
-      <c r="G88" s="32">
+      <c r="G88" s="30">
         <f t="shared" si="3"/>
         <v>2.52</v>
       </c>
-      <c r="H88" s="51" t="s">
-        <v>201</v>
+      <c r="H88" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A89" s="28">
+      <c r="A89" s="26">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B89" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="30">
+      <c r="B89" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="28">
         <v>7205</v>
       </c>
-      <c r="D89" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="33">
-        <v>2</v>
-      </c>
-      <c r="F89" s="31">
+      <c r="D89" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="31">
+        <v>2</v>
+      </c>
+      <c r="F89" s="29">
         <v>2.48</v>
       </c>
-      <c r="G89" s="32">
+      <c r="G89" s="30">
         <f t="shared" si="3"/>
         <v>4.96</v>
       </c>
-      <c r="H89" s="51" t="s">
-        <v>201</v>
+      <c r="H89" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A90" s="28">
+      <c r="A90" s="26">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" s="30">
+      <c r="B90" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="28">
         <v>7671</v>
       </c>
-      <c r="D90" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" s="33">
-        <v>2</v>
-      </c>
-      <c r="F90" s="31">
+      <c r="D90" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="31">
+        <v>2</v>
+      </c>
+      <c r="F90" s="29">
         <v>5.35</v>
       </c>
-      <c r="G90" s="32">
+      <c r="G90" s="30">
         <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
-      <c r="H90" s="51" t="s">
-        <v>201</v>
+      <c r="H90" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A91" s="28">
+      <c r="A91" s="26">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B91" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" s="30">
+      <c r="B91" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="28">
         <v>7206</v>
       </c>
-      <c r="D91" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="33">
-        <v>2</v>
-      </c>
-      <c r="F91" s="31">
+      <c r="D91" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="31">
+        <v>2</v>
+      </c>
+      <c r="F91" s="29">
         <v>3.9</v>
       </c>
-      <c r="G91" s="32">
+      <c r="G91" s="30">
         <f t="shared" si="3"/>
         <v>7.8</v>
       </c>
-      <c r="H91" s="51" t="s">
-        <v>201</v>
+      <c r="H91" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A92" s="28">
+      <c r="A92" s="26">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B92" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" s="30">
+      <c r="B92" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="28">
         <v>7207</v>
       </c>
-      <c r="D92" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" s="33">
-        <v>2</v>
-      </c>
-      <c r="F92" s="31">
+      <c r="D92" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="31">
+        <v>2</v>
+      </c>
+      <c r="F92" s="29">
         <v>4.2</v>
       </c>
-      <c r="G92" s="32">
+      <c r="G92" s="30">
         <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
-      <c r="H92" s="51" t="s">
-        <v>201</v>
+      <c r="H92" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A93" s="28">
+      <c r="A93" s="26">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B93" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" s="30">
+      <c r="B93" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="28">
         <v>7208</v>
       </c>
-      <c r="D93" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" s="33">
-        <v>2</v>
-      </c>
-      <c r="F93" s="31">
+      <c r="D93" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="31">
+        <v>2</v>
+      </c>
+      <c r="F93" s="29">
         <v>8.14</v>
       </c>
-      <c r="G93" s="32">
+      <c r="G93" s="30">
         <f t="shared" si="3"/>
         <v>16.28</v>
       </c>
-      <c r="H93" s="51" t="s">
-        <v>201</v>
+      <c r="H93" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A94" s="28">
+      <c r="A94" s="26">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B94" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C94" s="30">
+      <c r="B94" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="28">
         <v>7672</v>
       </c>
-      <c r="D94" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" s="33">
-        <v>2</v>
-      </c>
-      <c r="F94" s="31">
+      <c r="D94" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="31">
+        <v>2</v>
+      </c>
+      <c r="F94" s="29">
         <v>14.78</v>
       </c>
-      <c r="G94" s="32">
+      <c r="G94" s="30">
         <f t="shared" si="3"/>
         <v>29.56</v>
       </c>
-      <c r="H94" s="51" t="s">
-        <v>201</v>
+      <c r="H94" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A95" s="28">
+      <c r="A95" s="26">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B95" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" s="30">
+      <c r="B95" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="28">
         <v>7209</v>
       </c>
-      <c r="D95" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="33">
-        <v>2</v>
-      </c>
-      <c r="F95" s="31">
+      <c r="D95" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="31">
+        <v>2</v>
+      </c>
+      <c r="F95" s="29">
         <v>10.77</v>
       </c>
-      <c r="G95" s="32">
+      <c r="G95" s="30">
         <f t="shared" si="3"/>
         <v>21.54</v>
       </c>
-      <c r="H95" s="51" t="s">
-        <v>201</v>
+      <c r="H95" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A96" s="28">
+      <c r="A96" s="26">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B96" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" s="30">
+      <c r="B96" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="28">
         <v>7673</v>
       </c>
-      <c r="D96" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" s="33">
-        <v>2</v>
-      </c>
-      <c r="F96" s="31">
+      <c r="D96" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="31">
+        <v>2</v>
+      </c>
+      <c r="F96" s="29">
         <v>33.32</v>
       </c>
-      <c r="G96" s="32">
+      <c r="G96" s="30">
         <f t="shared" si="3"/>
         <v>66.64</v>
       </c>
-      <c r="H96" s="51" t="s">
-        <v>201</v>
+      <c r="H96" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A97" s="28">
+      <c r="A97" s="26">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B97" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" s="30">
+      <c r="B97" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="28">
         <v>7210</v>
       </c>
-      <c r="D97" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E97" s="33">
-        <v>2</v>
-      </c>
-      <c r="F97" s="31">
+      <c r="D97" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="31">
+        <v>2</v>
+      </c>
+      <c r="F97" s="29">
         <v>24.17</v>
       </c>
-      <c r="G97" s="32">
+      <c r="G97" s="30">
         <f t="shared" si="3"/>
         <v>48.34</v>
       </c>
-      <c r="H97" s="51" t="s">
-        <v>201</v>
+      <c r="H97" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A98" s="28">
+      <c r="A98" s="26">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B98" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" s="30">
+      <c r="B98" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="28">
         <v>7211</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" s="33">
-        <v>2</v>
-      </c>
-      <c r="F98" s="31">
+      <c r="D98" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="31">
+        <v>2</v>
+      </c>
+      <c r="F98" s="29">
         <v>38.07</v>
       </c>
-      <c r="G98" s="32">
+      <c r="G98" s="30">
         <f t="shared" si="3"/>
         <v>76.14</v>
       </c>
-      <c r="H98" s="51" t="s">
-        <v>201</v>
+      <c r="H98" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A99" s="28">
+      <c r="A99" s="26">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B99" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="30">
+      <c r="B99" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="28">
         <v>7674</v>
       </c>
-      <c r="D99" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" s="33">
-        <v>2</v>
-      </c>
-      <c r="F99" s="31">
+      <c r="D99" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="31">
+        <v>2</v>
+      </c>
+      <c r="F99" s="29">
         <v>2.77</v>
       </c>
-      <c r="G99" s="32">
+      <c r="G99" s="30">
         <f t="shared" si="3"/>
         <v>5.54</v>
       </c>
-      <c r="H99" s="51" t="s">
-        <v>201</v>
+      <c r="H99" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A100" s="28">
+      <c r="A100" s="26">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B100" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="30">
+      <c r="B100" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="28">
         <v>7212</v>
       </c>
-      <c r="D100" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="33">
-        <v>2</v>
-      </c>
-      <c r="F100" s="31">
+      <c r="D100" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="31">
+        <v>2</v>
+      </c>
+      <c r="F100" s="29">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G100" s="32">
+      <c r="G100" s="30">
         <f t="shared" si="3"/>
         <v>4.0599999999999996</v>
       </c>
-      <c r="H100" s="51" t="s">
-        <v>201</v>
+      <c r="H100" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A101" s="28">
+      <c r="A101" s="26">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B101" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="30">
+      <c r="B101" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="28">
         <v>7213</v>
       </c>
-      <c r="D101" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" s="33">
-        <v>2</v>
-      </c>
-      <c r="F101" s="31">
+      <c r="D101" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="31">
+        <v>2</v>
+      </c>
+      <c r="F101" s="29">
         <v>3.12</v>
       </c>
-      <c r="G101" s="32">
+      <c r="G101" s="30">
         <f t="shared" si="3"/>
         <v>6.24</v>
       </c>
-      <c r="H101" s="51" t="s">
-        <v>201</v>
+      <c r="H101" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A102" s="28">
+      <c r="A102" s="26">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B102" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102" s="30">
+      <c r="B102" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="28">
         <v>7675</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" s="33">
-        <v>2</v>
-      </c>
-      <c r="F102" s="31">
+      <c r="D102" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="31">
+        <v>2</v>
+      </c>
+      <c r="F102" s="29">
         <v>4.95</v>
       </c>
-      <c r="G102" s="32">
+      <c r="G102" s="30">
         <f t="shared" si="3"/>
         <v>9.9</v>
       </c>
-      <c r="H102" s="51" t="s">
-        <v>201</v>
+      <c r="H102" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A103" s="28">
+      <c r="A103" s="26">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B103" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" s="30">
+      <c r="B103" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="28">
         <v>7214</v>
       </c>
-      <c r="D103" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="33">
-        <v>2</v>
-      </c>
-      <c r="F103" s="31">
+      <c r="D103" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="31">
+        <v>2</v>
+      </c>
+      <c r="F103" s="29">
         <v>4.2</v>
       </c>
-      <c r="G103" s="32">
+      <c r="G103" s="30">
         <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
-      <c r="H103" s="51" t="s">
-        <v>201</v>
+      <c r="H103" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A104" s="28">
+      <c r="A104" s="26">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B104" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="30">
+      <c r="B104" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="28">
         <v>6889</v>
       </c>
-      <c r="D104" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="33">
-        <v>2</v>
-      </c>
-      <c r="F104" s="31">
+      <c r="D104" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="31">
+        <v>2</v>
+      </c>
+      <c r="F104" s="29">
         <v>11.12</v>
       </c>
-      <c r="G104" s="32">
+      <c r="G104" s="30">
         <f t="shared" si="3"/>
         <v>22.24</v>
       </c>
-      <c r="H104" s="51" t="s">
-        <v>201</v>
+      <c r="H104" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A105" s="28">
+      <c r="A105" s="26">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B105" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="30">
+      <c r="B105" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="28">
         <v>6905</v>
       </c>
-      <c r="D105" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="33">
-        <v>2</v>
-      </c>
-      <c r="F105" s="31">
+      <c r="D105" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="31">
+        <v>2</v>
+      </c>
+      <c r="F105" s="29">
         <v>11.64</v>
       </c>
-      <c r="G105" s="32">
+      <c r="G105" s="30">
         <f t="shared" si="3"/>
         <v>23.28</v>
       </c>
-      <c r="H105" s="51" t="s">
-        <v>201</v>
+      <c r="H105" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A106" s="28">
+      <c r="A106" s="26">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B106" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="30">
+      <c r="B106" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="28">
         <v>6892</v>
       </c>
-      <c r="D106" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="33">
-        <v>2</v>
-      </c>
-      <c r="F106" s="31">
+      <c r="D106" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="31">
+        <v>2</v>
+      </c>
+      <c r="F106" s="29">
         <v>12.06</v>
       </c>
-      <c r="G106" s="32">
+      <c r="G106" s="30">
         <f t="shared" si="3"/>
         <v>24.12</v>
       </c>
-      <c r="H106" s="51" t="s">
-        <v>201</v>
+      <c r="H106" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A107" s="28">
+      <c r="A107" s="26">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B107" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C107" s="30">
+      <c r="B107" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="28">
         <v>3619</v>
       </c>
-      <c r="D107" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E107" s="33">
+      <c r="D107" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="31">
         <v>3</v>
       </c>
-      <c r="F107" s="31">
+      <c r="F107" s="29">
         <v>3.05</v>
       </c>
-      <c r="G107" s="32">
+      <c r="G107" s="30">
         <f t="shared" si="3"/>
         <v>9.1499999999999986</v>
       </c>
-      <c r="H107" s="51" t="s">
-        <v>201</v>
+      <c r="H107" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A108" s="28">
+      <c r="A108" s="26">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B108" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="30">
+      <c r="B108" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="28">
         <v>6902</v>
       </c>
-      <c r="D108" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E108" s="33">
-        <v>2</v>
-      </c>
-      <c r="F108" s="31">
+      <c r="D108" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="31">
+        <v>2</v>
+      </c>
+      <c r="F108" s="29">
         <v>16.87</v>
       </c>
-      <c r="G108" s="32">
+      <c r="G108" s="30">
         <f t="shared" si="3"/>
         <v>33.74</v>
       </c>
-      <c r="H108" s="51" t="s">
-        <v>201</v>
+      <c r="H108" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A109" s="28">
+      <c r="A109" s="26">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B109" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="30">
+      <c r="B109" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="28">
         <v>6899</v>
       </c>
-      <c r="D109" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" s="33">
-        <v>2</v>
-      </c>
-      <c r="F109" s="31">
+      <c r="D109" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="31">
+        <v>2</v>
+      </c>
+      <c r="F109" s="29">
         <v>11.13</v>
       </c>
-      <c r="G109" s="32">
+      <c r="G109" s="30">
         <f t="shared" si="3"/>
         <v>22.26</v>
       </c>
-      <c r="H109" s="51" t="s">
-        <v>201</v>
+      <c r="H109" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A110" s="28">
+      <c r="A110" s="26">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B110" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="30">
+      <c r="B110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="28">
         <v>6895</v>
       </c>
-      <c r="D110" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E110" s="33">
-        <v>2</v>
-      </c>
-      <c r="F110" s="31">
+      <c r="D110" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="31">
+        <v>2</v>
+      </c>
+      <c r="F110" s="29">
         <v>19.850000000000001</v>
       </c>
-      <c r="G110" s="32">
+      <c r="G110" s="30">
         <f t="shared" si="3"/>
         <v>39.700000000000003</v>
       </c>
-      <c r="H110" s="51" t="s">
-        <v>201</v>
+      <c r="H110" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A111" s="28">
+      <c r="A111" s="26">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B111" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="30">
+      <c r="B111" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="28">
         <v>6894</v>
       </c>
-      <c r="D111" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" s="33">
-        <v>2</v>
-      </c>
-      <c r="F111" s="31">
+      <c r="D111" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="31">
+        <v>2</v>
+      </c>
+      <c r="F111" s="29">
         <v>19.850000000000001</v>
       </c>
-      <c r="G111" s="32">
+      <c r="G111" s="30">
         <f t="shared" si="3"/>
         <v>39.700000000000003</v>
       </c>
-      <c r="H111" s="51" t="s">
-        <v>201</v>
+      <c r="H111" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A112" s="28">
+      <c r="A112" s="26">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B112" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" s="30">
+      <c r="B112" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="28">
         <v>6896</v>
       </c>
-      <c r="D112" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E112" s="33">
-        <v>2</v>
-      </c>
-      <c r="F112" s="31">
+      <c r="D112" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="31">
+        <v>2</v>
+      </c>
+      <c r="F112" s="29">
         <v>12.42</v>
       </c>
-      <c r="G112" s="32">
+      <c r="G112" s="30">
         <f t="shared" si="3"/>
         <v>24.84</v>
       </c>
-      <c r="H112" s="51" t="s">
-        <v>201</v>
+      <c r="H112" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A113" s="28">
+      <c r="A113" s="26">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B113" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="30">
+      <c r="B113" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="28">
         <v>5478</v>
       </c>
-      <c r="D113" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E113" s="33">
+      <c r="D113" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="31">
         <v>3</v>
       </c>
-      <c r="F113" s="31">
+      <c r="F113" s="29">
         <v>2.13</v>
       </c>
-      <c r="G113" s="32">
+      <c r="G113" s="30">
         <f t="shared" si="3"/>
         <v>6.39</v>
       </c>
-      <c r="H113" s="51" t="s">
-        <v>201</v>
+      <c r="H113" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A114" s="28">
+      <c r="A114" s="26">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B114" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="30">
+      <c r="B114" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="28">
         <v>7041</v>
       </c>
-      <c r="D114" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E114" s="33">
-        <v>2</v>
-      </c>
-      <c r="F114" s="31">
+      <c r="D114" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114" s="31">
+        <v>2</v>
+      </c>
+      <c r="F114" s="29">
         <v>111.55</v>
       </c>
-      <c r="G114" s="32">
+      <c r="G114" s="30">
         <f t="shared" si="3"/>
         <v>223.1</v>
       </c>
-      <c r="H114" s="49" t="s">
-        <v>203</v>
+      <c r="H114" s="47" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A115" s="28">
+      <c r="A115" s="26">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B115" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" s="30">
+      <c r="B115" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="28">
         <v>7042</v>
       </c>
-      <c r="D115" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E115" s="33">
-        <v>2</v>
-      </c>
-      <c r="F115" s="31">
+      <c r="D115" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="31">
+        <v>2</v>
+      </c>
+      <c r="F115" s="29">
         <v>111.55</v>
       </c>
-      <c r="G115" s="32">
+      <c r="G115" s="30">
         <f t="shared" si="3"/>
         <v>223.1</v>
       </c>
-      <c r="H115" s="49" t="s">
-        <v>203</v>
+      <c r="H115" s="47" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A116" s="28">
+      <c r="A116" s="26">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B116" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C116" s="30">
+      <c r="B116" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="28">
         <v>7043</v>
       </c>
-      <c r="D116" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E116" s="33">
-        <v>2</v>
-      </c>
-      <c r="F116" s="31">
+      <c r="D116" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E116" s="31">
+        <v>2</v>
+      </c>
+      <c r="F116" s="29">
         <v>120</v>
       </c>
-      <c r="G116" s="32">
+      <c r="G116" s="30">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="H116" s="49" t="s">
-        <v>203</v>
+      <c r="H116" s="47" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A117" s="28">
+      <c r="A117" s="26">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B117" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C117" s="30">
+      <c r="B117" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="28">
         <v>6912</v>
       </c>
-      <c r="D117" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E117" s="33">
+      <c r="D117" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="31">
         <v>4</v>
       </c>
-      <c r="F117" s="31">
+      <c r="F117" s="29">
         <v>5.34</v>
       </c>
-      <c r="G117" s="32">
+      <c r="G117" s="30">
         <f t="shared" si="3"/>
         <v>21.36</v>
       </c>
-      <c r="H117" s="51" t="s">
-        <v>201</v>
+      <c r="H117" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A118" s="28">
+      <c r="A118" s="26">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B118" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C118" s="30">
+      <c r="B118" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="28">
         <v>6626</v>
       </c>
-      <c r="D118" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E118" s="33">
+      <c r="D118" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="31">
         <v>1</v>
       </c>
-      <c r="F118" s="31">
+      <c r="F118" s="29">
         <v>12.11</v>
       </c>
-      <c r="G118" s="32">
+      <c r="G118" s="30">
         <f t="shared" si="3"/>
         <v>12.11</v>
       </c>
-      <c r="H118" s="51" t="s">
-        <v>201</v>
+      <c r="H118" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A119" s="28">
+      <c r="A119" s="26">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B119" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C119" s="30">
+      <c r="B119" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="28">
         <v>6618</v>
       </c>
-      <c r="D119" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E119" s="33">
+      <c r="D119" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="31">
         <v>4</v>
       </c>
-      <c r="F119" s="31">
+      <c r="F119" s="29">
         <v>0.35</v>
       </c>
-      <c r="G119" s="32">
+      <c r="G119" s="30">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="H119" s="51" t="s">
-        <v>201</v>
+      <c r="H119" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A120" s="28">
+      <c r="A120" s="26">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B120" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C120" s="30">
+      <c r="B120" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="28">
         <v>6619</v>
       </c>
-      <c r="D120" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E120" s="33">
+      <c r="D120" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="31">
         <v>4</v>
       </c>
-      <c r="F120" s="31">
+      <c r="F120" s="29">
         <v>0.65</v>
       </c>
-      <c r="G120" s="32">
+      <c r="G120" s="30">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="H120" s="51" t="s">
-        <v>201</v>
+      <c r="H120" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A121" s="28">
+      <c r="A121" s="26">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B121" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C121" s="30">
+      <c r="B121" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="28">
         <v>6620</v>
       </c>
-      <c r="D121" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E121" s="33">
+      <c r="D121" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="31">
         <v>4</v>
       </c>
-      <c r="F121" s="31">
+      <c r="F121" s="29">
         <v>0.76</v>
       </c>
-      <c r="G121" s="32">
+      <c r="G121" s="30">
         <f t="shared" si="3"/>
         <v>3.04</v>
       </c>
-      <c r="H121" s="51" t="s">
-        <v>201</v>
+      <c r="H121" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A122" s="28">
+      <c r="A122" s="26">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B122" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C122" s="30">
+      <c r="B122" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" s="28">
         <v>6624</v>
       </c>
-      <c r="D122" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E122" s="33">
+      <c r="D122" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="31">
         <v>4</v>
       </c>
-      <c r="F122" s="31">
+      <c r="F122" s="29">
         <v>1.66</v>
       </c>
-      <c r="G122" s="32">
+      <c r="G122" s="30">
         <f t="shared" si="3"/>
         <v>6.64</v>
       </c>
-      <c r="H122" s="51" t="s">
-        <v>201</v>
+      <c r="H122" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A123" s="28">
+      <c r="A123" s="26">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B123" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C123" s="30">
+      <c r="B123" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="28">
         <v>7336</v>
       </c>
-      <c r="D123" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" s="33">
-        <v>2</v>
-      </c>
-      <c r="F123" s="31">
+      <c r="D123" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="31">
+        <v>2</v>
+      </c>
+      <c r="F123" s="29">
         <v>3.5</v>
       </c>
-      <c r="G123" s="32">
+      <c r="G123" s="30">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H123" s="51" t="s">
-        <v>201</v>
+      <c r="H123" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A124" s="28">
+      <c r="A124" s="26">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B124" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" s="30">
+      <c r="B124" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="28">
         <v>7337</v>
       </c>
-      <c r="D124" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E124" s="33">
-        <v>2</v>
-      </c>
-      <c r="F124" s="31">
+      <c r="D124" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="31">
+        <v>2</v>
+      </c>
+      <c r="F124" s="29">
         <v>6.56</v>
       </c>
-      <c r="G124" s="32">
+      <c r="G124" s="30">
         <f t="shared" si="3"/>
         <v>13.12</v>
       </c>
-      <c r="H124" s="51" t="s">
-        <v>201</v>
+      <c r="H124" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A125" s="28">
+      <c r="A125" s="26">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B125" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C125" s="30">
+      <c r="B125" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="28">
         <v>6627</v>
       </c>
-      <c r="D125" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E125" s="33">
-        <v>2</v>
-      </c>
-      <c r="F125" s="31">
+      <c r="D125" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" s="31">
+        <v>2</v>
+      </c>
+      <c r="F125" s="29">
         <v>3.58</v>
       </c>
-      <c r="G125" s="32">
+      <c r="G125" s="30">
         <f t="shared" si="3"/>
         <v>7.16</v>
       </c>
-      <c r="H125" s="51" t="s">
-        <v>201</v>
+      <c r="H125" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A126" s="28">
+      <c r="A126" s="26">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B126" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="30">
+      <c r="B126" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="28">
         <v>6628</v>
       </c>
-      <c r="D126" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E126" s="33">
-        <v>2</v>
-      </c>
-      <c r="F126" s="31">
+      <c r="D126" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="31">
+        <v>2</v>
+      </c>
+      <c r="F126" s="29">
         <v>5.16</v>
       </c>
-      <c r="G126" s="32">
+      <c r="G126" s="30">
         <f t="shared" si="3"/>
         <v>10.32</v>
       </c>
-      <c r="H126" s="51" t="s">
-        <v>201</v>
+      <c r="H126" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A127" s="28">
+      <c r="A127" s="26">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B127" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C127" s="30">
+      <c r="B127" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" s="28">
         <v>6629</v>
       </c>
-      <c r="D127" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E127" s="33">
-        <v>2</v>
-      </c>
-      <c r="F127" s="31">
+      <c r="D127" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="31">
+        <v>2</v>
+      </c>
+      <c r="F127" s="29">
         <v>6</v>
       </c>
-      <c r="G127" s="32">
+      <c r="G127" s="30">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H127" s="51" t="s">
-        <v>201</v>
+      <c r="H127" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A128" s="28">
+      <c r="A128" s="26">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B128" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C128" s="30">
+      <c r="B128" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" s="28">
         <v>6630</v>
       </c>
-      <c r="D128" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E128" s="33">
-        <v>2</v>
-      </c>
-      <c r="F128" s="31">
+      <c r="D128" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="31">
+        <v>2</v>
+      </c>
+      <c r="F128" s="29">
         <v>7.82</v>
       </c>
-      <c r="G128" s="32">
+      <c r="G128" s="30">
         <f t="shared" si="3"/>
         <v>15.64</v>
       </c>
-      <c r="H128" s="51" t="s">
-        <v>201</v>
+      <c r="H128" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A129" s="28">
+      <c r="A129" s="26">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B129" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C129" s="30">
+      <c r="B129" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="28">
         <v>6625</v>
       </c>
-      <c r="D129" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E129" s="33">
-        <v>2</v>
-      </c>
-      <c r="F129" s="31">
+      <c r="D129" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="31">
+        <v>2</v>
+      </c>
+      <c r="F129" s="29">
         <v>11.23</v>
       </c>
-      <c r="G129" s="32">
+      <c r="G129" s="30">
         <f t="shared" si="3"/>
         <v>22.46</v>
       </c>
-      <c r="H129" s="51" t="s">
-        <v>201</v>
+      <c r="H129" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A130" s="28">
+      <c r="A130" s="26">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B130" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C130" s="30">
+      <c r="B130" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="28">
         <v>7083</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E130" s="33">
+      <c r="D130" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" s="31">
         <v>1</v>
       </c>
-      <c r="F130" s="31">
+      <c r="F130" s="29">
         <v>201.16</v>
       </c>
-      <c r="G130" s="32">
+      <c r="G130" s="30">
         <f t="shared" si="3"/>
         <v>201.16</v>
       </c>
-      <c r="H130" s="51" t="s">
-        <v>201</v>
+      <c r="H130" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A131" s="28">
+      <c r="A131" s="26">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B131" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C131" s="30">
+      <c r="B131" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="28">
         <v>6617</v>
       </c>
-      <c r="D131" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E131" s="33">
+      <c r="D131" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E131" s="31">
         <v>5</v>
       </c>
-      <c r="F131" s="31">
+      <c r="F131" s="29">
         <v>0.21</v>
       </c>
-      <c r="G131" s="32">
+      <c r="G131" s="30">
         <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
-      <c r="H131" s="51" t="s">
-        <v>201</v>
+      <c r="H131" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A132" s="28">
+      <c r="A132" s="26">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B132" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C132" s="30">
+      <c r="B132" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="28">
         <v>6623</v>
       </c>
-      <c r="D132" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E132" s="33">
+      <c r="D132" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="31">
         <v>4</v>
       </c>
-      <c r="F132" s="31">
+      <c r="F132" s="29">
         <v>0.76</v>
       </c>
-      <c r="G132" s="32">
+      <c r="G132" s="30">
         <f t="shared" si="3"/>
         <v>3.04</v>
       </c>
-      <c r="H132" s="51" t="s">
-        <v>201</v>
+      <c r="H132" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A133" s="28">
+      <c r="A133" s="26">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B133" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C133" s="30">
+      <c r="B133" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="28">
         <v>6621</v>
       </c>
-      <c r="D133" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E133" s="33">
+      <c r="D133" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E133" s="31">
         <v>4</v>
       </c>
-      <c r="F133" s="31">
+      <c r="F133" s="29">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G133" s="32">
+      <c r="G133" s="30">
         <f t="shared" si="3"/>
         <v>4.3600000000000003</v>
       </c>
-      <c r="H133" s="51" t="s">
-        <v>201</v>
+      <c r="H133" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A134" s="28">
+      <c r="A134" s="26">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B134" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C134" s="30">
+      <c r="B134" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" s="28">
         <v>6622</v>
       </c>
-      <c r="D134" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E134" s="33">
+      <c r="D134" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="31">
         <v>4</v>
       </c>
-      <c r="F134" s="31">
+      <c r="F134" s="29">
         <v>1.66</v>
       </c>
-      <c r="G134" s="32">
+      <c r="G134" s="30">
         <f t="shared" si="3"/>
         <v>6.64</v>
       </c>
-      <c r="H134" s="51" t="s">
-        <v>201</v>
+      <c r="H134" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A135" s="28">
+      <c r="A135" s="26">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B135" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C135" s="30">
+      <c r="B135" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="28">
         <v>5647</v>
       </c>
-      <c r="D135" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E135" s="33">
-        <v>2</v>
-      </c>
-      <c r="F135" s="31">
+      <c r="D135" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E135" s="31">
+        <v>2</v>
+      </c>
+      <c r="F135" s="29">
         <v>9.19</v>
       </c>
-      <c r="G135" s="32">
+      <c r="G135" s="30">
         <f t="shared" si="3"/>
         <v>18.38</v>
       </c>
-      <c r="H135" s="51" t="s">
-        <v>201</v>
+      <c r="H135" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A136" s="28">
+      <c r="A136" s="26">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B136" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C136" s="30">
+      <c r="B136" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" s="28">
         <v>6341</v>
       </c>
-      <c r="D136" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E136" s="34">
+      <c r="D136" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" s="32">
         <v>6.55</v>
       </c>
-      <c r="F136" s="31">
+      <c r="F136" s="29">
         <v>5.43</v>
       </c>
-      <c r="G136" s="32">
+      <c r="G136" s="30">
         <f t="shared" si="3"/>
         <v>35.566499999999998</v>
       </c>
-      <c r="H136" s="49" t="s">
-        <v>204</v>
+      <c r="H136" s="47" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A137" s="28">
+      <c r="A137" s="26">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B137" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C137" s="30">
+      <c r="B137" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" s="28">
         <v>5279</v>
       </c>
-      <c r="D137" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E137" s="34">
+      <c r="D137" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="32">
         <v>6.15</v>
       </c>
-      <c r="F137" s="31">
+      <c r="F137" s="29">
         <v>5.4</v>
       </c>
-      <c r="G137" s="32">
+      <c r="G137" s="30">
         <f t="shared" si="3"/>
         <v>33.21</v>
       </c>
-      <c r="H137" s="49" t="s">
-        <v>204</v>
+      <c r="H137" s="47" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A138" s="28">
+      <c r="A138" s="26">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B138" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C138" s="30">
+      <c r="B138" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="28">
         <v>7756</v>
       </c>
-      <c r="D138" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E138" s="34">
+      <c r="D138" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E138" s="32">
         <v>18.670000000000002</v>
       </c>
-      <c r="F138" s="31">
+      <c r="F138" s="29">
         <v>3.5</v>
       </c>
-      <c r="G138" s="32">
+      <c r="G138" s="30">
         <f t="shared" si="3"/>
         <v>65.344999999999999</v>
       </c>
-      <c r="H138" s="49" t="s">
-        <v>204</v>
+      <c r="H138" s="47" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A139" s="28">
+      <c r="A139" s="26">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B139" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C139" s="30">
+      <c r="B139" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="28">
         <v>7383</v>
       </c>
-      <c r="D139" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E139" s="33">
-        <v>2</v>
-      </c>
-      <c r="F139" s="31">
+      <c r="D139" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="31">
+        <v>2</v>
+      </c>
+      <c r="F139" s="29">
         <v>13.78</v>
       </c>
-      <c r="G139" s="32">
+      <c r="G139" s="30">
         <f t="shared" si="3"/>
         <v>27.56</v>
       </c>
-      <c r="H139" s="51" t="s">
-        <v>201</v>
+      <c r="H139" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A140" s="28">
+      <c r="A140" s="26">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B140" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C140" s="30">
+      <c r="B140" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" s="28">
         <v>7082</v>
       </c>
-      <c r="D140" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E140" s="33">
-        <v>2</v>
-      </c>
-      <c r="F140" s="31">
+      <c r="D140" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="31">
+        <v>2</v>
+      </c>
+      <c r="F140" s="29">
         <v>13.78</v>
       </c>
-      <c r="G140" s="32">
+      <c r="G140" s="30">
         <f t="shared" si="3"/>
         <v>27.56</v>
       </c>
-      <c r="H140" s="51" t="s">
-        <v>201</v>
+      <c r="H140" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A141" s="28">
+      <c r="A141" s="26">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B141" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C141" s="30">
+      <c r="B141" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="28">
         <v>6900</v>
       </c>
-      <c r="D141" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E141" s="33">
-        <v>2</v>
-      </c>
-      <c r="F141" s="31">
+      <c r="D141" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="31">
+        <v>2</v>
+      </c>
+      <c r="F141" s="29">
         <v>10.91</v>
       </c>
-      <c r="G141" s="32">
+      <c r="G141" s="30">
         <f t="shared" si="3"/>
         <v>21.82</v>
       </c>
-      <c r="H141" s="51" t="s">
-        <v>201</v>
+      <c r="H141" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A142" s="28">
+      <c r="A142" s="26">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B142" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" s="30">
+      <c r="B142" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C142" s="28">
         <v>6897</v>
       </c>
-      <c r="D142" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E142" s="33">
-        <v>2</v>
-      </c>
-      <c r="F142" s="31">
+      <c r="D142" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142" s="31">
+        <v>2</v>
+      </c>
+      <c r="F142" s="29">
         <v>10.91</v>
       </c>
-      <c r="G142" s="32">
+      <c r="G142" s="30">
         <f t="shared" si="3"/>
         <v>21.82</v>
       </c>
-      <c r="H142" s="51" t="s">
-        <v>201</v>
+      <c r="H142" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A143" s="28">
+      <c r="A143" s="26">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="B143" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143" s="30">
+      <c r="B143" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="28">
         <v>6636</v>
       </c>
-      <c r="D143" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E143" s="33">
-        <v>2</v>
-      </c>
-      <c r="F143" s="31">
+      <c r="D143" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="31">
+        <v>2</v>
+      </c>
+      <c r="F143" s="29">
         <v>10.050000000000001</v>
       </c>
-      <c r="G143" s="32">
+      <c r="G143" s="30">
         <f t="shared" si="3"/>
         <v>20.100000000000001</v>
       </c>
-      <c r="H143" s="51" t="s">
-        <v>201</v>
+      <c r="H143" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A144" s="28">
+      <c r="A144" s="26">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="B144" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C144" s="30">
+      <c r="B144" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="28">
         <v>6637</v>
       </c>
-      <c r="D144" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E144" s="33">
-        <v>2</v>
-      </c>
-      <c r="F144" s="31">
+      <c r="D144" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="31">
+        <v>2</v>
+      </c>
+      <c r="F144" s="29">
         <v>10.050000000000001</v>
       </c>
-      <c r="G144" s="32">
+      <c r="G144" s="30">
         <f t="shared" si="3"/>
         <v>20.100000000000001</v>
       </c>
-      <c r="H144" s="51" t="s">
-        <v>201</v>
+      <c r="H144" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A145" s="28">
+      <c r="A145" s="26">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="B145" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C145" s="30">
+      <c r="B145" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="28">
         <v>6638</v>
       </c>
-      <c r="D145" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E145" s="33">
-        <v>2</v>
-      </c>
-      <c r="F145" s="31">
+      <c r="D145" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="31">
+        <v>2</v>
+      </c>
+      <c r="F145" s="29">
         <v>10.15</v>
       </c>
-      <c r="G145" s="32">
+      <c r="G145" s="30">
         <f t="shared" si="3"/>
         <v>20.3</v>
       </c>
-      <c r="H145" s="51" t="s">
-        <v>201</v>
+      <c r="H145" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A146" s="28">
+      <c r="A146" s="26">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B146" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C146" s="30">
+      <c r="B146" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146" s="28">
         <v>6639</v>
       </c>
-      <c r="D146" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E146" s="33">
-        <v>2</v>
-      </c>
-      <c r="F146" s="31">
+      <c r="D146" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" s="31">
+        <v>2</v>
+      </c>
+      <c r="F146" s="29">
         <v>12</v>
       </c>
-      <c r="G146" s="32">
+      <c r="G146" s="30">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="H146" s="51" t="s">
-        <v>201</v>
+      <c r="H146" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A147" s="28">
+      <c r="A147" s="26">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B147" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C147" s="30">
+      <c r="B147" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C147" s="28">
         <v>6640</v>
       </c>
-      <c r="D147" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E147" s="33">
-        <v>2</v>
-      </c>
-      <c r="F147" s="31">
+      <c r="D147" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" s="31">
+        <v>2</v>
+      </c>
+      <c r="F147" s="29">
         <v>15.2</v>
       </c>
-      <c r="G147" s="32">
+      <c r="G147" s="30">
         <f t="shared" si="3"/>
         <v>30.4</v>
       </c>
-      <c r="H147" s="51" t="s">
-        <v>201</v>
+      <c r="H147" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A148" s="28">
+      <c r="A148" s="26">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B148" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="C148" s="30">
+      <c r="B148" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="28">
         <v>6641</v>
       </c>
-      <c r="D148" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E148" s="33">
-        <v>2</v>
-      </c>
-      <c r="F148" s="31">
+      <c r="D148" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E148" s="31">
+        <v>2</v>
+      </c>
+      <c r="F148" s="29">
         <v>18.899999999999999</v>
       </c>
-      <c r="G148" s="32">
+      <c r="G148" s="30">
         <f t="shared" si="3"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="H148" s="51" t="s">
-        <v>201</v>
+      <c r="H148" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A149" s="28">
+      <c r="A149" s="26">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B149" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C149" s="30">
+      <c r="B149" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" s="28">
         <v>6644</v>
       </c>
-      <c r="D149" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E149" s="33">
-        <v>2</v>
-      </c>
-      <c r="F149" s="31">
+      <c r="D149" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" s="31">
+        <v>2</v>
+      </c>
+      <c r="F149" s="29">
         <v>13</v>
       </c>
-      <c r="G149" s="32">
+      <c r="G149" s="30">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="H149" s="51" t="s">
-        <v>201</v>
+      <c r="H149" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A150" s="28">
+      <c r="A150" s="26">
         <f t="shared" ref="A150:A163" si="4">A149+1</f>
         <v>131</v>
       </c>
-      <c r="B150" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="C150" s="30">
+      <c r="B150" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C150" s="28">
         <v>6642</v>
       </c>
-      <c r="D150" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E150" s="33">
-        <v>2</v>
-      </c>
-      <c r="F150" s="31">
+      <c r="D150" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="31">
+        <v>2</v>
+      </c>
+      <c r="F150" s="29">
         <v>3.74</v>
       </c>
-      <c r="G150" s="32">
+      <c r="G150" s="30">
         <f t="shared" ref="G150:G163" si="5">E150*F150</f>
         <v>7.48</v>
       </c>
-      <c r="H150" s="51" t="s">
-        <v>201</v>
+      <c r="H150" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A151" s="28">
+      <c r="A151" s="26">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="B151" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="C151" s="30">
+      <c r="B151" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C151" s="28">
         <v>6643</v>
       </c>
-      <c r="D151" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E151" s="33">
-        <v>2</v>
-      </c>
-      <c r="F151" s="31">
+      <c r="D151" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="31">
+        <v>2</v>
+      </c>
+      <c r="F151" s="29">
         <v>5.99</v>
       </c>
-      <c r="G151" s="32">
+      <c r="G151" s="30">
         <f t="shared" si="5"/>
         <v>11.98</v>
       </c>
-      <c r="H151" s="51" t="s">
-        <v>201</v>
+      <c r="H151" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A152" s="28">
+      <c r="A152" s="26">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="B152" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="C152" s="30">
+      <c r="B152" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="28">
         <v>6634</v>
       </c>
-      <c r="D152" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E152" s="33">
-        <v>2</v>
-      </c>
-      <c r="F152" s="31">
+      <c r="D152" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" s="31">
+        <v>2</v>
+      </c>
+      <c r="F152" s="29">
         <v>2.5</v>
       </c>
-      <c r="G152" s="32">
+      <c r="G152" s="30">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H152" s="51" t="s">
-        <v>201</v>
+      <c r="H152" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A153" s="28">
+      <c r="A153" s="26">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="B153" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C153" s="30">
+      <c r="B153" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" s="28">
         <v>6635</v>
       </c>
-      <c r="D153" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E153" s="33">
-        <v>2</v>
-      </c>
-      <c r="F153" s="31">
+      <c r="D153" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="31">
+        <v>2</v>
+      </c>
+      <c r="F153" s="29">
         <v>3.2</v>
       </c>
-      <c r="G153" s="32">
+      <c r="G153" s="30">
         <f t="shared" si="5"/>
         <v>6.4</v>
       </c>
-      <c r="H153" s="51" t="s">
-        <v>201</v>
+      <c r="H153" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A154" s="28">
+      <c r="A154" s="26">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="B154" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C154" s="30">
+      <c r="B154" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C154" s="28">
         <v>7386</v>
       </c>
-      <c r="D154" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E154" s="33">
+      <c r="D154" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="31">
         <v>4</v>
       </c>
-      <c r="F154" s="31">
+      <c r="F154" s="29">
         <v>7</v>
       </c>
-      <c r="G154" s="32">
+      <c r="G154" s="30">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="H154" s="49" t="s">
-        <v>202</v>
+      <c r="H154" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A155" s="28">
+      <c r="A155" s="26">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="B155" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="C155" s="30">
+      <c r="B155" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C155" s="28">
         <v>7387</v>
       </c>
-      <c r="D155" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E155" s="33">
+      <c r="D155" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E155" s="31">
         <v>4</v>
       </c>
-      <c r="F155" s="31">
+      <c r="F155" s="29">
         <v>7.6</v>
       </c>
-      <c r="G155" s="32">
+      <c r="G155" s="30">
         <f t="shared" si="5"/>
         <v>30.4</v>
       </c>
-      <c r="H155" s="49" t="s">
-        <v>202</v>
+      <c r="H155" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A156" s="28">
+      <c r="A156" s="26">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="B156" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C156" s="30">
+      <c r="B156" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="28">
         <v>7388</v>
       </c>
-      <c r="D156" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E156" s="33">
+      <c r="D156" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E156" s="31">
         <v>4</v>
       </c>
-      <c r="F156" s="31">
+      <c r="F156" s="29">
         <v>8.5</v>
       </c>
-      <c r="G156" s="32">
+      <c r="G156" s="30">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="H156" s="49" t="s">
-        <v>202</v>
+      <c r="H156" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A157" s="28">
+      <c r="A157" s="26">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" s="28">
+        <v>7389</v>
+      </c>
+      <c r="D157" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C157" s="30">
-        <v>7389</v>
-      </c>
-      <c r="D157" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E157" s="33">
+      <c r="E157" s="31">
         <v>4</v>
       </c>
-      <c r="F157" s="31">
+      <c r="F157" s="29">
         <v>6.5</v>
       </c>
-      <c r="G157" s="32">
+      <c r="G157" s="30">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="H157" s="49" t="s">
-        <v>202</v>
+      <c r="H157" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A158" s="28">
+      <c r="A158" s="26">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="B158" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" s="30">
+      <c r="B158" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="28">
         <v>7390</v>
       </c>
-      <c r="D158" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E158" s="33">
+      <c r="D158" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E158" s="31">
         <v>4</v>
       </c>
-      <c r="F158" s="31">
+      <c r="F158" s="29">
         <v>7</v>
       </c>
-      <c r="G158" s="32">
+      <c r="G158" s="30">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="H158" s="49" t="s">
-        <v>202</v>
+      <c r="H158" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A159" s="28">
+      <c r="A159" s="26">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="B159" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C159" s="30">
+      <c r="B159" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C159" s="28">
         <v>7391</v>
       </c>
-      <c r="D159" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E159" s="33">
+      <c r="D159" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E159" s="31">
         <v>4</v>
       </c>
-      <c r="F159" s="31">
+      <c r="F159" s="29">
         <v>6.9</v>
       </c>
-      <c r="G159" s="32">
+      <c r="G159" s="30">
         <f t="shared" si="5"/>
         <v>27.6</v>
       </c>
-      <c r="H159" s="49" t="s">
-        <v>202</v>
+      <c r="H159" s="47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A160" s="28">
+      <c r="A160" s="26">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="B160" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="30">
+      <c r="B160" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C160" s="28">
         <v>6191</v>
       </c>
-      <c r="D160" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E160" s="33">
-        <v>2</v>
-      </c>
-      <c r="F160" s="31">
+      <c r="D160" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" s="31">
+        <v>2</v>
+      </c>
+      <c r="F160" s="29">
         <v>7.98</v>
       </c>
-      <c r="G160" s="32">
+      <c r="G160" s="30">
         <f t="shared" si="5"/>
         <v>15.96</v>
       </c>
-      <c r="H160" s="49" t="s">
-        <v>201</v>
+      <c r="H160" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A161" s="28">
+      <c r="A161" s="26">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="B161" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C161" s="30">
+      <c r="B161" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" s="28">
         <v>7381</v>
       </c>
-      <c r="D161" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E161" s="33">
-        <v>2</v>
-      </c>
-      <c r="F161" s="31">
+      <c r="D161" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161" s="31">
+        <v>2</v>
+      </c>
+      <c r="F161" s="29">
         <v>4.24</v>
       </c>
-      <c r="G161" s="32">
+      <c r="G161" s="30">
         <f t="shared" si="5"/>
         <v>8.48</v>
       </c>
-      <c r="H161" s="49" t="s">
-        <v>201</v>
+      <c r="H161" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A162" s="28">
+      <c r="A162" s="26">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="B162" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C162" s="30">
+      <c r="B162" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C162" s="28">
         <v>1905</v>
       </c>
-      <c r="D162" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E162" s="33">
-        <v>2</v>
-      </c>
-      <c r="F162" s="31">
+      <c r="D162" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162" s="31">
+        <v>2</v>
+      </c>
+      <c r="F162" s="29">
         <v>9.89</v>
       </c>
-      <c r="G162" s="32">
+      <c r="G162" s="30">
         <f t="shared" si="5"/>
         <v>19.78</v>
       </c>
-      <c r="H162" s="49" t="s">
-        <v>205</v>
+      <c r="H162" s="47" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="28">
+      <c r="A163" s="26">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="B163" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C163" s="30">
+      <c r="B163" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C163" s="28">
         <v>3355</v>
       </c>
-      <c r="D163" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E163" s="28">
+      <c r="D163" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E163" s="26">
         <v>14</v>
       </c>
-      <c r="F163" s="32">
+      <c r="F163" s="30">
         <v>18</v>
       </c>
-      <c r="G163" s="32">
+      <c r="G163" s="30">
         <f t="shared" si="5"/>
         <v>252</v>
       </c>
-      <c r="H163" s="49" t="s">
-        <v>198</v>
+      <c r="H163" s="47" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="26" t="s">
+      <c r="A164" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="12">
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="54">
         <f>SUM(E20:E163)</f>
         <v>846.16999999999985</v>
       </c>
       <c r="F164" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G164" s="13">
+      <c r="G164" s="55">
         <f>SUM(G20:G163)</f>
         <v>10904.717500000001</v>
       </c>
-      <c r="H164" s="45"/>
+      <c r="H164" s="43"/>
     </row>
     <row r="165" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="166" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C166" s="27"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="46"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="44"/>
     </row>
     <row r="167" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="47"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="45"/>
     </row>
     <row r="168" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="46"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="44"/>
     </row>
     <row r="169" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="47"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="45"/>
     </row>
     <row r="170" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H170" s="41"/>
-    </row>
-    <row r="171" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C171" s="19" t="s">
+      <c r="H170" s="39"/>
+    </row>
+    <row r="171" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C171" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="21" t="s">
+      <c r="H171" s="46"/>
+    </row>
+    <row r="172" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H171" s="48"/>
-    </row>
-    <row r="172" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="17" t="s">
+      <c r="F172" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="57" t="s">
         <v>27</v>
-      </c>
-      <c r="G172" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="19" t="s">
-        <v>30</v>
+      <c r="C174" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="21" t="s">
+      <c r="G174" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="46"/>
+    </row>
+    <row r="175" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" s="57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="57"/>
+      <c r="G176" s="57"/>
+    </row>
+    <row r="177" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C177" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H177" s="46"/>
+    </row>
+    <row r="178" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="57"/>
+      <c r="G179" s="57"/>
+    </row>
+    <row r="180" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" s="46"/>
+    </row>
+    <row r="181" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="57"/>
+      <c r="G182" s="57"/>
+    </row>
+    <row r="183" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C183" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H174" s="48"/>
-    </row>
-    <row r="175" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C175" s="17" t="s">
+      <c r="H183" s="46"/>
+    </row>
+    <row r="184" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="G184" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G175" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H176" s="48"/>
-    </row>
-    <row r="177" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="17" t="s">
+    </row>
+    <row r="185" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="57"/>
+      <c r="G185" s="57"/>
+    </row>
+    <row r="186" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C186" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H186" s="46"/>
+    </row>
+    <row r="187" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G187" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G177" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="21" t="s">
+    </row>
+    <row r="188" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B189" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="48"/>
-    </row>
-    <row r="179" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="17" t="s">
+      <c r="C189" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H189" s="46"/>
+    </row>
+    <row r="190" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G190" s="57" t="s">
         <v>27</v>
-      </c>
-      <c r="G179" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H180" s="48"/>
-    </row>
-    <row r="181" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G181" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H182" s="48"/>
-    </row>
-    <row r="183" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G183" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C185" s="19"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="48"/>
-    </row>
-    <row r="186" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A8:H8"/>
@@ -6069,16 +6183,10 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="84" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6088,10 +6196,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6102,179 +6210,179 @@
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="A1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="F1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="F2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="F4" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="41"/>
+      <c r="A14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -6298,407 +6406,433 @@
       <c r="G19" s="6">
         <v>7</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="42">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
         <v>1</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="28">
         <v>7626</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="35">
         <v>10</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <v>0.54</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="30">
         <f>E20*F20</f>
         <v>5.4</v>
       </c>
-      <c r="H20" s="66" t="s">
-        <v>214</v>
+      <c r="H20" s="72" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <f>A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="28">
         <v>7625</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="D21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="36">
         <v>100</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <f>E21*F21</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <f t="shared" ref="A22:A25" si="0">A21+1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="28">
         <v>7585</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="D22" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="36">
         <v>32</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <v>22.5</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <f t="shared" ref="G22:G25" si="1">E22*F22</f>
         <v>720</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B23" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B23" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="28">
         <v>7220</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="D23" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="36">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <v>1414.14</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="30">
         <f t="shared" si="1"/>
         <v>41.010060000000003</v>
       </c>
-      <c r="H23" s="67"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B24" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="30">
+      <c r="B24" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="28">
         <v>3510</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="36">
+        <v>6</v>
+      </c>
+      <c r="F24" s="34">
         <v>3.45</v>
       </c>
-      <c r="F24" s="36">
-        <v>6</v>
-      </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <f t="shared" si="1"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="H24" s="67"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B25" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="28">
         <v>7219</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="D25" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="36">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="34">
         <v>1345.96</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="30">
         <f t="shared" si="1"/>
         <v>69.989919999999998</v>
       </c>
-      <c r="H25" s="68"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="69">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="54">
         <f>SUM(E20:E25)</f>
-        <v>145.53099999999998</v>
+        <v>148.08099999999999</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="55">
         <f>SUM(G20:G25)</f>
         <v>970.09997999999996</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="46"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="47"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="47"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="41"/>
-    </row>
-    <row r="33" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="19" t="s">
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C33" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="21" t="s">
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="17" t="s">
+      <c r="F34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="51" t="s">
         <v>27</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="19" t="s">
-        <v>30</v>
+      <c r="C36" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="51"/>
+      <c r="G38" s="51"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C39" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="51"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="51"/>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C45" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="48"/>
-    </row>
-    <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="17" t="s">
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="17" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="51"/>
+      <c r="G47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C48" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G49" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="21" t="s">
+    </row>
+    <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="48"/>
-    </row>
-    <row r="41" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="17" t="s">
+      <c r="C51" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G52" s="51" t="s">
         <v>27</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="48"/>
-    </row>
-    <row r="43" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="48"/>
-    </row>
-    <row r="45" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="48"/>
-    </row>
-    <row r="48" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H25"/>
     <mergeCell ref="F5:H5"/>
@@ -6707,15 +6841,9 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="84" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6725,10 +6853,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6739,179 +6867,179 @@
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="A1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="F1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="F2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="F4" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="41"/>
+      <c r="A14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -6935,329 +7063,355 @@
       <c r="G19" s="6">
         <v>7</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>1</v>
       </c>
-      <c r="B20" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="28">
         <v>7663</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="35">
         <v>115</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <v>0.5</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="30">
         <f>E20*F20</f>
         <v>57.5</v>
       </c>
-      <c r="H20" s="66" t="s">
-        <v>218</v>
+      <c r="H20" s="72" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <f>A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="28">
         <v>1299</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="D21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="36">
         <v>20</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <v>0.6</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <f>E21*F21</f>
         <v>12</v>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <f t="shared" ref="A22" si="0">A21+1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="28">
         <v>6951</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="D22" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="36">
         <v>120</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <v>2.06</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <f t="shared" ref="G22" si="1">E22*F22</f>
         <v>247.20000000000002</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="69">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="54">
         <f>SUM(E20:E22)</f>
         <v>255</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="55">
         <f>SUM(G20:G22)</f>
         <v>316.70000000000005</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="46"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="46"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="47"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="19" t="s">
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C30" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="21" t="s">
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="17" t="s">
+      <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="51" t="s">
         <v>27</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="19" t="s">
-        <v>30</v>
+      <c r="C33" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="51"/>
+      <c r="G35" s="51"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C36" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="51"/>
+      <c r="G38" s="51"/>
+    </row>
+    <row r="39" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="51"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C42" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="17" t="s">
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G43" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="17" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="51"/>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C45" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="21" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="17" t="s">
+      <c r="C48" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="3:7" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G49" s="51" t="s">
         <v>27</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="48"/>
-    </row>
-    <row r="40" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="48"/>
-    </row>
-    <row r="45" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="F5:H5"/>
@@ -7266,14 +7420,8 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="84" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Сентябрь" sheetId="1" r:id="rId1"/>
     <sheet name="Сентябрь (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Сентябрь СИЗ" sheetId="4" r:id="rId3"/>
+    <sheet name="Октябрь" sheetId="5" r:id="rId4"/>
+    <sheet name="Октябрь СИЗ" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="246">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -755,17 +757,85 @@
       <t>____________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
     </r>
   </si>
+  <si>
+    <t>Полумаска фильтр. формов с клап. "Исток" FFР1</t>
+  </si>
+  <si>
+    <t>Беруши STARTUL со шнурком</t>
+  </si>
+  <si>
+    <t>перчатки для абразивной камеры резиновые</t>
+  </si>
+  <si>
+    <t>перчатки защитные для пескоструйных апаратов SBC-C</t>
+  </si>
+  <si>
+    <t>Вставка (58PD5100а)</t>
+  </si>
+  <si>
+    <t>Вставка (B-GPI-630)</t>
+  </si>
+  <si>
+    <t>Вставка В-28-Р</t>
+  </si>
+  <si>
+    <t>Вставка В-В-30-4</t>
+  </si>
+  <si>
+    <t>Сердечник 7 ZG DIN10/G22</t>
+  </si>
+  <si>
+    <t>Ветошь SK03M цветная (10 кг), 01_219971</t>
+  </si>
+  <si>
+    <t>упак.</t>
+  </si>
+  <si>
+    <t>Уборка оборудования</t>
+  </si>
+  <si>
+    <t>Лезвие напильника для снятия заусенцев BS 2010</t>
+  </si>
+  <si>
+    <t>Ленты Л6 3 1,5*20 ДПРНТ Гост 2208-2007</t>
+  </si>
+  <si>
+    <t>кг.</t>
+  </si>
+  <si>
+    <t>Патрон сверлильный ПС-16 (В16) конус резолюкс</t>
+  </si>
+  <si>
+    <t>Сверло центровочное 1,6мм 01 0030041</t>
+  </si>
+  <si>
+    <t>Сверло центровочное 2,0мм 01 0149851</t>
+  </si>
+  <si>
+    <t>Твердосплавная пластина CNMG 120408-MD TPC25</t>
+  </si>
+  <si>
+    <t>Серебрянка SNIEZKA жаростойкая силиконовая 0,2л</t>
+  </si>
+  <si>
+    <t>Эмаль термостойкая серебр 0,4 л</t>
+  </si>
+  <si>
+    <t>Покраска конвейера</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0000000000"/>
     <numFmt numFmtId="165" formatCode="0;[Red]\-0"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]\-0.00"/>
+    <numFmt numFmtId="167" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="168" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -837,6 +907,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -846,7 +922,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1122,11 +1198,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1305,6 +1491,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,6 +1645,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1660,7 +1960,7 @@
   </sheetPr>
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A162" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
@@ -1677,53 +1977,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="F2" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -1734,43 +2034,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1782,28 +2082,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -6198,8 +6498,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6215,53 +6515,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="F2" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -6272,43 +6572,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6320,28 +6620,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -6433,7 +6733,7 @@
         <f>E20*F20</f>
         <v>5.4</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="109" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6461,7 +6761,7 @@
         <f>E21*F21</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="110"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
@@ -6487,7 +6787,7 @@
         <f t="shared" ref="G22:G25" si="1">E22*F22</f>
         <v>720</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="110"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
@@ -6513,7 +6813,7 @@
         <f t="shared" si="1"/>
         <v>41.010060000000003</v>
       </c>
-      <c r="H23" s="73"/>
+      <c r="H23" s="110"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
@@ -6539,7 +6839,7 @@
         <f t="shared" si="1"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="H24" s="73"/>
+      <c r="H24" s="110"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
@@ -6565,7 +6865,7 @@
         <f t="shared" si="1"/>
         <v>69.989919999999998</v>
       </c>
-      <c r="H25" s="74"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -6855,7 +7155,7 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -6872,53 +7172,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="F2" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -6929,43 +7229,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6977,28 +7277,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -7090,7 +7390,7 @@
         <f>E20*F20</f>
         <v>57.5</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="109" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7118,7 +7418,7 @@
         <f>E21*F21</f>
         <v>12</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="110"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -7144,7 +7444,7 @@
         <f t="shared" ref="G22" si="1">E22*F22</f>
         <v>247.20000000000002</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="110"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -7424,4 +7724,4976 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:A135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="F1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="F2" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+    </row>
+    <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="70">
+        <v>1</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="71">
+        <v>7931</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="82">
+        <v>19.2</v>
+      </c>
+      <c r="F20" s="74">
+        <f>35.01/E20</f>
+        <v>1.8234375</v>
+      </c>
+      <c r="G20" s="75">
+        <f>E20*F20</f>
+        <v>35.01</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A21" s="70">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="71">
+        <v>6344</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="73">
+        <v>3</v>
+      </c>
+      <c r="F21" s="74">
+        <v>244.47</v>
+      </c>
+      <c r="G21" s="75">
+        <f>E21*F21</f>
+        <v>733.41</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A22" s="70">
+        <f t="shared" ref="A22:A86" si="0">A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="71">
+        <v>6343</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="73">
+        <v>3</v>
+      </c>
+      <c r="F22" s="74">
+        <v>72.12</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" ref="G22:G86" si="1">E22*F22</f>
+        <v>216.36</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A23" s="70">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="71">
+        <v>7961</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="73">
+        <v>60</v>
+      </c>
+      <c r="F23" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G23" s="75">
+        <f t="shared" si="1"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A24" s="70">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="71">
+        <v>7962</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="73">
+        <v>30</v>
+      </c>
+      <c r="F24" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G24" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A25" s="70">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="71">
+        <v>7960</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="73">
+        <v>30</v>
+      </c>
+      <c r="F25" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G25" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A26" s="70">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="71">
+        <v>6385</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="73">
+        <v>30</v>
+      </c>
+      <c r="F26" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G26" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A27" s="70">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="71">
+        <v>6384</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="73">
+        <v>20</v>
+      </c>
+      <c r="F27" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G27" s="75">
+        <f t="shared" si="1"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A28" s="70">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="71">
+        <v>1654</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="73">
+        <v>50</v>
+      </c>
+      <c r="F28" s="74">
+        <v>26.59</v>
+      </c>
+      <c r="G28" s="75">
+        <v>1329.49</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A29" s="70">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="71">
+        <v>3416</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="73">
+        <v>3</v>
+      </c>
+      <c r="F29" s="74">
+        <v>16.46</v>
+      </c>
+      <c r="G29" s="75">
+        <f t="shared" si="1"/>
+        <v>49.38</v>
+      </c>
+      <c r="H29" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A30" s="70">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="71">
+        <v>3417</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="73">
+        <v>3</v>
+      </c>
+      <c r="F30" s="74">
+        <v>17.63</v>
+      </c>
+      <c r="G30" s="75">
+        <f t="shared" si="1"/>
+        <v>52.89</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A31" s="70">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="71">
+        <v>3418</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="73">
+        <v>3</v>
+      </c>
+      <c r="F31" s="74">
+        <v>17.63</v>
+      </c>
+      <c r="G31" s="75">
+        <f t="shared" si="1"/>
+        <v>52.89</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A32" s="70">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="71">
+        <v>4230</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="80">
+        <v>19</v>
+      </c>
+      <c r="F32" s="81">
+        <v>31.93</v>
+      </c>
+      <c r="G32" s="75">
+        <f t="shared" si="1"/>
+        <v>606.66999999999996</v>
+      </c>
+      <c r="H32" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A33" s="70">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="71">
+        <v>4231</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="80">
+        <v>34</v>
+      </c>
+      <c r="F33" s="81">
+        <v>31.93</v>
+      </c>
+      <c r="G33" s="75">
+        <f t="shared" si="1"/>
+        <v>1085.6199999999999</v>
+      </c>
+      <c r="H33" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A34" s="70">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="71">
+        <v>4232</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="80">
+        <v>20</v>
+      </c>
+      <c r="F34" s="81">
+        <v>31.93</v>
+      </c>
+      <c r="G34" s="75">
+        <f t="shared" si="1"/>
+        <v>638.6</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A35" s="70">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="71">
+        <v>4233</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="80">
+        <v>20</v>
+      </c>
+      <c r="F35" s="81">
+        <v>31.93</v>
+      </c>
+      <c r="G35" s="75">
+        <f t="shared" si="1"/>
+        <v>638.6</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A36" s="70">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="71">
+        <v>7741</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="80">
+        <v>5</v>
+      </c>
+      <c r="F36" s="81">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G36" s="75">
+        <f t="shared" si="1"/>
+        <v>24.25</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A37" s="70">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="71">
+        <v>4327</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="80">
+        <v>10</v>
+      </c>
+      <c r="F37" s="81">
+        <v>7.49</v>
+      </c>
+      <c r="G37" s="75">
+        <f t="shared" si="1"/>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H37" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A38" s="70">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="71">
+        <v>7378</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="80">
+        <v>10</v>
+      </c>
+      <c r="F38" s="81">
+        <v>9.56</v>
+      </c>
+      <c r="G38" s="75">
+        <f t="shared" si="1"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A39" s="70">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="71">
+        <v>4328</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="80">
+        <v>10</v>
+      </c>
+      <c r="F39" s="81">
+        <v>9.56</v>
+      </c>
+      <c r="G39" s="75">
+        <f t="shared" si="1"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A40" s="70">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="71">
+        <v>7084</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="80">
+        <v>10</v>
+      </c>
+      <c r="F40" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G40" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A41" s="70">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="71">
+        <v>6187</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="80">
+        <v>1</v>
+      </c>
+      <c r="F41" s="81">
+        <v>51.87</v>
+      </c>
+      <c r="G41" s="75">
+        <f t="shared" si="1"/>
+        <v>51.87</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A42" s="70">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="71">
+        <v>5801</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="80">
+        <v>10</v>
+      </c>
+      <c r="F42" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G42" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A43" s="70">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="71">
+        <v>5802</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="80">
+        <v>10</v>
+      </c>
+      <c r="F43" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G43" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A44" s="70">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="71">
+        <v>4324</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="80">
+        <v>10</v>
+      </c>
+      <c r="F44" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G44" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H44" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A45" s="70">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="71">
+        <v>5803</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="80">
+        <v>10</v>
+      </c>
+      <c r="F45" s="81">
+        <v>4.18</v>
+      </c>
+      <c r="G45" s="75">
+        <f t="shared" si="1"/>
+        <v>41.8</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A46" s="70">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="71">
+        <v>4325</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="80">
+        <v>10</v>
+      </c>
+      <c r="F46" s="81">
+        <v>4.18</v>
+      </c>
+      <c r="G46" s="75">
+        <f t="shared" si="1"/>
+        <v>41.8</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A47" s="70">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="71">
+        <v>7737</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="80">
+        <v>10</v>
+      </c>
+      <c r="F47" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G47" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A48" s="70">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="71">
+        <v>7745</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="80">
+        <v>10</v>
+      </c>
+      <c r="F48" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G48" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A49" s="70">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="71">
+        <v>7736</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="80">
+        <v>10</v>
+      </c>
+      <c r="F49" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G49" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H49" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A50" s="70">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="71">
+        <v>5805</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="80">
+        <v>10</v>
+      </c>
+      <c r="F50" s="81">
+        <v>4.42</v>
+      </c>
+      <c r="G50" s="75">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A51" s="70">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="71">
+        <v>5806</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="80">
+        <v>10</v>
+      </c>
+      <c r="F51" s="81">
+        <v>4.42</v>
+      </c>
+      <c r="G51" s="75">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A52" s="70">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="71">
+        <v>4326</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="80">
+        <v>10</v>
+      </c>
+      <c r="F52" s="81">
+        <v>4.42</v>
+      </c>
+      <c r="G52" s="75">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A53" s="70">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="71">
+        <v>7738</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="80">
+        <v>10</v>
+      </c>
+      <c r="F53" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G53" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A54" s="70">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="71">
+        <v>7739</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="80">
+        <v>10</v>
+      </c>
+      <c r="F54" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G54" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A55" s="70">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="71">
+        <v>7740</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="80">
+        <v>10</v>
+      </c>
+      <c r="F55" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G55" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H55" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A56" s="70">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="71">
+        <v>7746</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="80">
+        <v>10</v>
+      </c>
+      <c r="F56" s="81">
+        <v>6.25</v>
+      </c>
+      <c r="G56" s="75">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A57" s="70">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="71">
+        <v>7743</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="80">
+        <v>10</v>
+      </c>
+      <c r="F57" s="81">
+        <v>6.25</v>
+      </c>
+      <c r="G57" s="75">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A58" s="70">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="71">
+        <v>7747</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="80">
+        <v>10</v>
+      </c>
+      <c r="F58" s="81">
+        <v>6.25</v>
+      </c>
+      <c r="G58" s="75">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A59" s="70">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="71">
+        <v>6806</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="80">
+        <v>10</v>
+      </c>
+      <c r="F59" s="81">
+        <v>1.24</v>
+      </c>
+      <c r="G59" s="75">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A60" s="70">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="71">
+        <v>8461</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="80">
+        <v>1</v>
+      </c>
+      <c r="F60" s="81">
+        <v>182.93</v>
+      </c>
+      <c r="G60" s="75">
+        <f t="shared" si="1"/>
+        <v>182.93</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A61" s="70">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="71">
+        <v>274</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" s="80">
+        <v>1</v>
+      </c>
+      <c r="F61" s="81">
+        <v>17.8</v>
+      </c>
+      <c r="G61" s="75">
+        <f t="shared" si="1"/>
+        <v>17.8</v>
+      </c>
+      <c r="H61" s="78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A62" s="70">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="71">
+        <v>7380</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="80">
+        <v>3</v>
+      </c>
+      <c r="F62" s="81">
+        <v>3.42</v>
+      </c>
+      <c r="G62" s="75">
+        <f t="shared" si="1"/>
+        <v>10.26</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A63" s="70">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="71">
+        <v>5812</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="80">
+        <v>10</v>
+      </c>
+      <c r="F63" s="81">
+        <v>0.79</v>
+      </c>
+      <c r="G63" s="75">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A64" s="70">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="71">
+        <v>5813</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="80">
+        <v>10</v>
+      </c>
+      <c r="F64" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="G64" s="75">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H64" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A65" s="70">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="71">
+        <v>5814</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="80">
+        <v>10</v>
+      </c>
+      <c r="F65" s="81">
+        <v>1.35</v>
+      </c>
+      <c r="G65" s="75">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="H65" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A66" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="71">
+        <v>5815</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="80">
+        <v>20</v>
+      </c>
+      <c r="F66" s="81">
+        <v>4.29</v>
+      </c>
+      <c r="G66" s="75">
+        <f t="shared" si="1"/>
+        <v>85.8</v>
+      </c>
+      <c r="H66" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A67" s="70">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="71">
+        <v>5776</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="80">
+        <v>3</v>
+      </c>
+      <c r="F67" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G67" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H67" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A68" s="70">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="71">
+        <v>5774</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="80">
+        <v>3</v>
+      </c>
+      <c r="F68" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G68" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H68" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A69" s="70">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="71">
+        <v>5775</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="80">
+        <v>3</v>
+      </c>
+      <c r="F69" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G69" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H69" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A70" s="70">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="71">
+        <v>5808</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="80">
+        <v>20</v>
+      </c>
+      <c r="F70" s="81">
+        <v>3.8</v>
+      </c>
+      <c r="G70" s="75">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H70" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A71" s="70">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="71">
+        <v>7079</v>
+      </c>
+      <c r="D71" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="80">
+        <v>5</v>
+      </c>
+      <c r="F71" s="81">
+        <v>6.36</v>
+      </c>
+      <c r="G71" s="75">
+        <f t="shared" si="1"/>
+        <v>31.8</v>
+      </c>
+      <c r="H71" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A72" s="70">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="71">
+        <v>7080</v>
+      </c>
+      <c r="D72" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="80">
+        <v>5</v>
+      </c>
+      <c r="F72" s="81">
+        <v>5.9</v>
+      </c>
+      <c r="G72" s="75">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+      <c r="H72" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A73" s="70">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="71">
+        <v>7081</v>
+      </c>
+      <c r="D73" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="80">
+        <v>5</v>
+      </c>
+      <c r="F73" s="81">
+        <v>5.61</v>
+      </c>
+      <c r="G73" s="75">
+        <f t="shared" si="1"/>
+        <v>28.05</v>
+      </c>
+      <c r="H73" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A74" s="70">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="71">
+        <v>4333</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="80">
+        <v>10</v>
+      </c>
+      <c r="F74" s="81">
+        <v>6.81</v>
+      </c>
+      <c r="G74" s="75">
+        <f t="shared" si="1"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H74" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A75" s="70">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="71">
+        <v>1669</v>
+      </c>
+      <c r="D75" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="80">
+        <v>1</v>
+      </c>
+      <c r="F75" s="81">
+        <v>22.16</v>
+      </c>
+      <c r="G75" s="75">
+        <f t="shared" si="1"/>
+        <v>22.16</v>
+      </c>
+      <c r="H75" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A76" s="70">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="71">
+        <v>1670</v>
+      </c>
+      <c r="D76" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="80">
+        <v>1</v>
+      </c>
+      <c r="F76" s="81">
+        <v>51.3</v>
+      </c>
+      <c r="G76" s="75">
+        <f t="shared" si="1"/>
+        <v>51.3</v>
+      </c>
+      <c r="H76" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="77" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A77" s="70">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="71">
+        <v>1671</v>
+      </c>
+      <c r="D77" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="80">
+        <v>1</v>
+      </c>
+      <c r="F77" s="81">
+        <v>76.72</v>
+      </c>
+      <c r="G77" s="75">
+        <f t="shared" si="1"/>
+        <v>76.72</v>
+      </c>
+      <c r="H77" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A78" s="70">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="71">
+        <v>6701</v>
+      </c>
+      <c r="D78" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="96">
+        <v>15.7</v>
+      </c>
+      <c r="F78" s="81">
+        <v>18</v>
+      </c>
+      <c r="G78" s="75">
+        <f t="shared" si="1"/>
+        <v>282.59999999999997</v>
+      </c>
+      <c r="H78" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A79" s="26">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="71">
+        <v>1226</v>
+      </c>
+      <c r="D79" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="80">
+        <v>3</v>
+      </c>
+      <c r="F79" s="81">
+        <v>29</v>
+      </c>
+      <c r="G79" s="75">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A80" s="70">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="71">
+        <v>1668</v>
+      </c>
+      <c r="D80" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="81">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="G80" s="75">
+        <f t="shared" si="1"/>
+        <v>17.559999999999999</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A81" s="70">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="71">
+        <v>1238</v>
+      </c>
+      <c r="D81" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="80">
+        <v>2</v>
+      </c>
+      <c r="F81" s="81">
+        <v>8</v>
+      </c>
+      <c r="G81" s="75">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A82" s="70">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="71">
+        <v>7744</v>
+      </c>
+      <c r="D82" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="80">
+        <v>2</v>
+      </c>
+      <c r="F82" s="81">
+        <v>9.98</v>
+      </c>
+      <c r="G82" s="75">
+        <f t="shared" si="1"/>
+        <v>19.96</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A83" s="70">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="71">
+        <v>6272</v>
+      </c>
+      <c r="D83" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="80">
+        <v>2</v>
+      </c>
+      <c r="F83" s="81">
+        <v>130</v>
+      </c>
+      <c r="G83" s="75">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A84" s="70">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="71">
+        <v>7200</v>
+      </c>
+      <c r="D84" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="80">
+        <v>2</v>
+      </c>
+      <c r="F84" s="81">
+        <v>2.89</v>
+      </c>
+      <c r="G84" s="75">
+        <f t="shared" si="1"/>
+        <v>5.78</v>
+      </c>
+      <c r="H84" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A85" s="70">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="71">
+        <v>7201</v>
+      </c>
+      <c r="D85" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="80">
+        <v>2</v>
+      </c>
+      <c r="F85" s="81">
+        <v>3.88</v>
+      </c>
+      <c r="G85" s="75">
+        <f t="shared" si="1"/>
+        <v>7.76</v>
+      </c>
+      <c r="H85" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A86" s="70">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="71">
+        <v>7670</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="80">
+        <v>2</v>
+      </c>
+      <c r="F86" s="81">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G86" s="75">
+        <f t="shared" si="1"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H86" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A87" s="70">
+        <f t="shared" ref="A87:A139" si="2">A86+1</f>
+        <v>68</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="71">
+        <v>7202</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="80">
+        <v>2</v>
+      </c>
+      <c r="F87" s="81">
+        <v>5.85</v>
+      </c>
+      <c r="G87" s="75">
+        <f t="shared" ref="G87:G139" si="3">E87*F87</f>
+        <v>11.7</v>
+      </c>
+      <c r="H87" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A88" s="70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="71">
+        <v>7203</v>
+      </c>
+      <c r="D88" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="80">
+        <v>2</v>
+      </c>
+      <c r="F88" s="81">
+        <v>14.82</v>
+      </c>
+      <c r="G88" s="75">
+        <f t="shared" si="3"/>
+        <v>29.64</v>
+      </c>
+      <c r="H88" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A89" s="70">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="71">
+        <v>7204</v>
+      </c>
+      <c r="D89" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="80">
+        <v>2</v>
+      </c>
+      <c r="F89" s="81">
+        <v>1.26</v>
+      </c>
+      <c r="G89" s="75">
+        <f t="shared" si="3"/>
+        <v>2.52</v>
+      </c>
+      <c r="H89" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A90" s="70">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="71">
+        <v>7205</v>
+      </c>
+      <c r="D90" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="80">
+        <v>2</v>
+      </c>
+      <c r="F90" s="81">
+        <v>2.48</v>
+      </c>
+      <c r="G90" s="75">
+        <f t="shared" si="3"/>
+        <v>4.96</v>
+      </c>
+      <c r="H90" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A91" s="70">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="71">
+        <v>7671</v>
+      </c>
+      <c r="D91" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="80">
+        <v>2</v>
+      </c>
+      <c r="F91" s="81">
+        <v>5.35</v>
+      </c>
+      <c r="G91" s="75">
+        <f t="shared" si="3"/>
+        <v>10.7</v>
+      </c>
+      <c r="H91" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A92" s="70">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="71">
+        <v>7206</v>
+      </c>
+      <c r="D92" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="80">
+        <v>2</v>
+      </c>
+      <c r="F92" s="81">
+        <v>3.9</v>
+      </c>
+      <c r="G92" s="75">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A93" s="70">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="71">
+        <v>7207</v>
+      </c>
+      <c r="D93" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="80">
+        <v>2</v>
+      </c>
+      <c r="F93" s="81">
+        <v>4.2</v>
+      </c>
+      <c r="G93" s="75">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A94" s="70">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="71">
+        <v>7208</v>
+      </c>
+      <c r="D94" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="80">
+        <v>2</v>
+      </c>
+      <c r="F94" s="81">
+        <v>8.14</v>
+      </c>
+      <c r="G94" s="75">
+        <f t="shared" si="3"/>
+        <v>16.28</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A95" s="70">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="71">
+        <v>7672</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="80">
+        <v>2</v>
+      </c>
+      <c r="F95" s="81">
+        <v>14.78</v>
+      </c>
+      <c r="G95" s="75">
+        <f t="shared" si="3"/>
+        <v>29.56</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A96" s="70">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="71">
+        <v>7209</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="80">
+        <v>2</v>
+      </c>
+      <c r="F96" s="81">
+        <v>10.77</v>
+      </c>
+      <c r="G96" s="75">
+        <f t="shared" si="3"/>
+        <v>21.54</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A97" s="70">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="71">
+        <v>7673</v>
+      </c>
+      <c r="D97" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="80">
+        <v>2</v>
+      </c>
+      <c r="F97" s="81">
+        <v>33.32</v>
+      </c>
+      <c r="G97" s="75">
+        <f t="shared" si="3"/>
+        <v>66.64</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A98" s="70">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="71">
+        <v>7210</v>
+      </c>
+      <c r="D98" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="80">
+        <v>2</v>
+      </c>
+      <c r="F98" s="81">
+        <v>24.17</v>
+      </c>
+      <c r="G98" s="75">
+        <f t="shared" si="3"/>
+        <v>48.34</v>
+      </c>
+      <c r="H98" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A99" s="70">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="71">
+        <v>7211</v>
+      </c>
+      <c r="D99" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="80">
+        <v>2</v>
+      </c>
+      <c r="F99" s="81">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="G99" s="75">
+        <f t="shared" si="3"/>
+        <v>77.739999999999995</v>
+      </c>
+      <c r="H99" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A100" s="70">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="71">
+        <v>7674</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="80">
+        <v>2</v>
+      </c>
+      <c r="F100" s="81">
+        <v>2.77</v>
+      </c>
+      <c r="G100" s="75">
+        <f t="shared" si="3"/>
+        <v>5.54</v>
+      </c>
+      <c r="H100" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A101" s="70">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="71">
+        <v>7212</v>
+      </c>
+      <c r="D101" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="80">
+        <v>2</v>
+      </c>
+      <c r="F101" s="81">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G101" s="75">
+        <f t="shared" si="3"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H101" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A102" s="70">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" s="71">
+        <v>7213</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="80">
+        <v>2</v>
+      </c>
+      <c r="F102" s="81">
+        <v>3.12</v>
+      </c>
+      <c r="G102" s="75">
+        <f t="shared" si="3"/>
+        <v>6.24</v>
+      </c>
+      <c r="H102" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A103" s="70">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="71">
+        <v>7675</v>
+      </c>
+      <c r="D103" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="80">
+        <v>2</v>
+      </c>
+      <c r="F103" s="81">
+        <v>4.95</v>
+      </c>
+      <c r="G103" s="75">
+        <f t="shared" si="3"/>
+        <v>9.9</v>
+      </c>
+      <c r="H103" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A104" s="70">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="71">
+        <v>7214</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="80">
+        <v>2</v>
+      </c>
+      <c r="F104" s="81">
+        <v>4.2</v>
+      </c>
+      <c r="G104" s="75">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="H104" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A105" s="70">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="71">
+        <v>6889</v>
+      </c>
+      <c r="D105" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="80">
+        <v>2</v>
+      </c>
+      <c r="F105" s="81">
+        <v>11.12</v>
+      </c>
+      <c r="G105" s="75">
+        <f t="shared" si="3"/>
+        <v>22.24</v>
+      </c>
+      <c r="H105" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A106" s="70">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="71">
+        <v>6905</v>
+      </c>
+      <c r="D106" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="80">
+        <v>2</v>
+      </c>
+      <c r="F106" s="81">
+        <v>11.64</v>
+      </c>
+      <c r="G106" s="75">
+        <f t="shared" si="3"/>
+        <v>23.28</v>
+      </c>
+      <c r="H106" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A107" s="70">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="71">
+        <v>6892</v>
+      </c>
+      <c r="D107" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="80">
+        <v>2</v>
+      </c>
+      <c r="F107" s="81">
+        <v>12.06</v>
+      </c>
+      <c r="G107" s="75">
+        <f t="shared" si="3"/>
+        <v>24.12</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A108" s="70">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" s="71">
+        <v>3619</v>
+      </c>
+      <c r="D108" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="80">
+        <v>3</v>
+      </c>
+      <c r="F108" s="81">
+        <v>3.05</v>
+      </c>
+      <c r="G108" s="75">
+        <f t="shared" si="3"/>
+        <v>9.1499999999999986</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A109" s="70">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="71">
+        <v>6902</v>
+      </c>
+      <c r="D109" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="80">
+        <v>2</v>
+      </c>
+      <c r="F109" s="81">
+        <v>16.87</v>
+      </c>
+      <c r="G109" s="75">
+        <f t="shared" si="3"/>
+        <v>33.74</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A110" s="70">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="71">
+        <v>6899</v>
+      </c>
+      <c r="D110" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="80">
+        <v>2</v>
+      </c>
+      <c r="F110" s="81">
+        <v>11.13</v>
+      </c>
+      <c r="G110" s="75">
+        <f t="shared" si="3"/>
+        <v>22.26</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A111" s="70">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="71">
+        <v>6895</v>
+      </c>
+      <c r="D111" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="80">
+        <v>2</v>
+      </c>
+      <c r="F111" s="81">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G111" s="75">
+        <f t="shared" si="3"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A112" s="70">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="71">
+        <v>6894</v>
+      </c>
+      <c r="D112" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="80">
+        <v>2</v>
+      </c>
+      <c r="F112" s="81">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G112" s="75">
+        <f t="shared" si="3"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A113" s="70">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B113" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="71">
+        <v>6896</v>
+      </c>
+      <c r="D113" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="80">
+        <v>2</v>
+      </c>
+      <c r="F113" s="81">
+        <v>12.42</v>
+      </c>
+      <c r="G113" s="75">
+        <f t="shared" si="3"/>
+        <v>24.84</v>
+      </c>
+      <c r="H113" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A114" s="70">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="71">
+        <v>5478</v>
+      </c>
+      <c r="D114" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="80">
+        <v>3</v>
+      </c>
+      <c r="F114" s="81">
+        <v>2.13</v>
+      </c>
+      <c r="G114" s="75">
+        <f t="shared" si="3"/>
+        <v>6.39</v>
+      </c>
+      <c r="H114" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A115" s="70">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="71">
+        <v>7041</v>
+      </c>
+      <c r="D115" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="80">
+        <v>2</v>
+      </c>
+      <c r="F115" s="81">
+        <v>111.55</v>
+      </c>
+      <c r="G115" s="75">
+        <f t="shared" si="3"/>
+        <v>223.1</v>
+      </c>
+      <c r="H115" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A116" s="70">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="71">
+        <v>7042</v>
+      </c>
+      <c r="D116" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E116" s="80">
+        <v>2</v>
+      </c>
+      <c r="F116" s="81">
+        <v>111.55</v>
+      </c>
+      <c r="G116" s="75">
+        <f t="shared" si="3"/>
+        <v>223.1</v>
+      </c>
+      <c r="H116" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A117" s="70">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="71">
+        <v>7043</v>
+      </c>
+      <c r="D117" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E117" s="80">
+        <v>2</v>
+      </c>
+      <c r="F117" s="81">
+        <v>120</v>
+      </c>
+      <c r="G117" s="75">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="H117" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A118" s="70">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="71">
+        <v>6912</v>
+      </c>
+      <c r="D118" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="80">
+        <v>4</v>
+      </c>
+      <c r="F118" s="81">
+        <v>5.34</v>
+      </c>
+      <c r="G118" s="75">
+        <f t="shared" si="3"/>
+        <v>21.36</v>
+      </c>
+      <c r="H118" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A119" s="70">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B119" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="71">
+        <v>6626</v>
+      </c>
+      <c r="D119" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="80">
+        <v>1</v>
+      </c>
+      <c r="F119" s="81">
+        <v>12.11</v>
+      </c>
+      <c r="G119" s="75">
+        <f t="shared" si="3"/>
+        <v>12.11</v>
+      </c>
+      <c r="H119" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A120" s="70">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B120" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="71">
+        <v>6618</v>
+      </c>
+      <c r="D120" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="80">
+        <v>4</v>
+      </c>
+      <c r="F120" s="81">
+        <v>0.35</v>
+      </c>
+      <c r="G120" s="75">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="H120" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A121" s="70">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="71">
+        <v>6619</v>
+      </c>
+      <c r="D121" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="80">
+        <v>4</v>
+      </c>
+      <c r="F121" s="81">
+        <v>0.65</v>
+      </c>
+      <c r="G121" s="75">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="H121" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A122" s="70">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="71">
+        <v>6620</v>
+      </c>
+      <c r="D122" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="80">
+        <v>4</v>
+      </c>
+      <c r="F122" s="81">
+        <v>0.76</v>
+      </c>
+      <c r="G122" s="75">
+        <f t="shared" si="3"/>
+        <v>3.04</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A123" s="70">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B123" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="71">
+        <v>6624</v>
+      </c>
+      <c r="D123" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="80">
+        <v>4</v>
+      </c>
+      <c r="F123" s="81">
+        <v>1.66</v>
+      </c>
+      <c r="G123" s="75">
+        <f t="shared" si="3"/>
+        <v>6.64</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A124" s="70">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B124" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="71">
+        <v>6617</v>
+      </c>
+      <c r="D124" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="80">
+        <v>5</v>
+      </c>
+      <c r="F124" s="81">
+        <v>0.21</v>
+      </c>
+      <c r="G124" s="75">
+        <f t="shared" si="3"/>
+        <v>1.05</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A125" s="70">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B125" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" s="71">
+        <v>6623</v>
+      </c>
+      <c r="D125" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" s="80">
+        <v>4</v>
+      </c>
+      <c r="F125" s="81">
+        <v>0.76</v>
+      </c>
+      <c r="G125" s="75">
+        <f t="shared" si="3"/>
+        <v>3.04</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A126" s="70">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B126" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="71">
+        <v>6621</v>
+      </c>
+      <c r="D126" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="80">
+        <v>4</v>
+      </c>
+      <c r="F126" s="81">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G126" s="75">
+        <f t="shared" si="3"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A127" s="70">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B127" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="71">
+        <v>6622</v>
+      </c>
+      <c r="D127" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="80">
+        <v>4</v>
+      </c>
+      <c r="F127" s="81">
+        <v>1.66</v>
+      </c>
+      <c r="G127" s="75">
+        <f t="shared" si="3"/>
+        <v>6.64</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A128" s="70">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B128" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" s="71">
+        <v>8165</v>
+      </c>
+      <c r="D128" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="80">
+        <v>4</v>
+      </c>
+      <c r="F128" s="81">
+        <v>2.76</v>
+      </c>
+      <c r="G128" s="75">
+        <f t="shared" si="3"/>
+        <v>11.04</v>
+      </c>
+      <c r="H128" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A129" s="70">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B129" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="71">
+        <v>8166</v>
+      </c>
+      <c r="D129" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E129" s="85">
+        <v>5</v>
+      </c>
+      <c r="F129" s="81">
+        <v>3.07</v>
+      </c>
+      <c r="G129" s="75">
+        <f t="shared" si="3"/>
+        <v>15.35</v>
+      </c>
+      <c r="H129" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A130" s="70">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B130" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="71">
+        <v>7383</v>
+      </c>
+      <c r="D130" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" s="80">
+        <v>2</v>
+      </c>
+      <c r="F130" s="81">
+        <v>13.78</v>
+      </c>
+      <c r="G130" s="75">
+        <f t="shared" si="3"/>
+        <v>27.56</v>
+      </c>
+      <c r="H130" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A131" s="70">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B131" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" s="71">
+        <v>6890</v>
+      </c>
+      <c r="D131" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E131" s="80">
+        <v>2</v>
+      </c>
+      <c r="F131" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G131" s="75">
+        <f t="shared" si="3"/>
+        <v>21.82</v>
+      </c>
+      <c r="H131" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A132" s="70">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" s="71">
+        <v>6900</v>
+      </c>
+      <c r="D132" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="80">
+        <v>2</v>
+      </c>
+      <c r="F132" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G132" s="75">
+        <f t="shared" si="3"/>
+        <v>21.82</v>
+      </c>
+      <c r="H132" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A133" s="70">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B133" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C133" s="71">
+        <v>6897</v>
+      </c>
+      <c r="D133" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E133" s="80">
+        <v>2</v>
+      </c>
+      <c r="F133" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G133" s="75">
+        <f t="shared" si="3"/>
+        <v>21.82</v>
+      </c>
+      <c r="H133" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A134" s="70">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B134" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="71">
+        <v>6636</v>
+      </c>
+      <c r="D134" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="80">
+        <v>1</v>
+      </c>
+      <c r="F134" s="81">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G134" s="75">
+        <f t="shared" si="3"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H134" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A135" s="70">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C135" s="71">
+        <v>6638</v>
+      </c>
+      <c r="D135" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E135" s="80">
+        <v>1</v>
+      </c>
+      <c r="F135" s="81">
+        <v>10.15</v>
+      </c>
+      <c r="G135" s="75">
+        <f t="shared" si="3"/>
+        <v>10.15</v>
+      </c>
+      <c r="H135" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A136" s="70">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" s="71">
+        <v>6639</v>
+      </c>
+      <c r="D136" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E136" s="80">
+        <v>1</v>
+      </c>
+      <c r="F136" s="81">
+        <v>12</v>
+      </c>
+      <c r="G136" s="75">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H136" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A137" s="70">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" s="71">
+        <v>6640</v>
+      </c>
+      <c r="D137" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137" s="80">
+        <v>1</v>
+      </c>
+      <c r="F137" s="81">
+        <v>15.2</v>
+      </c>
+      <c r="G137" s="75">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="H137" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A138" s="70">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B138" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="71">
+        <v>6641</v>
+      </c>
+      <c r="D138" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="80">
+        <v>1</v>
+      </c>
+      <c r="F138" s="81">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G138" s="75">
+        <f t="shared" si="3"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H138" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A139" s="70">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B139" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C139" s="71">
+        <v>6644</v>
+      </c>
+      <c r="D139" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="80">
+        <v>1</v>
+      </c>
+      <c r="F139" s="81">
+        <v>13</v>
+      </c>
+      <c r="G139" s="75">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H139" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A140" s="70">
+        <f t="shared" ref="A140:A154" si="4">A139+1</f>
+        <v>121</v>
+      </c>
+      <c r="B140" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C140" s="71">
+        <v>6642</v>
+      </c>
+      <c r="D140" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="80">
+        <v>1</v>
+      </c>
+      <c r="F140" s="81">
+        <v>3.74</v>
+      </c>
+      <c r="G140" s="75">
+        <f t="shared" ref="G140:G154" si="5">E140*F140</f>
+        <v>3.74</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A141" s="70">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B141" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" s="71">
+        <v>6643</v>
+      </c>
+      <c r="D141" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="80">
+        <v>1</v>
+      </c>
+      <c r="F141" s="81">
+        <v>5.99</v>
+      </c>
+      <c r="G141" s="75">
+        <f t="shared" si="5"/>
+        <v>5.99</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A142" s="70">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B142" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C142" s="71">
+        <v>6634</v>
+      </c>
+      <c r="D142" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142" s="80">
+        <v>1</v>
+      </c>
+      <c r="F142" s="81">
+        <v>2.5</v>
+      </c>
+      <c r="G142" s="75">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A143" s="70">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="B143" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C143" s="71">
+        <v>6635</v>
+      </c>
+      <c r="D143" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="80">
+        <v>1</v>
+      </c>
+      <c r="F143" s="81">
+        <v>3.2</v>
+      </c>
+      <c r="G143" s="75">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="H143" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A144" s="70">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="B144" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C144" s="71">
+        <v>7386</v>
+      </c>
+      <c r="D144" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E144" s="80">
+        <v>4</v>
+      </c>
+      <c r="F144" s="81">
+        <v>7</v>
+      </c>
+      <c r="G144" s="75">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H144" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A145" s="70">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" s="71">
+        <v>7387</v>
+      </c>
+      <c r="D145" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" s="80">
+        <v>4</v>
+      </c>
+      <c r="F145" s="81">
+        <v>7.6</v>
+      </c>
+      <c r="G145" s="75">
+        <f t="shared" si="5"/>
+        <v>30.4</v>
+      </c>
+      <c r="H145" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A146" s="70">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" s="71">
+        <v>7388</v>
+      </c>
+      <c r="D146" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" s="80">
+        <v>4</v>
+      </c>
+      <c r="F146" s="81">
+        <v>8.5</v>
+      </c>
+      <c r="G146" s="75">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="H146" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A147" s="70">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" s="71">
+        <v>7389</v>
+      </c>
+      <c r="D147" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="80">
+        <v>4</v>
+      </c>
+      <c r="F147" s="81">
+        <v>6.5</v>
+      </c>
+      <c r="G147" s="75">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H147" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A148" s="70">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="B148" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" s="71">
+        <v>7390</v>
+      </c>
+      <c r="D148" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148" s="80">
+        <v>4</v>
+      </c>
+      <c r="F148" s="81">
+        <v>7</v>
+      </c>
+      <c r="G148" s="75">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H148" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A149" s="70">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C149" s="71">
+        <v>7391</v>
+      </c>
+      <c r="D149" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E149" s="80">
+        <v>4</v>
+      </c>
+      <c r="F149" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G149" s="75">
+        <f t="shared" si="5"/>
+        <v>27.6</v>
+      </c>
+      <c r="H149" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A150" s="70">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="71">
+        <v>6191</v>
+      </c>
+      <c r="D150" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="80">
+        <v>2</v>
+      </c>
+      <c r="F150" s="81">
+        <v>7.98</v>
+      </c>
+      <c r="G150" s="75">
+        <f t="shared" si="5"/>
+        <v>15.96</v>
+      </c>
+      <c r="H150" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A151" s="70">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="71">
+        <v>7381</v>
+      </c>
+      <c r="D151" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="80">
+        <v>2</v>
+      </c>
+      <c r="F151" s="81">
+        <v>4.24</v>
+      </c>
+      <c r="G151" s="75">
+        <f t="shared" si="5"/>
+        <v>8.48</v>
+      </c>
+      <c r="H151" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A152" s="70">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152" s="71">
+        <v>1905</v>
+      </c>
+      <c r="D152" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" s="91">
+        <v>2</v>
+      </c>
+      <c r="F152" s="81">
+        <v>9.89</v>
+      </c>
+      <c r="G152" s="75">
+        <f t="shared" si="5"/>
+        <v>19.78</v>
+      </c>
+      <c r="H152" s="78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A153" s="70">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="B153" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="C153" s="89">
+        <v>8351</v>
+      </c>
+      <c r="D153" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E153" s="95">
+        <v>2</v>
+      </c>
+      <c r="F153" s="86">
+        <v>7.01</v>
+      </c>
+      <c r="G153" s="75">
+        <f t="shared" si="5"/>
+        <v>14.02</v>
+      </c>
+      <c r="H153" s="78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="77" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="70">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B154" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C154" s="71">
+        <v>8353</v>
+      </c>
+      <c r="D154" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="E154" s="93">
+        <v>2</v>
+      </c>
+      <c r="F154" s="75">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G154" s="75">
+        <f t="shared" si="5"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H154" s="78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="54">
+        <f>SUM(E20:E154)</f>
+        <v>879.90000000000009</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="55">
+        <f>SUM(G20:G154)</f>
+        <v>11095.220000000003</v>
+      </c>
+      <c r="H155" s="43"/>
+    </row>
+    <row r="156" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="44"/>
+    </row>
+    <row r="158" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="45"/>
+    </row>
+    <row r="159" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="44"/>
+    </row>
+    <row r="160" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="45"/>
+    </row>
+    <row r="161" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" s="39"/>
+    </row>
+    <row r="162" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C162" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H162" s="46"/>
+    </row>
+    <row r="163" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="46"/>
+    </row>
+    <row r="166" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G166" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="60"/>
+      <c r="G167" s="60"/>
+    </row>
+    <row r="168" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C168" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168" s="46"/>
+    </row>
+    <row r="169" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="60"/>
+      <c r="G170" s="60"/>
+    </row>
+    <row r="171" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="46"/>
+    </row>
+    <row r="172" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G172" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="60"/>
+      <c r="G173" s="60"/>
+    </row>
+    <row r="174" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C174" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="46"/>
+    </row>
+    <row r="175" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="60"/>
+      <c r="G176" s="60"/>
+    </row>
+    <row r="177" spans="2:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C177" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177" s="46"/>
+    </row>
+    <row r="178" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B180" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H180" s="46"/>
+    </row>
+    <row r="181" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="F1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="F2" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+    </row>
+    <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
+        <v>1</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="28">
+        <v>7663</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="35">
+        <v>10</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="30">
+        <f>E20*F20</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="28">
+        <v>4249</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="64">
+        <v>6</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="30">
+        <f>E21*F21</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="H21" s="110"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
+        <f t="shared" ref="A22:A26" si="0">A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1299</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="36">
+        <v>130</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="30">
+        <f>E22*F22</f>
+        <v>78</v>
+      </c>
+      <c r="H22" s="110"/>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="28">
+        <v>7664</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="36">
+        <v>76</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.59</v>
+      </c>
+      <c r="G23" s="30">
+        <f>E23*F23</f>
+        <v>44.839999999999996</v>
+      </c>
+      <c r="H23" s="110"/>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="28">
+        <v>6951</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="36">
+        <v>32</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2.06</v>
+      </c>
+      <c r="G24" s="30">
+        <f t="shared" ref="G24:G25" si="1">E24*F24</f>
+        <v>65.92</v>
+      </c>
+      <c r="H24" s="112"/>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="28">
+        <v>4722</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="36">
+        <v>2</v>
+      </c>
+      <c r="F25" s="34">
+        <v>16.03</v>
+      </c>
+      <c r="G25" s="30">
+        <f t="shared" si="1"/>
+        <v>32.06</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="28">
+        <v>4719</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="36">
+        <v>1</v>
+      </c>
+      <c r="F26" s="34">
+        <v>37</v>
+      </c>
+      <c r="G26" s="30">
+        <f t="shared" ref="G26" si="2">E26*F26</f>
+        <v>37</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="54">
+        <f>SUM(E20:E26)</f>
+        <v>257</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="55">
+        <f>SUM(G20:G26)</f>
+        <v>266.72000000000003</v>
+      </c>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+    </row>
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C34" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="60"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C40" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="60"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="60"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C46" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="60"/>
+      <c r="G48" s="60"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C49" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="46"/>
+    </row>
+    <row r="53" spans="1:8" s="39" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Сентябрь" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Сентябрь СИЗ" sheetId="4" r:id="rId3"/>
     <sheet name="Октябрь" sheetId="5" r:id="rId4"/>
     <sheet name="Октябрь СИЗ" sheetId="7" r:id="rId5"/>
+    <sheet name="Ноябрь" sheetId="8" r:id="rId6"/>
+    <sheet name="Ноябрь СИЗ" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="262">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -823,17 +825,87 @@
   <si>
     <t>Покраска конвейера</t>
   </si>
+  <si>
+    <t>Перчатки резиновые, 600мм RGS, текстильная подкладка, гладкие (левая-правая)</t>
+  </si>
+  <si>
+    <t>Перчатки рабочие трикотажные х/б черные, с ПВХ покрытием "Протектор", 5 нитей,216 текс</t>
+  </si>
+  <si>
+    <r>
+      <t>назначенная приказом (распоряжением) от 29 октября 2018 г. № 11 произвела проверку состояния предметов, находящихся в подотчете у _______________</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Гавриленко А.Д.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>___________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ветошь</t>
+  </si>
+  <si>
+    <t>Штангенциркуль электронный 150мм</t>
+  </si>
+  <si>
+    <t>Заключение о непригодности</t>
+  </si>
+  <si>
+    <t>401М4 Стекло листовое бесцветное 130*75</t>
+  </si>
+  <si>
+    <t>402М1 Стекло листовое бесцветное 321*225</t>
+  </si>
+  <si>
+    <t>Замена в пескоструйке</t>
+  </si>
+  <si>
+    <t>Круг ст.40х д.20</t>
+  </si>
+  <si>
+    <t>Круг ст.40х д.30</t>
+  </si>
+  <si>
+    <t>Круг ст.40х д.40</t>
+  </si>
+  <si>
+    <t>Круг ст.40х д.50</t>
+  </si>
+  <si>
+    <t>Круг ст.40х д.60</t>
+  </si>
+  <si>
+    <t>т.</t>
+  </si>
+  <si>
+    <t>Изготовление деталей для ремонтов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0000000000"/>
     <numFmt numFmtId="165" formatCode="0;[Red]\-0"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]\-0.00"/>
     <numFmt numFmtId="167" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="168" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="169" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1312,7 +1384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1602,23 +1674,17 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1638,6 +1704,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1649,6 +1733,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1977,53 +2079,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="F2" s="107" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -2034,43 +2136,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2082,28 +2184,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -6470,12 +6572,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A8:H8"/>
@@ -6483,6 +6579,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6515,53 +6617,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="F2" s="107" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -6572,43 +6674,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6620,28 +6722,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -6733,7 +6835,7 @@
         <f>E20*F20</f>
         <v>5.4</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="113" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6761,7 +6863,7 @@
         <f>E21*F21</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="H21" s="110"/>
+      <c r="H21" s="114"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
@@ -6787,7 +6889,7 @@
         <f t="shared" ref="G22:G25" si="1">E22*F22</f>
         <v>720</v>
       </c>
-      <c r="H22" s="110"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
@@ -6813,7 +6915,7 @@
         <f t="shared" si="1"/>
         <v>41.010060000000003</v>
       </c>
-      <c r="H23" s="110"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
@@ -6839,7 +6941,7 @@
         <f t="shared" si="1"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="H24" s="110"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
@@ -6865,7 +6967,7 @@
         <f t="shared" si="1"/>
         <v>69.989919999999998</v>
       </c>
-      <c r="H25" s="111"/>
+      <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -7127,12 +7229,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H25"/>
     <mergeCell ref="F5:H5"/>
@@ -7141,6 +7237,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -7172,53 +7274,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="F2" s="107" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -7229,43 +7331,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7277,28 +7379,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -7390,7 +7492,7 @@
         <f>E20*F20</f>
         <v>57.5</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="113" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7418,7 +7520,7 @@
         <f>E21*F21</f>
         <v>12</v>
       </c>
-      <c r="H21" s="110"/>
+      <c r="H21" s="114"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -7444,7 +7546,7 @@
         <f t="shared" ref="G22" si="1">E22*F22</f>
         <v>247.20000000000002</v>
       </c>
-      <c r="H22" s="110"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -7706,12 +7808,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="F5:H5"/>
@@ -7720,6 +7816,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -7734,7 +7836,7 @@
   </sheetPr>
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A133" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="A134" sqref="A134:A135"/>
     </sheetView>
   </sheetViews>
@@ -7751,53 +7853,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="F2" s="107" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -7808,43 +7910,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7856,28 +7958,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
     </row>
     <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -11985,12 +12087,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A8:H8"/>
@@ -11998,6 +12094,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -12029,53 +12131,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="F1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="F2" s="107" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -12086,43 +12188,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12134,28 +12236,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
     </row>
     <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -12247,7 +12349,7 @@
         <f>E20*F20</f>
         <v>5</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="113" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12275,7 +12377,7 @@
         <f>E21*F21</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="H21" s="110"/>
+      <c r="H21" s="114"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
@@ -12301,7 +12403,7 @@
         <f>E22*F22</f>
         <v>78</v>
       </c>
-      <c r="H22" s="110"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
@@ -12327,7 +12429,7 @@
         <f>E23*F23</f>
         <v>44.839999999999996</v>
       </c>
-      <c r="H23" s="110"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
@@ -12353,7 +12455,7 @@
         <f t="shared" ref="G24:G25" si="1">E24*F24</f>
         <v>65.92</v>
       </c>
-      <c r="H24" s="112"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
@@ -12678,12 +12780,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H24"/>
     <mergeCell ref="F5:H5"/>
@@ -12692,6 +12788,4512 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:A73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+    </row>
+    <row r="15" spans="1:8" s="99" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+    </row>
+    <row r="16" spans="1:8" s="99" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="70">
+        <v>1</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="71">
+        <v>7931</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="82">
+        <v>12.8</v>
+      </c>
+      <c r="F20" s="74">
+        <f>23.34/E20</f>
+        <v>1.8234374999999998</v>
+      </c>
+      <c r="G20" s="75">
+        <f>E20*F20</f>
+        <v>23.34</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A21" s="70">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="71">
+        <v>6344</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="73">
+        <v>2</v>
+      </c>
+      <c r="F21" s="74">
+        <v>244.47</v>
+      </c>
+      <c r="G21" s="75">
+        <f>E21*F21</f>
+        <v>488.94</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A22" s="70">
+        <f t="shared" ref="A22:A73" si="0">A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="71">
+        <v>6343</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="73">
+        <v>2</v>
+      </c>
+      <c r="F22" s="74">
+        <v>72.12</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" ref="G22:G72" si="1">E22*F22</f>
+        <v>144.24</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A23" s="70">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="71">
+        <v>7961</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="73">
+        <v>60</v>
+      </c>
+      <c r="F23" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G23" s="75">
+        <f t="shared" si="1"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A24" s="70">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="71">
+        <v>7962</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="73">
+        <v>30</v>
+      </c>
+      <c r="F24" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G24" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A25" s="70">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="71">
+        <v>7960</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="73">
+        <v>30</v>
+      </c>
+      <c r="F25" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G25" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A26" s="70">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="71">
+        <v>6385</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="73">
+        <v>30</v>
+      </c>
+      <c r="F26" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G26" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A27" s="70">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="71">
+        <v>6384</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="73">
+        <v>30</v>
+      </c>
+      <c r="F27" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G27" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A28" s="70">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="71">
+        <v>1654</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="73">
+        <v>100</v>
+      </c>
+      <c r="F28" s="74">
+        <f>11738.91/500</f>
+        <v>23.477820000000001</v>
+      </c>
+      <c r="G28" s="75">
+        <f>E28*F28</f>
+        <v>2347.7820000000002</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A29" s="70">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="71">
+        <v>8784</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="73">
+        <v>0.98</v>
+      </c>
+      <c r="F29" s="74">
+        <v>5.73</v>
+      </c>
+      <c r="G29" s="75">
+        <f t="shared" si="1"/>
+        <v>5.6154000000000002</v>
+      </c>
+      <c r="H29" s="78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A30" s="70">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="71">
+        <v>8783</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="73">
+        <v>5</v>
+      </c>
+      <c r="F30" s="74">
+        <v>4.74</v>
+      </c>
+      <c r="G30" s="75">
+        <f t="shared" si="1"/>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A31" s="70">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="71">
+        <v>5736</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="120">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="74">
+        <v>1995.33</v>
+      </c>
+      <c r="G31" s="75">
+        <f t="shared" si="1"/>
+        <v>9.9766499999999994</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A32" s="70">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="71">
+        <v>5737</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="121">
+        <v>0.01</v>
+      </c>
+      <c r="F32" s="122">
+        <v>1995</v>
+      </c>
+      <c r="G32" s="75">
+        <f t="shared" si="1"/>
+        <v>19.95</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A33" s="70">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="71">
+        <v>5738</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="121">
+        <v>0.01</v>
+      </c>
+      <c r="F33" s="122">
+        <v>1995</v>
+      </c>
+      <c r="G33" s="75">
+        <f t="shared" si="1"/>
+        <v>19.95</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A34" s="70">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="71">
+        <v>5739</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="121">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="122">
+        <v>1995.05</v>
+      </c>
+      <c r="G34" s="75">
+        <f t="shared" si="1"/>
+        <v>39.901000000000003</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A35" s="70">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="71">
+        <v>5740</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="121">
+        <v>0.02</v>
+      </c>
+      <c r="F35" s="122">
+        <v>1995</v>
+      </c>
+      <c r="G35" s="75">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A36" s="70">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="71">
+        <v>4327</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="80">
+        <v>10</v>
+      </c>
+      <c r="F36" s="81">
+        <v>7.49</v>
+      </c>
+      <c r="G36" s="75">
+        <f t="shared" si="1"/>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A37" s="70">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="71">
+        <v>7378</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="80">
+        <v>10</v>
+      </c>
+      <c r="F37" s="81">
+        <v>9.56</v>
+      </c>
+      <c r="G37" s="75">
+        <f t="shared" si="1"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H37" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A38" s="70">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B38" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="71">
+        <v>4328</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="80">
+        <v>10</v>
+      </c>
+      <c r="F38" s="81">
+        <v>9.56</v>
+      </c>
+      <c r="G38" s="75">
+        <f t="shared" si="1"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A39" s="70">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B39" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="71">
+        <v>7084</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="80">
+        <v>10</v>
+      </c>
+      <c r="F39" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G39" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A40" s="70">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B40" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="71">
+        <v>5801</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="80">
+        <v>10</v>
+      </c>
+      <c r="F40" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G40" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A41" s="70">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="71">
+        <v>5802</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="80">
+        <v>10</v>
+      </c>
+      <c r="F41" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G41" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A42" s="70">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B42" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="71">
+        <v>4324</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="80">
+        <v>10</v>
+      </c>
+      <c r="F42" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G42" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A43" s="70">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B43" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="71">
+        <v>5803</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="80">
+        <v>10</v>
+      </c>
+      <c r="F43" s="81">
+        <v>4.18</v>
+      </c>
+      <c r="G43" s="75">
+        <f t="shared" si="1"/>
+        <v>41.8</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A44" s="70">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B44" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="71">
+        <v>4325</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="80">
+        <v>10</v>
+      </c>
+      <c r="F44" s="81">
+        <v>4.18</v>
+      </c>
+      <c r="G44" s="75">
+        <f t="shared" si="1"/>
+        <v>41.8</v>
+      </c>
+      <c r="H44" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A45" s="70">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B45" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="71">
+        <v>7737</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="80">
+        <v>10</v>
+      </c>
+      <c r="F45" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G45" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A46" s="70">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B46" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="71">
+        <v>7745</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="80">
+        <v>10</v>
+      </c>
+      <c r="F46" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G46" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A47" s="70">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B47" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="71">
+        <v>7736</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="80">
+        <v>10</v>
+      </c>
+      <c r="F47" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G47" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A48" s="70">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B48" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="71">
+        <v>5805</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="80">
+        <v>10</v>
+      </c>
+      <c r="F48" s="81">
+        <v>4.42</v>
+      </c>
+      <c r="G48" s="75">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A49" s="70">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B49" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="71">
+        <v>5806</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="80">
+        <v>10</v>
+      </c>
+      <c r="F49" s="81">
+        <v>4.42</v>
+      </c>
+      <c r="G49" s="75">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="H49" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A50" s="70">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B50" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="71">
+        <v>4326</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="80">
+        <v>10</v>
+      </c>
+      <c r="F50" s="81">
+        <v>4.42</v>
+      </c>
+      <c r="G50" s="75">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A51" s="70">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B51" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="71">
+        <v>7738</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="80">
+        <v>10</v>
+      </c>
+      <c r="F51" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G51" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A52" s="70">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B52" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="71">
+        <v>7739</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="80">
+        <v>10</v>
+      </c>
+      <c r="F52" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G52" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A53" s="70">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B53" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="71">
+        <v>7740</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="80">
+        <v>10</v>
+      </c>
+      <c r="F53" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G53" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A54" s="70">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B54" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="71">
+        <v>7746</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="80">
+        <v>10</v>
+      </c>
+      <c r="F54" s="81">
+        <v>6.25</v>
+      </c>
+      <c r="G54" s="75">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A55" s="70">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B55" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="71">
+        <v>7743</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="80">
+        <v>10</v>
+      </c>
+      <c r="F55" s="81">
+        <v>6.25</v>
+      </c>
+      <c r="G55" s="75">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H55" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A56" s="70">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B56" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="71">
+        <v>7747</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="80">
+        <v>10</v>
+      </c>
+      <c r="F56" s="81">
+        <v>6.25</v>
+      </c>
+      <c r="G56" s="75">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A57" s="70">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B57" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="71">
+        <v>6806</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="80">
+        <v>10</v>
+      </c>
+      <c r="F57" s="81">
+        <v>1.24</v>
+      </c>
+      <c r="G57" s="75">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A58" s="70">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B58" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="71">
+        <v>1298</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="118">
+        <v>0.02</v>
+      </c>
+      <c r="F58" s="81">
+        <v>1250</v>
+      </c>
+      <c r="G58" s="75">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A59" s="70">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B59" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="71">
+        <v>7380</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="80">
+        <v>3</v>
+      </c>
+      <c r="F59" s="81">
+        <v>3.42</v>
+      </c>
+      <c r="G59" s="75">
+        <f t="shared" si="1"/>
+        <v>10.26</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A60" s="70">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B60" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="71">
+        <v>5815</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="80">
+        <v>20</v>
+      </c>
+      <c r="F60" s="81">
+        <v>4.29</v>
+      </c>
+      <c r="G60" s="75">
+        <f t="shared" si="1"/>
+        <v>85.8</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A61" s="70">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B61" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="71">
+        <v>5776</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="80">
+        <v>3</v>
+      </c>
+      <c r="F61" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G61" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H61" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A62" s="70">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B62" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="71">
+        <v>5774</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="80">
+        <v>3</v>
+      </c>
+      <c r="F62" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G62" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A63" s="70">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B63" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="71">
+        <v>5775</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="80">
+        <v>3</v>
+      </c>
+      <c r="F63" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G63" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A64" s="70">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="71">
+        <v>5808</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="80">
+        <v>20</v>
+      </c>
+      <c r="F64" s="81">
+        <v>3.8</v>
+      </c>
+      <c r="G64" s="75">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H64" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A65" s="70">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B65" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="71">
+        <v>4333</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="80">
+        <v>10</v>
+      </c>
+      <c r="F65" s="81">
+        <v>6.81</v>
+      </c>
+      <c r="G65" s="75">
+        <f t="shared" si="1"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H65" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A66" s="70">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B66" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="71">
+        <v>1670</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="80">
+        <v>1</v>
+      </c>
+      <c r="F66" s="81">
+        <v>51.3</v>
+      </c>
+      <c r="G66" s="75">
+        <f t="shared" si="1"/>
+        <v>51.3</v>
+      </c>
+      <c r="H66" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="77" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A67" s="70">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B67" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="71">
+        <v>1671</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="80">
+        <v>1</v>
+      </c>
+      <c r="F67" s="81">
+        <v>76.72</v>
+      </c>
+      <c r="G67" s="75">
+        <f t="shared" si="1"/>
+        <v>76.72</v>
+      </c>
+      <c r="H67" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A68" s="70">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B68" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="71">
+        <v>1238</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="80">
+        <v>2</v>
+      </c>
+      <c r="F68" s="81">
+        <v>8</v>
+      </c>
+      <c r="G68" s="75">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H68" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A69" s="70">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B69" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="71">
+        <v>7744</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="80">
+        <v>2</v>
+      </c>
+      <c r="F69" s="81">
+        <v>9.98</v>
+      </c>
+      <c r="G69" s="75">
+        <f t="shared" si="1"/>
+        <v>19.96</v>
+      </c>
+      <c r="H69" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A70" s="70">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B70" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="71">
+        <v>7200</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="80">
+        <v>2</v>
+      </c>
+      <c r="F70" s="81">
+        <v>2.89</v>
+      </c>
+      <c r="G70" s="75">
+        <f t="shared" si="1"/>
+        <v>5.78</v>
+      </c>
+      <c r="H70" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A71" s="70">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B71" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="71">
+        <v>7201</v>
+      </c>
+      <c r="D71" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="80">
+        <v>2</v>
+      </c>
+      <c r="F71" s="81">
+        <v>3.88</v>
+      </c>
+      <c r="G71" s="75">
+        <f t="shared" si="1"/>
+        <v>7.76</v>
+      </c>
+      <c r="H71" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A72" s="70">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B72" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="71">
+        <v>7670</v>
+      </c>
+      <c r="D72" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="80">
+        <v>2</v>
+      </c>
+      <c r="F72" s="81">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G72" s="75">
+        <f t="shared" si="1"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H72" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A73" s="70">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B73" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="71">
+        <v>7202</v>
+      </c>
+      <c r="D73" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="80">
+        <v>2</v>
+      </c>
+      <c r="F73" s="81">
+        <v>5.85</v>
+      </c>
+      <c r="G73" s="75">
+        <f t="shared" ref="G73:G136" si="2">E73*F73</f>
+        <v>11.7</v>
+      </c>
+      <c r="H73" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A74" s="70">
+        <f t="shared" ref="A72:A135" si="3">A73+1</f>
+        <v>55</v>
+      </c>
+      <c r="B74" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="71">
+        <v>7203</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="80">
+        <v>2</v>
+      </c>
+      <c r="F74" s="81">
+        <v>14.82</v>
+      </c>
+      <c r="G74" s="75">
+        <f t="shared" si="2"/>
+        <v>29.64</v>
+      </c>
+      <c r="H74" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A75" s="70">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B75" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="71">
+        <v>7204</v>
+      </c>
+      <c r="D75" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="80">
+        <v>2</v>
+      </c>
+      <c r="F75" s="81">
+        <v>1.26</v>
+      </c>
+      <c r="G75" s="75">
+        <f t="shared" si="2"/>
+        <v>2.52</v>
+      </c>
+      <c r="H75" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A76" s="70">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B76" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="71">
+        <v>7205</v>
+      </c>
+      <c r="D76" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="80">
+        <v>2</v>
+      </c>
+      <c r="F76" s="81">
+        <v>2.48</v>
+      </c>
+      <c r="G76" s="75">
+        <f t="shared" si="2"/>
+        <v>4.96</v>
+      </c>
+      <c r="H76" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A77" s="70">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B77" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="71">
+        <v>7671</v>
+      </c>
+      <c r="D77" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="80">
+        <v>2</v>
+      </c>
+      <c r="F77" s="81">
+        <v>5.35</v>
+      </c>
+      <c r="G77" s="75">
+        <f t="shared" si="2"/>
+        <v>10.7</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A78" s="70">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B78" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="71">
+        <v>7206</v>
+      </c>
+      <c r="D78" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="80">
+        <v>2</v>
+      </c>
+      <c r="F78" s="81">
+        <v>3.9</v>
+      </c>
+      <c r="G78" s="75">
+        <f t="shared" si="2"/>
+        <v>7.8</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A79" s="70">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B79" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="71">
+        <v>7207</v>
+      </c>
+      <c r="D79" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="80">
+        <v>2</v>
+      </c>
+      <c r="F79" s="81">
+        <v>4.2</v>
+      </c>
+      <c r="G79" s="75">
+        <f t="shared" si="2"/>
+        <v>8.4</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A80" s="70">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B80" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="71">
+        <v>7208</v>
+      </c>
+      <c r="D80" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="80">
+        <v>2</v>
+      </c>
+      <c r="F80" s="81">
+        <v>8.14</v>
+      </c>
+      <c r="G80" s="75">
+        <f t="shared" si="2"/>
+        <v>16.28</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A81" s="70">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B81" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="71">
+        <v>7672</v>
+      </c>
+      <c r="D81" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="80">
+        <v>1</v>
+      </c>
+      <c r="F81" s="81">
+        <v>14.78</v>
+      </c>
+      <c r="G81" s="75">
+        <f t="shared" si="2"/>
+        <v>14.78</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A82" s="70">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B82" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="71">
+        <v>7209</v>
+      </c>
+      <c r="D82" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="80">
+        <v>1</v>
+      </c>
+      <c r="F82" s="81">
+        <v>10.77</v>
+      </c>
+      <c r="G82" s="75">
+        <f t="shared" si="2"/>
+        <v>10.77</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A83" s="70">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B83" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="71">
+        <v>7673</v>
+      </c>
+      <c r="D83" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="80">
+        <v>1</v>
+      </c>
+      <c r="F83" s="81">
+        <v>33.32</v>
+      </c>
+      <c r="G83" s="75">
+        <f t="shared" si="2"/>
+        <v>33.32</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A84" s="70">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B84" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="71">
+        <v>7210</v>
+      </c>
+      <c r="D84" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="80">
+        <v>1</v>
+      </c>
+      <c r="F84" s="81">
+        <v>24.17</v>
+      </c>
+      <c r="G84" s="75">
+        <f t="shared" si="2"/>
+        <v>24.17</v>
+      </c>
+      <c r="H84" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A85" s="70">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B85" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="71">
+        <v>7211</v>
+      </c>
+      <c r="D85" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="80">
+        <v>1</v>
+      </c>
+      <c r="F85" s="81">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="G85" s="75">
+        <f t="shared" si="2"/>
+        <v>38.869999999999997</v>
+      </c>
+      <c r="H85" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A86" s="70">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B86" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="71">
+        <v>7674</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="80">
+        <v>1</v>
+      </c>
+      <c r="F86" s="81">
+        <v>2.77</v>
+      </c>
+      <c r="G86" s="75">
+        <f t="shared" si="2"/>
+        <v>2.77</v>
+      </c>
+      <c r="H86" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A87" s="70">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B87" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="71">
+        <v>7212</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="80">
+        <v>1</v>
+      </c>
+      <c r="F87" s="81">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G87" s="75">
+        <f t="shared" si="2"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H87" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A88" s="70">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B88" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="71">
+        <v>7213</v>
+      </c>
+      <c r="D88" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="80">
+        <v>1</v>
+      </c>
+      <c r="F88" s="81">
+        <v>3.12</v>
+      </c>
+      <c r="G88" s="75">
+        <f t="shared" si="2"/>
+        <v>3.12</v>
+      </c>
+      <c r="H88" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A89" s="70">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B89" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="71">
+        <v>7675</v>
+      </c>
+      <c r="D89" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="80">
+        <v>1</v>
+      </c>
+      <c r="F89" s="81">
+        <v>4.95</v>
+      </c>
+      <c r="G89" s="75">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="H89" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A90" s="70">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B90" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="71">
+        <v>7214</v>
+      </c>
+      <c r="D90" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="80">
+        <v>2</v>
+      </c>
+      <c r="F90" s="81">
+        <v>4.2</v>
+      </c>
+      <c r="G90" s="75">
+        <f t="shared" si="2"/>
+        <v>8.4</v>
+      </c>
+      <c r="H90" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A91" s="70">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B91" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="71">
+        <v>6889</v>
+      </c>
+      <c r="D91" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="80">
+        <v>2</v>
+      </c>
+      <c r="F91" s="81">
+        <v>11.12</v>
+      </c>
+      <c r="G91" s="75">
+        <f t="shared" si="2"/>
+        <v>22.24</v>
+      </c>
+      <c r="H91" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A92" s="70">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B92" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="71">
+        <v>6905</v>
+      </c>
+      <c r="D92" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="80">
+        <v>2</v>
+      </c>
+      <c r="F92" s="81">
+        <v>11.64</v>
+      </c>
+      <c r="G92" s="75">
+        <f t="shared" si="2"/>
+        <v>23.28</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A93" s="70">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B93" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="71">
+        <v>6892</v>
+      </c>
+      <c r="D93" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="80">
+        <v>2</v>
+      </c>
+      <c r="F93" s="81">
+        <v>12.06</v>
+      </c>
+      <c r="G93" s="75">
+        <f t="shared" si="2"/>
+        <v>24.12</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A94" s="70">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B94" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="71">
+        <v>3619</v>
+      </c>
+      <c r="D94" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="80">
+        <v>3</v>
+      </c>
+      <c r="F94" s="81">
+        <v>3.05</v>
+      </c>
+      <c r="G94" s="75">
+        <f t="shared" si="2"/>
+        <v>9.1499999999999986</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A95" s="70">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B95" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="71">
+        <v>6902</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="80">
+        <v>2</v>
+      </c>
+      <c r="F95" s="81">
+        <v>16.87</v>
+      </c>
+      <c r="G95" s="75">
+        <f t="shared" si="2"/>
+        <v>33.74</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A96" s="70">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B96" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="71">
+        <v>6899</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="80">
+        <v>2</v>
+      </c>
+      <c r="F96" s="81">
+        <v>11.13</v>
+      </c>
+      <c r="G96" s="75">
+        <f t="shared" si="2"/>
+        <v>22.26</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A97" s="70">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B97" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="71">
+        <v>6895</v>
+      </c>
+      <c r="D97" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="80">
+        <v>2</v>
+      </c>
+      <c r="F97" s="81">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G97" s="75">
+        <f t="shared" si="2"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A98" s="70">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B98" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="71">
+        <v>6894</v>
+      </c>
+      <c r="D98" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="80">
+        <v>2</v>
+      </c>
+      <c r="F98" s="81">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G98" s="75">
+        <f t="shared" si="2"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H98" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A99" s="70">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B99" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="71">
+        <v>6896</v>
+      </c>
+      <c r="D99" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="80">
+        <v>2</v>
+      </c>
+      <c r="F99" s="81">
+        <v>12.42</v>
+      </c>
+      <c r="G99" s="75">
+        <f t="shared" si="2"/>
+        <v>24.84</v>
+      </c>
+      <c r="H99" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A100" s="70">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B100" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="71">
+        <v>5478</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="80">
+        <v>3</v>
+      </c>
+      <c r="F100" s="81">
+        <v>2.13</v>
+      </c>
+      <c r="G100" s="75">
+        <f t="shared" si="2"/>
+        <v>6.39</v>
+      </c>
+      <c r="H100" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A101" s="70">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B101" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="71">
+        <v>7041</v>
+      </c>
+      <c r="D101" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E101" s="80">
+        <v>2</v>
+      </c>
+      <c r="F101" s="81">
+        <v>111.55</v>
+      </c>
+      <c r="G101" s="75">
+        <f t="shared" si="2"/>
+        <v>223.1</v>
+      </c>
+      <c r="H101" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A102" s="70">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B102" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="71">
+        <v>7042</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E102" s="80">
+        <v>2</v>
+      </c>
+      <c r="F102" s="81">
+        <v>111.55</v>
+      </c>
+      <c r="G102" s="75">
+        <f t="shared" si="2"/>
+        <v>223.1</v>
+      </c>
+      <c r="H102" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A103" s="70">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B103" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="71">
+        <v>7043</v>
+      </c>
+      <c r="D103" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" s="80">
+        <v>2</v>
+      </c>
+      <c r="F103" s="81">
+        <v>120</v>
+      </c>
+      <c r="G103" s="75">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="H103" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A104" s="70">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B104" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="71">
+        <v>6912</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="80">
+        <v>4</v>
+      </c>
+      <c r="F104" s="81">
+        <v>5.34</v>
+      </c>
+      <c r="G104" s="75">
+        <f t="shared" si="2"/>
+        <v>21.36</v>
+      </c>
+      <c r="H104" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A105" s="70">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B105" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="71">
+        <v>6626</v>
+      </c>
+      <c r="D105" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="80">
+        <v>1</v>
+      </c>
+      <c r="F105" s="81">
+        <v>12.11</v>
+      </c>
+      <c r="G105" s="75">
+        <f t="shared" si="2"/>
+        <v>12.11</v>
+      </c>
+      <c r="H105" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A106" s="70">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B106" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="71">
+        <v>6618</v>
+      </c>
+      <c r="D106" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="80">
+        <v>4</v>
+      </c>
+      <c r="F106" s="81">
+        <v>0.35</v>
+      </c>
+      <c r="G106" s="75">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="H106" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A107" s="70">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B107" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="71">
+        <v>6619</v>
+      </c>
+      <c r="D107" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="80">
+        <v>4</v>
+      </c>
+      <c r="F107" s="81">
+        <v>0.65</v>
+      </c>
+      <c r="G107" s="75">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A108" s="70">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B108" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="71">
+        <v>6620</v>
+      </c>
+      <c r="D108" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="80">
+        <v>4</v>
+      </c>
+      <c r="F108" s="81">
+        <v>0.76</v>
+      </c>
+      <c r="G108" s="75">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A109" s="70">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B109" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="71">
+        <v>6624</v>
+      </c>
+      <c r="D109" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="80">
+        <v>4</v>
+      </c>
+      <c r="F109" s="81">
+        <v>1.66</v>
+      </c>
+      <c r="G109" s="75">
+        <f t="shared" si="2"/>
+        <v>6.64</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A110" s="70">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B110" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="71">
+        <v>6617</v>
+      </c>
+      <c r="D110" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="80">
+        <v>5</v>
+      </c>
+      <c r="F110" s="81">
+        <v>0.21</v>
+      </c>
+      <c r="G110" s="75">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A111" s="70">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B111" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="71">
+        <v>6623</v>
+      </c>
+      <c r="D111" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="80">
+        <v>4</v>
+      </c>
+      <c r="F111" s="81">
+        <v>0.76</v>
+      </c>
+      <c r="G111" s="75">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A112" s="70">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B112" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="71">
+        <v>6621</v>
+      </c>
+      <c r="D112" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="80">
+        <v>4</v>
+      </c>
+      <c r="F112" s="81">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G112" s="75">
+        <f t="shared" si="2"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A113" s="70">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B113" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="71">
+        <v>6622</v>
+      </c>
+      <c r="D113" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="80">
+        <v>4</v>
+      </c>
+      <c r="F113" s="81">
+        <v>1.66</v>
+      </c>
+      <c r="G113" s="75">
+        <f t="shared" si="2"/>
+        <v>6.64</v>
+      </c>
+      <c r="H113" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A114" s="70">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B114" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="71">
+        <v>8165</v>
+      </c>
+      <c r="D114" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="80">
+        <v>4</v>
+      </c>
+      <c r="F114" s="81">
+        <v>2.76</v>
+      </c>
+      <c r="G114" s="75">
+        <f t="shared" si="2"/>
+        <v>11.04</v>
+      </c>
+      <c r="H114" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A115" s="70">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B115" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="71">
+        <v>8166</v>
+      </c>
+      <c r="D115" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E115" s="85">
+        <v>5</v>
+      </c>
+      <c r="F115" s="81">
+        <v>3.07</v>
+      </c>
+      <c r="G115" s="75">
+        <f t="shared" si="2"/>
+        <v>15.35</v>
+      </c>
+      <c r="H115" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A116" s="70">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B116" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="71">
+        <v>7383</v>
+      </c>
+      <c r="D116" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="80">
+        <v>2</v>
+      </c>
+      <c r="F116" s="81">
+        <v>13.78</v>
+      </c>
+      <c r="G116" s="75">
+        <f t="shared" si="2"/>
+        <v>27.56</v>
+      </c>
+      <c r="H116" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A117" s="70">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B117" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="71">
+        <v>6890</v>
+      </c>
+      <c r="D117" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="80">
+        <v>2</v>
+      </c>
+      <c r="F117" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G117" s="75">
+        <f t="shared" si="2"/>
+        <v>21.82</v>
+      </c>
+      <c r="H117" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A118" s="70">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B118" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" s="71">
+        <v>6900</v>
+      </c>
+      <c r="D118" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="80">
+        <v>2</v>
+      </c>
+      <c r="F118" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G118" s="75">
+        <f t="shared" si="2"/>
+        <v>21.82</v>
+      </c>
+      <c r="H118" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A119" s="70">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B119" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="71">
+        <v>6897</v>
+      </c>
+      <c r="D119" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="80">
+        <v>2</v>
+      </c>
+      <c r="F119" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G119" s="75">
+        <f t="shared" si="2"/>
+        <v>21.82</v>
+      </c>
+      <c r="H119" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A120" s="70">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B120" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="71">
+        <v>6636</v>
+      </c>
+      <c r="D120" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="80">
+        <v>1</v>
+      </c>
+      <c r="F120" s="81">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G120" s="75">
+        <f t="shared" si="2"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H120" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A121" s="70">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B121" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="71">
+        <v>6638</v>
+      </c>
+      <c r="D121" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="80">
+        <v>1</v>
+      </c>
+      <c r="F121" s="81">
+        <v>10.15</v>
+      </c>
+      <c r="G121" s="75">
+        <f t="shared" si="2"/>
+        <v>10.15</v>
+      </c>
+      <c r="H121" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A122" s="70">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B122" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" s="71">
+        <v>6639</v>
+      </c>
+      <c r="D122" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="80">
+        <v>1</v>
+      </c>
+      <c r="F122" s="81">
+        <v>12</v>
+      </c>
+      <c r="G122" s="75">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A123" s="70">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B123" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" s="71">
+        <v>6640</v>
+      </c>
+      <c r="D123" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="80">
+        <v>1</v>
+      </c>
+      <c r="F123" s="81">
+        <v>15.2</v>
+      </c>
+      <c r="G123" s="75">
+        <f t="shared" si="2"/>
+        <v>15.2</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A124" s="70">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B124" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="71">
+        <v>6641</v>
+      </c>
+      <c r="D124" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="80">
+        <v>1</v>
+      </c>
+      <c r="F124" s="81">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G124" s="75">
+        <f t="shared" si="2"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A125" s="70">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B125" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" s="71">
+        <v>6644</v>
+      </c>
+      <c r="D125" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" s="80">
+        <v>1</v>
+      </c>
+      <c r="F125" s="81">
+        <v>13</v>
+      </c>
+      <c r="G125" s="75">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A126" s="70">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B126" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="71">
+        <v>6642</v>
+      </c>
+      <c r="D126" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="80">
+        <v>1</v>
+      </c>
+      <c r="F126" s="81">
+        <v>3.74</v>
+      </c>
+      <c r="G126" s="75">
+        <f t="shared" si="2"/>
+        <v>3.74</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A127" s="70">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B127" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="71">
+        <v>6643</v>
+      </c>
+      <c r="D127" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="80">
+        <v>1</v>
+      </c>
+      <c r="F127" s="81">
+        <v>5.99</v>
+      </c>
+      <c r="G127" s="75">
+        <f t="shared" si="2"/>
+        <v>5.99</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A128" s="70">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B128" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="71">
+        <v>6634</v>
+      </c>
+      <c r="D128" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="80">
+        <v>1</v>
+      </c>
+      <c r="F128" s="81">
+        <v>2.5</v>
+      </c>
+      <c r="G128" s="75">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H128" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A129" s="70">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B129" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" s="71">
+        <v>6635</v>
+      </c>
+      <c r="D129" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="80">
+        <v>1</v>
+      </c>
+      <c r="F129" s="81">
+        <v>3.2</v>
+      </c>
+      <c r="G129" s="75">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="H129" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A130" s="70">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B130" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" s="71">
+        <v>7386</v>
+      </c>
+      <c r="D130" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130" s="80">
+        <v>4</v>
+      </c>
+      <c r="F130" s="81">
+        <v>7</v>
+      </c>
+      <c r="G130" s="75">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H130" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A131" s="70">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B131" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C131" s="71">
+        <v>7387</v>
+      </c>
+      <c r="D131" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" s="80">
+        <v>4</v>
+      </c>
+      <c r="F131" s="81">
+        <v>7.6</v>
+      </c>
+      <c r="G131" s="75">
+        <f t="shared" si="2"/>
+        <v>30.4</v>
+      </c>
+      <c r="H131" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A132" s="70">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B132" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" s="71">
+        <v>7388</v>
+      </c>
+      <c r="D132" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E132" s="80">
+        <v>4</v>
+      </c>
+      <c r="F132" s="81">
+        <v>8.5</v>
+      </c>
+      <c r="G132" s="75">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H132" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A133" s="70">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B133" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" s="71">
+        <v>7389</v>
+      </c>
+      <c r="D133" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E133" s="80">
+        <v>4</v>
+      </c>
+      <c r="F133" s="81">
+        <v>6.5</v>
+      </c>
+      <c r="G133" s="75">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H133" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A134" s="70">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B134" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="71">
+        <v>7390</v>
+      </c>
+      <c r="D134" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134" s="80">
+        <v>4</v>
+      </c>
+      <c r="F134" s="81">
+        <v>7</v>
+      </c>
+      <c r="G134" s="75">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H134" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A135" s="70">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B135" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" s="71">
+        <v>7391</v>
+      </c>
+      <c r="D135" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135" s="80">
+        <v>4</v>
+      </c>
+      <c r="F135" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G135" s="75">
+        <f t="shared" si="2"/>
+        <v>27.6</v>
+      </c>
+      <c r="H135" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A136" s="70">
+        <f t="shared" ref="A136:A139" si="4">A135+1</f>
+        <v>117</v>
+      </c>
+      <c r="B136" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="71">
+        <v>6191</v>
+      </c>
+      <c r="D136" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E136" s="80">
+        <v>2</v>
+      </c>
+      <c r="F136" s="81">
+        <v>7.98</v>
+      </c>
+      <c r="G136" s="75">
+        <f t="shared" si="2"/>
+        <v>15.96</v>
+      </c>
+      <c r="H136" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A137" s="70">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B137" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" s="71">
+        <v>7381</v>
+      </c>
+      <c r="D137" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137" s="80">
+        <v>2</v>
+      </c>
+      <c r="F137" s="81">
+        <v>4.24</v>
+      </c>
+      <c r="G137" s="75">
+        <f t="shared" ref="G137:G139" si="5">E137*F137</f>
+        <v>8.48</v>
+      </c>
+      <c r="H137" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A138" s="70">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B138" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="71">
+        <v>1905</v>
+      </c>
+      <c r="D138" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="91">
+        <v>2</v>
+      </c>
+      <c r="F138" s="81">
+        <v>9.89</v>
+      </c>
+      <c r="G138" s="75">
+        <f t="shared" si="5"/>
+        <v>19.78</v>
+      </c>
+      <c r="H138" s="78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="77" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="70">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B139" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" s="89">
+        <v>4487</v>
+      </c>
+      <c r="D139" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139" s="95">
+        <v>1</v>
+      </c>
+      <c r="F139" s="86">
+        <v>1</v>
+      </c>
+      <c r="G139" s="75">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H139" s="78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="54">
+        <f>SUM(E20:E139)</f>
+        <v>747.86500000000001</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="55">
+        <f>SUM(G20:G139)</f>
+        <v>7668.7750499999993</v>
+      </c>
+      <c r="H140" s="43"/>
+    </row>
+    <row r="141" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="44"/>
+    </row>
+    <row r="143" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="45"/>
+    </row>
+    <row r="144" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="44"/>
+    </row>
+    <row r="145" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="45"/>
+    </row>
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146" s="39"/>
+    </row>
+    <row r="147" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C147" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" s="46"/>
+    </row>
+    <row r="148" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="46"/>
+    </row>
+    <row r="151" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="97"/>
+      <c r="G152" s="97"/>
+    </row>
+    <row r="153" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C153" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153" s="46"/>
+    </row>
+    <row r="154" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C155" s="97"/>
+      <c r="G155" s="97"/>
+    </row>
+    <row r="156" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H156" s="46"/>
+    </row>
+    <row r="157" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="97"/>
+      <c r="G158" s="97"/>
+    </row>
+    <row r="159" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C159" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" s="46"/>
+    </row>
+    <row r="160" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G160" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="97"/>
+      <c r="G161" s="97"/>
+    </row>
+    <row r="162" spans="2:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C162" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162" s="46"/>
+    </row>
+    <row r="163" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B165" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H165" s="46"/>
+    </row>
+    <row r="166" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G166" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+    </row>
+    <row r="15" spans="1:8" s="99" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+    </row>
+    <row r="16" spans="1:8" s="99" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
+        <v>1</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="28">
+        <v>7663</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="35">
+        <v>5</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="30">
+        <f>E20*F20</f>
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="113" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="28">
+        <v>4248</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="64">
+        <v>5</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="G21" s="30">
+        <f>E21*F21</f>
+        <v>1.75</v>
+      </c>
+      <c r="H21" s="114"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
+        <f t="shared" ref="A22:A24" si="0">A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1299</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="36">
+        <v>130</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="30">
+        <f>E22*F22</f>
+        <v>78</v>
+      </c>
+      <c r="H22" s="114"/>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="28">
+        <v>7664</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="36">
+        <v>38</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.59</v>
+      </c>
+      <c r="G23" s="30">
+        <f>E23*F23</f>
+        <v>22.419999999999998</v>
+      </c>
+      <c r="H23" s="116"/>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="28">
+        <v>4722</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="36">
+        <v>1</v>
+      </c>
+      <c r="F24" s="34">
+        <v>100</v>
+      </c>
+      <c r="G24" s="30">
+        <f t="shared" ref="G24" si="1">E24*F24</f>
+        <v>100</v>
+      </c>
+      <c r="H24" s="100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="54">
+        <f>SUM(E20:E24)</f>
+        <v>179</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="55">
+        <f>SUM(G20:G24)</f>
+        <v>204.67000000000002</v>
+      </c>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+    </row>
+    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C32" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="97"/>
+      <c r="G37" s="97"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C38" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="97"/>
+      <c r="G40" s="97"/>
+    </row>
+    <row r="41" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="97"/>
+      <c r="G43" s="97"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C44" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="97"/>
+      <c r="G46" s="97"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C47" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" s="39" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Сентябрь" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,18 @@
     <sheet name="Октябрь СИЗ" sheetId="7" r:id="rId5"/>
     <sheet name="Ноябрь" sheetId="8" r:id="rId6"/>
     <sheet name="Ноябрь СИЗ" sheetId="9" r:id="rId7"/>
+    <sheet name="Декабрь" sheetId="10" r:id="rId8"/>
+    <sheet name="Декабрь СИЗ" sheetId="11" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Декабрь!$A$18:$H$18</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="284">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -892,6 +897,72 @@
   </si>
   <si>
     <t>Изготовление деталей для ремонтов</t>
+  </si>
+  <si>
+    <t>Замок почтовый</t>
+  </si>
+  <si>
+    <t>Кольцо резиновое OR 12*2 NBR 70 5К00170120020</t>
+  </si>
+  <si>
+    <t>Замена в газовой горелке</t>
+  </si>
+  <si>
+    <t>Краскораспылитель пневмат. с верхним бачком</t>
+  </si>
+  <si>
+    <t>Круг отрезной ЕНТ 125-1,0 PSF STEEL</t>
+  </si>
+  <si>
+    <t>Ручка телескопическая для валика металлическая 1,15-2,0м</t>
+  </si>
+  <si>
+    <t>Комплект высечек  4,5-16,5мм 6пр</t>
+  </si>
+  <si>
+    <t>Телефон сотовый ZTE F327S черный, с/н 864581033014022</t>
+  </si>
+  <si>
+    <t>Щетка дисковая RBU 3202/3 ST 0.10</t>
+  </si>
+  <si>
+    <t>Головка шлифовальная POLINOX PNL 4020/6  А 180</t>
+  </si>
+  <si>
+    <t>Головка шлифовальная POLINOX PNL 6050/6  А 180</t>
+  </si>
+  <si>
+    <t>Головка шлифовальная лепестковая F 2510/6 A 120</t>
+  </si>
+  <si>
+    <t>Головка шлифовальная лепестковая F 2510/6 A 80</t>
+  </si>
+  <si>
+    <t>Развертка   машинная d 30.0 Н7 к/х (30,0*25*240КМЗ) Р6М5</t>
+  </si>
+  <si>
+    <t>Штангенциркуль ШЩ-300</t>
+  </si>
+  <si>
+    <t>Респиратор ЗМ 9161 Viflex складн. с клап. FFP1 (до 4ПКД)</t>
+  </si>
+  <si>
+    <t>Перчатки с 2-слойным латексным покрытием, арт.110</t>
+  </si>
+  <si>
+    <t>Сопло из карбида бора с каналом "Цилиндр" ф10мм</t>
+  </si>
+  <si>
+    <t>Тумба для инстр./под оборудования/</t>
+  </si>
+  <si>
+    <t>Тумба для станочного оборудования</t>
+  </si>
+  <si>
+    <t>Шкаф инструментальный</t>
+  </si>
+  <si>
+    <t>Покрытие для черновых форм ACMOS 43-47 /0.9/</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1686,6 +1757,75 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1733,24 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2079,53 +2201,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -2136,43 +2258,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2184,28 +2306,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -6617,53 +6739,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -6674,43 +6796,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6722,28 +6844,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -6835,7 +6957,7 @@
         <f>E20*F20</f>
         <v>5.4</v>
       </c>
-      <c r="H20" s="113" t="s">
+      <c r="H20" s="136" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6863,7 +6985,7 @@
         <f>E21*F21</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="137"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
@@ -6889,7 +7011,7 @@
         <f t="shared" ref="G22:G25" si="1">E22*F22</f>
         <v>720</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="137"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
@@ -6915,7 +7037,7 @@
         <f t="shared" si="1"/>
         <v>41.010060000000003</v>
       </c>
-      <c r="H23" s="114"/>
+      <c r="H23" s="137"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
@@ -6941,7 +7063,7 @@
         <f t="shared" si="1"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="H24" s="114"/>
+      <c r="H24" s="137"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
@@ -6967,7 +7089,7 @@
         <f t="shared" si="1"/>
         <v>69.989919999999998</v>
       </c>
-      <c r="H25" s="115"/>
+      <c r="H25" s="138"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -7274,53 +7396,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -7331,43 +7453,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7379,28 +7501,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -7492,7 +7614,7 @@
         <f>E20*F20</f>
         <v>57.5</v>
       </c>
-      <c r="H20" s="113" t="s">
+      <c r="H20" s="136" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7520,7 +7642,7 @@
         <f>E21*F21</f>
         <v>12</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="137"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -7546,7 +7668,7 @@
         <f t="shared" ref="G22" si="1">E22*F22</f>
         <v>247.20000000000002</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="137"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -7853,53 +7975,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -7910,43 +8032,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7958,28 +8080,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -12131,53 +12253,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -12188,43 +12310,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12236,28 +12358,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -12349,7 +12471,7 @@
         <f>E20*F20</f>
         <v>5</v>
       </c>
-      <c r="H20" s="113" t="s">
+      <c r="H20" s="136" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12377,7 +12499,7 @@
         <f>E21*F21</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="137"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
@@ -12403,7 +12525,7 @@
         <f>E22*F22</f>
         <v>78</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="137"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
@@ -12429,7 +12551,7 @@
         <f>E23*F23</f>
         <v>44.839999999999996</v>
       </c>
-      <c r="H23" s="114"/>
+      <c r="H23" s="137"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
@@ -12455,7 +12577,7 @@
         <f t="shared" ref="G24:G25" si="1">E24*F24</f>
         <v>65.92</v>
       </c>
-      <c r="H24" s="116"/>
+      <c r="H24" s="139"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
@@ -12808,8 +12930,8 @@
   </sheetPr>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:A73"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12825,53 +12947,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -12882,43 +13004,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12930,28 +13052,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="99" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" s="99" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -13024,7 +13146,7 @@
       <c r="A20" s="70">
         <v>1</v>
       </c>
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="101" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="71">
@@ -13053,7 +13175,7 @@
         <f>A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="71">
@@ -13081,7 +13203,7 @@
         <f t="shared" ref="A22:A73" si="0">A21+1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="101" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="71">
@@ -13109,7 +13231,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="101" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="71">
@@ -13137,7 +13259,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="101" t="s">
         <v>228</v>
       </c>
       <c r="C24" s="71">
@@ -13165,7 +13287,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="101" t="s">
         <v>229</v>
       </c>
       <c r="C25" s="71">
@@ -13193,7 +13315,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="101" t="s">
         <v>230</v>
       </c>
       <c r="C26" s="71">
@@ -13221,7 +13343,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="101" t="s">
         <v>231</v>
       </c>
       <c r="C27" s="71">
@@ -13249,7 +13371,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="71">
@@ -13278,7 +13400,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="103" t="s">
         <v>252</v>
       </c>
       <c r="C29" s="71">
@@ -13306,7 +13428,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="103" t="s">
         <v>253</v>
       </c>
       <c r="C30" s="71">
@@ -13334,7 +13456,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="103" t="s">
         <v>255</v>
       </c>
       <c r="C31" s="71">
@@ -13343,7 +13465,7 @@
       <c r="D31" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="120">
+      <c r="E31" s="104">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F31" s="74">
@@ -13362,7 +13484,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="103" t="s">
         <v>256</v>
       </c>
       <c r="C32" s="71">
@@ -13371,10 +13493,10 @@
       <c r="D32" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="121">
+      <c r="E32" s="105">
         <v>0.01</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F32" s="106">
         <v>1995</v>
       </c>
       <c r="G32" s="75">
@@ -13390,7 +13512,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="103" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="71">
@@ -13399,10 +13521,10 @@
       <c r="D33" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="E33" s="121">
+      <c r="E33" s="105">
         <v>0.01</v>
       </c>
-      <c r="F33" s="122">
+      <c r="F33" s="106">
         <v>1995</v>
       </c>
       <c r="G33" s="75">
@@ -13418,7 +13540,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="103" t="s">
         <v>258</v>
       </c>
       <c r="C34" s="71">
@@ -13427,10 +13549,10 @@
       <c r="D34" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="121">
+      <c r="E34" s="105">
         <v>0.02</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="106">
         <v>1995.05</v>
       </c>
       <c r="G34" s="75">
@@ -13446,7 +13568,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="103" t="s">
         <v>259</v>
       </c>
       <c r="C35" s="71">
@@ -13455,10 +13577,10 @@
       <c r="D35" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="E35" s="121">
+      <c r="E35" s="105">
         <v>0.02</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="106">
         <v>1995</v>
       </c>
       <c r="G35" s="75">
@@ -13474,7 +13596,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="101" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="71">
@@ -13502,7 +13624,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="101" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="71">
@@ -13530,7 +13652,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B38" s="117" t="s">
+      <c r="B38" s="101" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="71">
@@ -13558,7 +13680,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="101" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="71">
@@ -13586,7 +13708,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="101" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="71">
@@ -13614,7 +13736,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="101" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="71">
@@ -13642,7 +13764,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="101" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="71">
@@ -13670,7 +13792,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B43" s="117" t="s">
+      <c r="B43" s="101" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="71">
@@ -13698,7 +13820,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="101" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="71">
@@ -13726,7 +13848,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="101" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="71">
@@ -13754,7 +13876,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="101" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="71">
@@ -13782,7 +13904,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="101" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="71">
@@ -13810,7 +13932,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="101" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="71">
@@ -13838,7 +13960,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="101" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="71">
@@ -13866,7 +13988,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B50" s="117" t="s">
+      <c r="B50" s="101" t="s">
         <v>75</v>
       </c>
       <c r="C50" s="71">
@@ -13894,7 +14016,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B51" s="117" t="s">
+      <c r="B51" s="101" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="71">
@@ -13922,7 +14044,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B52" s="117" t="s">
+      <c r="B52" s="101" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="71">
@@ -13950,7 +14072,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B53" s="117" t="s">
+      <c r="B53" s="101" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="71">
@@ -13978,7 +14100,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="101" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="71">
@@ -14006,7 +14128,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="101" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="71">
@@ -14034,7 +14156,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B56" s="117" t="s">
+      <c r="B56" s="101" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="71">
@@ -14062,7 +14184,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="101" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="71">
@@ -14090,7 +14212,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="101" t="s">
         <v>249</v>
       </c>
       <c r="C58" s="71">
@@ -14099,7 +14221,7 @@
       <c r="D58" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="E58" s="118">
+      <c r="E58" s="102">
         <v>0.02</v>
       </c>
       <c r="F58" s="81">
@@ -14118,7 +14240,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B59" s="117" t="s">
+      <c r="B59" s="101" t="s">
         <v>236</v>
       </c>
       <c r="C59" s="71">
@@ -14146,7 +14268,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B60" s="117" t="s">
+      <c r="B60" s="101" t="s">
         <v>89</v>
       </c>
       <c r="C60" s="71">
@@ -14174,7 +14296,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B61" s="117" t="s">
+      <c r="B61" s="101" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="71">
@@ -14202,7 +14324,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B62" s="117" t="s">
+      <c r="B62" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="71">
@@ -14230,7 +14352,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="101" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="71">
@@ -14258,7 +14380,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="101" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="71">
@@ -14286,7 +14408,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="101" t="s">
         <v>97</v>
       </c>
       <c r="C65" s="71">
@@ -14314,7 +14436,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B66" s="117" t="s">
+      <c r="B66" s="101" t="s">
         <v>99</v>
       </c>
       <c r="C66" s="71">
@@ -14342,7 +14464,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B67" s="117" t="s">
+      <c r="B67" s="101" t="s">
         <v>100</v>
       </c>
       <c r="C67" s="71">
@@ -14370,7 +14492,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B68" s="117" t="s">
+      <c r="B68" s="101" t="s">
         <v>104</v>
       </c>
       <c r="C68" s="71">
@@ -14380,14 +14502,14 @@
         <v>46</v>
       </c>
       <c r="E68" s="80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="81">
         <v>8</v>
       </c>
       <c r="G68" s="75">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H68" s="83" t="s">
         <v>194</v>
@@ -14398,7 +14520,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B69" s="117" t="s">
+      <c r="B69" s="101" t="s">
         <v>105</v>
       </c>
       <c r="C69" s="71">
@@ -14426,7 +14548,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B70" s="117" t="s">
+      <c r="B70" s="101" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="71">
@@ -14454,7 +14576,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B71" s="117" t="s">
+      <c r="B71" s="101" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="71">
@@ -14482,7 +14604,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="101" t="s">
         <v>109</v>
       </c>
       <c r="C72" s="71">
@@ -14510,7 +14632,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B73" s="117" t="s">
+      <c r="B73" s="101" t="s">
         <v>110</v>
       </c>
       <c r="C73" s="71">
@@ -14535,10 +14657,10 @@
     </row>
     <row r="74" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A74" s="70">
-        <f t="shared" ref="A72:A135" si="3">A73+1</f>
+        <f t="shared" ref="A74:A135" si="3">A73+1</f>
         <v>55</v>
       </c>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="101" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="71">
@@ -14566,7 +14688,7 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="101" t="s">
         <v>112</v>
       </c>
       <c r="C75" s="71">
@@ -14594,7 +14716,7 @@
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B76" s="117" t="s">
+      <c r="B76" s="101" t="s">
         <v>113</v>
       </c>
       <c r="C76" s="71">
@@ -14622,7 +14744,7 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B77" s="117" t="s">
+      <c r="B77" s="101" t="s">
         <v>114</v>
       </c>
       <c r="C77" s="71">
@@ -14650,7 +14772,7 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="101" t="s">
         <v>115</v>
       </c>
       <c r="C78" s="71">
@@ -14678,7 +14800,7 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B79" s="117" t="s">
+      <c r="B79" s="101" t="s">
         <v>116</v>
       </c>
       <c r="C79" s="71">
@@ -14706,7 +14828,7 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B80" s="117" t="s">
+      <c r="B80" s="101" t="s">
         <v>117</v>
       </c>
       <c r="C80" s="71">
@@ -14734,7 +14856,7 @@
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="101" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="71">
@@ -14762,7 +14884,7 @@
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B82" s="117" t="s">
+      <c r="B82" s="101" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="71">
@@ -14790,7 +14912,7 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B83" s="117" t="s">
+      <c r="B83" s="101" t="s">
         <v>120</v>
       </c>
       <c r="C83" s="71">
@@ -14818,7 +14940,7 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B84" s="117" t="s">
+      <c r="B84" s="101" t="s">
         <v>121</v>
       </c>
       <c r="C84" s="71">
@@ -14846,7 +14968,7 @@
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B85" s="117" t="s">
+      <c r="B85" s="101" t="s">
         <v>122</v>
       </c>
       <c r="C85" s="71">
@@ -14859,11 +14981,11 @@
         <v>1</v>
       </c>
       <c r="F85" s="81">
-        <v>38.869999999999997</v>
+        <v>42.86</v>
       </c>
       <c r="G85" s="75">
         <f t="shared" si="2"/>
-        <v>38.869999999999997</v>
+        <v>42.86</v>
       </c>
       <c r="H85" s="83" t="s">
         <v>194</v>
@@ -14874,7 +14996,7 @@
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B86" s="117" t="s">
+      <c r="B86" s="101" t="s">
         <v>123</v>
       </c>
       <c r="C86" s="71">
@@ -14902,7 +15024,7 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B87" s="117" t="s">
+      <c r="B87" s="101" t="s">
         <v>124</v>
       </c>
       <c r="C87" s="71">
@@ -14930,7 +15052,7 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B88" s="117" t="s">
+      <c r="B88" s="101" t="s">
         <v>125</v>
       </c>
       <c r="C88" s="71">
@@ -14958,7 +15080,7 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B89" s="117" t="s">
+      <c r="B89" s="101" t="s">
         <v>126</v>
       </c>
       <c r="C89" s="71">
@@ -14986,7 +15108,7 @@
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B90" s="117" t="s">
+      <c r="B90" s="101" t="s">
         <v>127</v>
       </c>
       <c r="C90" s="71">
@@ -14996,14 +15118,14 @@
         <v>46</v>
       </c>
       <c r="E90" s="80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="81">
         <v>4.2</v>
       </c>
       <c r="G90" s="75">
         <f t="shared" si="2"/>
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="H90" s="83" t="s">
         <v>194</v>
@@ -15014,7 +15136,7 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B91" s="117" t="s">
+      <c r="B91" s="101" t="s">
         <v>128</v>
       </c>
       <c r="C91" s="71">
@@ -15042,7 +15164,7 @@
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="B92" s="117" t="s">
+      <c r="B92" s="101" t="s">
         <v>129</v>
       </c>
       <c r="C92" s="71">
@@ -15070,7 +15192,7 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="B93" s="117" t="s">
+      <c r="B93" s="101" t="s">
         <v>130</v>
       </c>
       <c r="C93" s="71">
@@ -15098,7 +15220,7 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="B94" s="117" t="s">
+      <c r="B94" s="101" t="s">
         <v>131</v>
       </c>
       <c r="C94" s="71">
@@ -15126,7 +15248,7 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="B95" s="117" t="s">
+      <c r="B95" s="101" t="s">
         <v>132</v>
       </c>
       <c r="C95" s="71">
@@ -15154,7 +15276,7 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="B96" s="117" t="s">
+      <c r="B96" s="101" t="s">
         <v>133</v>
       </c>
       <c r="C96" s="71">
@@ -15182,7 +15304,7 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="B97" s="117" t="s">
+      <c r="B97" s="101" t="s">
         <v>134</v>
       </c>
       <c r="C97" s="71">
@@ -15210,7 +15332,7 @@
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="101" t="s">
         <v>135</v>
       </c>
       <c r="C98" s="71">
@@ -15238,7 +15360,7 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="B99" s="117" t="s">
+      <c r="B99" s="101" t="s">
         <v>136</v>
       </c>
       <c r="C99" s="71">
@@ -15266,7 +15388,7 @@
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="B100" s="117" t="s">
+      <c r="B100" s="101" t="s">
         <v>137</v>
       </c>
       <c r="C100" s="71">
@@ -15294,7 +15416,7 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="B101" s="117" t="s">
+      <c r="B101" s="101" t="s">
         <v>138</v>
       </c>
       <c r="C101" s="71">
@@ -15322,7 +15444,7 @@
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="B102" s="117" t="s">
+      <c r="B102" s="101" t="s">
         <v>139</v>
       </c>
       <c r="C102" s="71">
@@ -15350,7 +15472,7 @@
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="B103" s="117" t="s">
+      <c r="B103" s="101" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="71">
@@ -15378,7 +15500,7 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="B104" s="117" t="s">
+      <c r="B104" s="101" t="s">
         <v>141</v>
       </c>
       <c r="C104" s="71">
@@ -15406,7 +15528,7 @@
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="B105" s="117" t="s">
+      <c r="B105" s="101" t="s">
         <v>142</v>
       </c>
       <c r="C105" s="71">
@@ -15434,7 +15556,7 @@
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="B106" s="117" t="s">
+      <c r="B106" s="101" t="s">
         <v>143</v>
       </c>
       <c r="C106" s="71">
@@ -15462,7 +15584,7 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B107" s="117" t="s">
+      <c r="B107" s="101" t="s">
         <v>144</v>
       </c>
       <c r="C107" s="71">
@@ -15490,7 +15612,7 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B108" s="117" t="s">
+      <c r="B108" s="101" t="s">
         <v>145</v>
       </c>
       <c r="C108" s="71">
@@ -15518,7 +15640,7 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B109" s="117" t="s">
+      <c r="B109" s="101" t="s">
         <v>146</v>
       </c>
       <c r="C109" s="71">
@@ -15546,7 +15668,7 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B110" s="117" t="s">
+      <c r="B110" s="101" t="s">
         <v>155</v>
       </c>
       <c r="C110" s="71">
@@ -15574,7 +15696,7 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B111" s="117" t="s">
+      <c r="B111" s="101" t="s">
         <v>156</v>
       </c>
       <c r="C111" s="71">
@@ -15602,7 +15724,7 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B112" s="117" t="s">
+      <c r="B112" s="101" t="s">
         <v>157</v>
       </c>
       <c r="C112" s="71">
@@ -15630,7 +15752,7 @@
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="B113" s="117" t="s">
+      <c r="B113" s="101" t="s">
         <v>158</v>
       </c>
       <c r="C113" s="71">
@@ -15714,7 +15836,7 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="B116" s="117" t="s">
+      <c r="B116" s="101" t="s">
         <v>163</v>
       </c>
       <c r="C116" s="71">
@@ -15742,7 +15864,7 @@
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="B117" s="117" t="s">
+      <c r="B117" s="101" t="s">
         <v>242</v>
       </c>
       <c r="C117" s="71">
@@ -15770,7 +15892,7 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="B118" s="117" t="s">
+      <c r="B118" s="101" t="s">
         <v>165</v>
       </c>
       <c r="C118" s="71">
@@ -15798,7 +15920,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B119" s="117" t="s">
+      <c r="B119" s="101" t="s">
         <v>166</v>
       </c>
       <c r="C119" s="71">
@@ -15826,7 +15948,7 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B120" s="117" t="s">
+      <c r="B120" s="101" t="s">
         <v>167</v>
       </c>
       <c r="C120" s="71">
@@ -15854,7 +15976,7 @@
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="B121" s="117" t="s">
+      <c r="B121" s="101" t="s">
         <v>169</v>
       </c>
       <c r="C121" s="71">
@@ -15882,7 +16004,7 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B122" s="117" t="s">
+      <c r="B122" s="101" t="s">
         <v>170</v>
       </c>
       <c r="C122" s="71">
@@ -15910,7 +16032,7 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B123" s="117" t="s">
+      <c r="B123" s="101" t="s">
         <v>171</v>
       </c>
       <c r="C123" s="71">
@@ -15938,7 +16060,7 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B124" s="117" t="s">
+      <c r="B124" s="101" t="s">
         <v>172</v>
       </c>
       <c r="C124" s="71">
@@ -15966,7 +16088,7 @@
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B125" s="117" t="s">
+      <c r="B125" s="101" t="s">
         <v>173</v>
       </c>
       <c r="C125" s="71">
@@ -15994,7 +16116,7 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B126" s="117" t="s">
+      <c r="B126" s="101" t="s">
         <v>174</v>
       </c>
       <c r="C126" s="71">
@@ -16022,7 +16144,7 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B127" s="117" t="s">
+      <c r="B127" s="101" t="s">
         <v>175</v>
       </c>
       <c r="C127" s="71">
@@ -16050,7 +16172,7 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B128" s="117" t="s">
+      <c r="B128" s="101" t="s">
         <v>176</v>
       </c>
       <c r="C128" s="71">
@@ -16078,7 +16200,7 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B129" s="117" t="s">
+      <c r="B129" s="101" t="s">
         <v>177</v>
       </c>
       <c r="C129" s="71">
@@ -16106,7 +16228,7 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B130" s="117" t="s">
+      <c r="B130" s="101" t="s">
         <v>178</v>
       </c>
       <c r="C130" s="71">
@@ -16134,7 +16256,7 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B131" s="117" t="s">
+      <c r="B131" s="101" t="s">
         <v>179</v>
       </c>
       <c r="C131" s="71">
@@ -16162,7 +16284,7 @@
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B132" s="117" t="s">
+      <c r="B132" s="101" t="s">
         <v>180</v>
       </c>
       <c r="C132" s="71">
@@ -16190,7 +16312,7 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B133" s="117" t="s">
+      <c r="B133" s="101" t="s">
         <v>181</v>
       </c>
       <c r="C133" s="71">
@@ -16218,7 +16340,7 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B134" s="117" t="s">
+      <c r="B134" s="101" t="s">
         <v>182</v>
       </c>
       <c r="C134" s="71">
@@ -16246,7 +16368,7 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B135" s="117" t="s">
+      <c r="B135" s="101" t="s">
         <v>183</v>
       </c>
       <c r="C135" s="71">
@@ -16274,7 +16396,7 @@
         <f t="shared" ref="A136:A139" si="4">A135+1</f>
         <v>117</v>
       </c>
-      <c r="B136" s="117" t="s">
+      <c r="B136" s="101" t="s">
         <v>184</v>
       </c>
       <c r="C136" s="71">
@@ -16284,14 +16406,14 @@
         <v>46</v>
       </c>
       <c r="E136" s="80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F136" s="81">
         <v>7.98</v>
       </c>
       <c r="G136" s="75">
         <f t="shared" si="2"/>
-        <v>15.96</v>
+        <v>7.98</v>
       </c>
       <c r="H136" s="78" t="s">
         <v>194</v>
@@ -16302,7 +16424,7 @@
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="B137" s="117" t="s">
+      <c r="B137" s="101" t="s">
         <v>185</v>
       </c>
       <c r="C137" s="71">
@@ -16312,14 +16434,14 @@
         <v>46</v>
       </c>
       <c r="E137" s="80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" s="81">
         <v>4.24</v>
       </c>
       <c r="G137" s="75">
         <f t="shared" ref="G137:G139" si="5">E137*F137</f>
-        <v>8.48</v>
+        <v>4.24</v>
       </c>
       <c r="H137" s="78" t="s">
         <v>194</v>
@@ -16330,7 +16452,7 @@
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="B138" s="117" t="s">
+      <c r="B138" s="101" t="s">
         <v>186</v>
       </c>
       <c r="C138" s="71">
@@ -16390,14 +16512,14 @@
       <c r="D140" s="24"/>
       <c r="E140" s="54">
         <f>SUM(E20:E139)</f>
-        <v>747.86500000000001</v>
+        <v>743.86500000000001</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="55">
         <f>SUM(G20:G139)</f>
-        <v>7668.7750499999993</v>
+        <v>7648.345049999999</v>
       </c>
       <c r="H140" s="43"/>
     </row>
@@ -16648,12 +16770,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -16668,8 +16790,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16685,53 +16807,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -16742,43 +16864,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -16790,28 +16912,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="99" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" s="99" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -16884,7 +17006,7 @@
       <c r="A20" s="26">
         <v>1</v>
       </c>
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="101" t="s">
         <v>207</v>
       </c>
       <c r="C20" s="28">
@@ -16903,7 +17025,7 @@
         <f>E20*F20</f>
         <v>2.5</v>
       </c>
-      <c r="H20" s="113" t="s">
+      <c r="H20" s="136" t="s">
         <v>210</v>
       </c>
     </row>
@@ -16912,7 +17034,7 @@
         <f>A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="101" t="s">
         <v>247</v>
       </c>
       <c r="C21" s="28">
@@ -16931,14 +17053,14 @@
         <f>E21*F21</f>
         <v>1.75</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="137"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <f t="shared" ref="A22:A24" si="0">A21+1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="101" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="28">
@@ -16957,7 +17079,7 @@
         <f>E22*F22</f>
         <v>78</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="137"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
@@ -16983,7 +17105,7 @@
         <f>E23*F23</f>
         <v>22.419999999999998</v>
       </c>
-      <c r="H23" s="116"/>
+      <c r="H23" s="139"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -16994,7 +17116,7 @@
         <v>246</v>
       </c>
       <c r="C24" s="28">
-        <v>4722</v>
+        <v>5732</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>47</v>
@@ -17288,12 +17410,4296 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A109" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:A108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+    </row>
+    <row r="15" spans="1:8" s="109" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="130" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+    </row>
+    <row r="16" spans="1:8" s="109" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="70">
+        <f t="shared" ref="A20:A46" si="0">A19+1</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="71">
+        <v>8783</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="117">
+        <v>5</v>
+      </c>
+      <c r="F20" s="74">
+        <v>4.74</v>
+      </c>
+      <c r="G20" s="75">
+        <f t="shared" ref="G20:G51" si="1">E20*F20</f>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A21" s="70">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="71">
+        <v>8103</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="73">
+        <v>100</v>
+      </c>
+      <c r="F21" s="74">
+        <f>11738.91/500</f>
+        <v>23.477820000000001</v>
+      </c>
+      <c r="G21" s="75">
+        <f t="shared" si="1"/>
+        <v>2347.7820000000002</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A22" s="70">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="71">
+        <v>7961</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="73">
+        <v>60</v>
+      </c>
+      <c r="F22" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" si="1"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A23" s="70">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="71">
+        <v>7962</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="73">
+        <v>30</v>
+      </c>
+      <c r="F23" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G23" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A24" s="70">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="71">
+        <v>7960</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="73">
+        <v>30</v>
+      </c>
+      <c r="F24" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G24" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A25" s="70">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="71">
+        <v>6385</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="73">
+        <v>30</v>
+      </c>
+      <c r="F25" s="74">
+        <v>5.76</v>
+      </c>
+      <c r="G25" s="75">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A26" s="70">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B26" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="71">
+        <v>4327</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="118">
+        <v>10</v>
+      </c>
+      <c r="F26" s="74">
+        <v>7.49</v>
+      </c>
+      <c r="G26" s="75">
+        <f t="shared" si="1"/>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A27" s="70">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="71">
+        <v>8857</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="118">
+        <v>10</v>
+      </c>
+      <c r="F27" s="74">
+        <f>195.3/30</f>
+        <v>6.5100000000000007</v>
+      </c>
+      <c r="G27" s="75">
+        <f t="shared" si="1"/>
+        <v>65.100000000000009</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A28" s="70">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="71">
+        <v>7378</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="118">
+        <v>10</v>
+      </c>
+      <c r="F28" s="74">
+        <v>9.56</v>
+      </c>
+      <c r="G28" s="75">
+        <f t="shared" si="1"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A29" s="70">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="71">
+        <v>4328</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="118">
+        <v>10</v>
+      </c>
+      <c r="F29" s="74">
+        <v>9.56</v>
+      </c>
+      <c r="G29" s="75">
+        <f t="shared" si="1"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H29" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A30" s="70">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="71">
+        <v>8858</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="118">
+        <v>10</v>
+      </c>
+      <c r="F30" s="74">
+        <f>249.9/30</f>
+        <v>8.33</v>
+      </c>
+      <c r="G30" s="75">
+        <f t="shared" si="1"/>
+        <v>83.3</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A31" s="70">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="71">
+        <v>8859</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="118">
+        <v>10</v>
+      </c>
+      <c r="F31" s="74">
+        <f>501.5/50</f>
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G31" s="75">
+        <f t="shared" si="1"/>
+        <v>100.3</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A32" s="70">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="71">
+        <v>8855</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="80">
+        <v>10</v>
+      </c>
+      <c r="F32" s="81">
+        <f>109.8/30</f>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="G32" s="75">
+        <f t="shared" si="1"/>
+        <v>36.599999999999994</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A33" s="70">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="71">
+        <v>8856</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="80">
+        <v>10</v>
+      </c>
+      <c r="F33" s="81">
+        <f>109.8/30</f>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="G33" s="75">
+        <f t="shared" si="1"/>
+        <v>36.599999999999994</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A34" s="70">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="71">
+        <v>5801</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="80">
+        <v>10</v>
+      </c>
+      <c r="F34" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G34" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A35" s="70">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="71">
+        <v>5802</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="80">
+        <v>10</v>
+      </c>
+      <c r="F35" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G35" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A36" s="70">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="71">
+        <v>4324</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="80">
+        <v>10</v>
+      </c>
+      <c r="F36" s="81">
+        <v>3.66</v>
+      </c>
+      <c r="G36" s="75">
+        <f t="shared" si="1"/>
+        <v>36.6</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A37" s="70">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="71">
+        <v>7737</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="80">
+        <v>10</v>
+      </c>
+      <c r="F37" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G37" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H37" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A38" s="70">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B38" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="71">
+        <v>7736</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="80">
+        <v>10</v>
+      </c>
+      <c r="F38" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G38" s="75">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A39" s="70">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="71">
+        <v>7738</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="80">
+        <v>10</v>
+      </c>
+      <c r="F39" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G39" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A40" s="70">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="71">
+        <v>7739</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="80">
+        <v>10</v>
+      </c>
+      <c r="F40" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G40" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A41" s="70">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="71">
+        <v>7740</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="80">
+        <v>10</v>
+      </c>
+      <c r="F41" s="81">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G41" s="75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A42" s="70">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="71">
+        <v>6806</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="80">
+        <v>10</v>
+      </c>
+      <c r="F42" s="81">
+        <v>1.24</v>
+      </c>
+      <c r="G42" s="75">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A43" s="70">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="71">
+        <v>5815</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="80">
+        <v>20</v>
+      </c>
+      <c r="F43" s="81">
+        <v>4.29</v>
+      </c>
+      <c r="G43" s="75">
+        <f t="shared" si="1"/>
+        <v>85.8</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A44" s="70">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="71">
+        <v>5776</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="80">
+        <v>3</v>
+      </c>
+      <c r="F44" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G44" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H44" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A45" s="70">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="71">
+        <v>5774</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="80">
+        <v>3</v>
+      </c>
+      <c r="F45" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G45" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A46" s="70">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="71">
+        <v>5775</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="80">
+        <v>3</v>
+      </c>
+      <c r="F46" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G46" s="75">
+        <f t="shared" si="1"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A47" s="70">
+        <v>1</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="71">
+        <v>4368</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="120">
+        <v>1</v>
+      </c>
+      <c r="F47" s="81">
+        <f>2.73</f>
+        <v>2.73</v>
+      </c>
+      <c r="G47" s="75">
+        <f t="shared" si="1"/>
+        <v>2.73</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A48" s="70">
+        <f t="shared" ref="A48:A78" si="2">A47+1</f>
+        <v>2</v>
+      </c>
+      <c r="B48" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="71">
+        <v>7037</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="119">
+        <v>20</v>
+      </c>
+      <c r="F48" s="81">
+        <f>4/20</f>
+        <v>0.2</v>
+      </c>
+      <c r="G48" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A49" s="70">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B49" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="71">
+        <v>4995</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="80">
+        <v>1</v>
+      </c>
+      <c r="F49" s="81">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G49" s="75">
+        <f t="shared" si="1"/>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H49" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A50" s="70">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B50" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="71">
+        <v>92</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="119">
+        <v>1</v>
+      </c>
+      <c r="F50" s="81">
+        <v>31.86</v>
+      </c>
+      <c r="G50" s="75">
+        <f t="shared" si="1"/>
+        <v>31.86</v>
+      </c>
+      <c r="H50" s="76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A51" s="70">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="71">
+        <v>8867</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="102">
+        <v>5</v>
+      </c>
+      <c r="F51" s="81">
+        <f>43.5/25</f>
+        <v>1.74</v>
+      </c>
+      <c r="G51" s="75">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A52" s="70">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B52" s="123" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="71">
+        <v>5736</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F52" s="81">
+        <v>1995.33</v>
+      </c>
+      <c r="G52" s="75">
+        <f t="shared" ref="G52:G82" si="3">E52*F52</f>
+        <v>9.9766499999999994</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A53" s="70">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B53" s="123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="71">
+        <v>5737</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" s="105">
+        <v>0.01</v>
+      </c>
+      <c r="F53" s="113">
+        <v>1995</v>
+      </c>
+      <c r="G53" s="75">
+        <f t="shared" si="3"/>
+        <v>19.95</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A54" s="70">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B54" s="123" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="71">
+        <v>5738</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="105">
+        <v>0.01</v>
+      </c>
+      <c r="F54" s="113">
+        <v>1995</v>
+      </c>
+      <c r="G54" s="75">
+        <f t="shared" si="3"/>
+        <v>19.95</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A55" s="70">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B55" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="71">
+        <v>5739</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="105">
+        <v>0.02</v>
+      </c>
+      <c r="F55" s="113">
+        <v>1995.05</v>
+      </c>
+      <c r="G55" s="75">
+        <f t="shared" si="3"/>
+        <v>39.901000000000003</v>
+      </c>
+      <c r="H55" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A56" s="70">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B56" s="123" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="71">
+        <v>5740</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" s="105">
+        <v>0.02</v>
+      </c>
+      <c r="F56" s="113">
+        <v>1995</v>
+      </c>
+      <c r="G56" s="75">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A57" s="70">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="71">
+        <v>5808</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="80">
+        <v>20</v>
+      </c>
+      <c r="F57" s="81">
+        <v>3.8</v>
+      </c>
+      <c r="G57" s="75">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A58" s="70">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="71">
+        <v>4333</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="80">
+        <v>10</v>
+      </c>
+      <c r="F58" s="81">
+        <v>6.81</v>
+      </c>
+      <c r="G58" s="75">
+        <f t="shared" si="3"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A59" s="70">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B59" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="71">
+        <v>1670</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="80">
+        <v>1</v>
+      </c>
+      <c r="F59" s="81">
+        <v>51.3</v>
+      </c>
+      <c r="G59" s="75">
+        <f t="shared" si="3"/>
+        <v>51.3</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="77" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A60" s="70">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="71">
+        <v>1671</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="80">
+        <v>1</v>
+      </c>
+      <c r="F60" s="81">
+        <v>76.72</v>
+      </c>
+      <c r="G60" s="75">
+        <f t="shared" si="3"/>
+        <v>76.72</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A61" s="70">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B61" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="71">
+        <v>7380</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="80">
+        <v>3</v>
+      </c>
+      <c r="F61" s="81">
+        <v>3.42</v>
+      </c>
+      <c r="G61" s="75">
+        <f t="shared" si="3"/>
+        <v>10.26</v>
+      </c>
+      <c r="H61" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A62" s="70">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B62" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="71">
+        <v>7744</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="80">
+        <v>2</v>
+      </c>
+      <c r="F62" s="81">
+        <v>9.98</v>
+      </c>
+      <c r="G62" s="75">
+        <f t="shared" si="3"/>
+        <v>19.96</v>
+      </c>
+      <c r="H62" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A63" s="70">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B63" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="71">
+        <v>1668</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="80">
+        <v>2</v>
+      </c>
+      <c r="F63" s="81">
+        <f>70.24/4</f>
+        <v>17.559999999999999</v>
+      </c>
+      <c r="G63" s="75">
+        <f t="shared" si="3"/>
+        <v>35.119999999999997</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A64" s="70">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="71">
+        <v>7200</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="80">
+        <v>2</v>
+      </c>
+      <c r="F64" s="81">
+        <v>2.89</v>
+      </c>
+      <c r="G64" s="75">
+        <f t="shared" si="3"/>
+        <v>5.78</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A65" s="70">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="71">
+        <v>7201</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="80">
+        <v>2</v>
+      </c>
+      <c r="F65" s="81">
+        <v>3.88</v>
+      </c>
+      <c r="G65" s="75">
+        <f t="shared" si="3"/>
+        <v>7.76</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A66" s="70">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B66" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="71">
+        <v>7670</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="80">
+        <v>2</v>
+      </c>
+      <c r="F66" s="81">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G66" s="75">
+        <f t="shared" si="3"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A67" s="70">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="71">
+        <v>7202</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="80">
+        <v>2</v>
+      </c>
+      <c r="F67" s="81">
+        <v>5.85</v>
+      </c>
+      <c r="G67" s="75">
+        <f t="shared" si="3"/>
+        <v>11.7</v>
+      </c>
+      <c r="H67" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A68" s="70">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="71">
+        <v>7203</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="80">
+        <v>2</v>
+      </c>
+      <c r="F68" s="81">
+        <v>14.82</v>
+      </c>
+      <c r="G68" s="75">
+        <f t="shared" si="3"/>
+        <v>29.64</v>
+      </c>
+      <c r="H68" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A69" s="70">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B69" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="71">
+        <v>7204</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="80">
+        <v>2</v>
+      </c>
+      <c r="F69" s="81">
+        <v>1.26</v>
+      </c>
+      <c r="G69" s="75">
+        <f t="shared" si="3"/>
+        <v>2.52</v>
+      </c>
+      <c r="H69" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A70" s="70">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="71">
+        <v>7205</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="80">
+        <v>2</v>
+      </c>
+      <c r="F70" s="81">
+        <v>2.48</v>
+      </c>
+      <c r="G70" s="75">
+        <f t="shared" si="3"/>
+        <v>4.96</v>
+      </c>
+      <c r="H70" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A71" s="70">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B71" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="71">
+        <v>7671</v>
+      </c>
+      <c r="D71" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="80">
+        <v>2</v>
+      </c>
+      <c r="F71" s="81">
+        <v>5.35</v>
+      </c>
+      <c r="G71" s="75">
+        <f t="shared" si="3"/>
+        <v>10.7</v>
+      </c>
+      <c r="H71" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A72" s="70">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B72" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="71">
+        <v>7206</v>
+      </c>
+      <c r="D72" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="80">
+        <v>2</v>
+      </c>
+      <c r="F72" s="81">
+        <v>3.9</v>
+      </c>
+      <c r="G72" s="75">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="H72" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A73" s="70">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B73" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="71">
+        <v>7207</v>
+      </c>
+      <c r="D73" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="80">
+        <v>2</v>
+      </c>
+      <c r="F73" s="81">
+        <v>4.2</v>
+      </c>
+      <c r="G73" s="75">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="H73" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A74" s="70">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B74" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="71">
+        <v>7208</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="80">
+        <v>2</v>
+      </c>
+      <c r="F74" s="81">
+        <v>8.14</v>
+      </c>
+      <c r="G74" s="75">
+        <f t="shared" si="3"/>
+        <v>16.28</v>
+      </c>
+      <c r="H74" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A75" s="70">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B75" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="71">
+        <v>6889</v>
+      </c>
+      <c r="D75" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="80">
+        <v>2</v>
+      </c>
+      <c r="F75" s="81">
+        <v>11.12</v>
+      </c>
+      <c r="G75" s="75">
+        <f t="shared" si="3"/>
+        <v>22.24</v>
+      </c>
+      <c r="H75" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A76" s="70">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B76" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="71">
+        <v>6905</v>
+      </c>
+      <c r="D76" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="80">
+        <v>2</v>
+      </c>
+      <c r="F76" s="81">
+        <v>11.64</v>
+      </c>
+      <c r="G76" s="75">
+        <f t="shared" si="3"/>
+        <v>23.28</v>
+      </c>
+      <c r="H76" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A77" s="70">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B77" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="71">
+        <v>6892</v>
+      </c>
+      <c r="D77" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="80">
+        <v>2</v>
+      </c>
+      <c r="F77" s="81">
+        <v>12.06</v>
+      </c>
+      <c r="G77" s="75">
+        <f t="shared" si="3"/>
+        <v>24.12</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A78" s="70">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B78" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="71">
+        <v>3619</v>
+      </c>
+      <c r="D78" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="80">
+        <v>3</v>
+      </c>
+      <c r="F78" s="81">
+        <v>3.05</v>
+      </c>
+      <c r="G78" s="75">
+        <f t="shared" si="3"/>
+        <v>9.1499999999999986</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A79" s="70">
+        <f t="shared" ref="A79:A111" si="4">A78+1</f>
+        <v>33</v>
+      </c>
+      <c r="B79" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="71">
+        <v>6902</v>
+      </c>
+      <c r="D79" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="80">
+        <v>2</v>
+      </c>
+      <c r="F79" s="81">
+        <v>16.87</v>
+      </c>
+      <c r="G79" s="75">
+        <f t="shared" si="3"/>
+        <v>33.74</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A80" s="70">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B80" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="71">
+        <v>6899</v>
+      </c>
+      <c r="D80" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="80">
+        <v>2</v>
+      </c>
+      <c r="F80" s="81">
+        <v>11.13</v>
+      </c>
+      <c r="G80" s="75">
+        <f t="shared" si="3"/>
+        <v>22.26</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A81" s="70">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B81" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="71">
+        <v>6895</v>
+      </c>
+      <c r="D81" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="80">
+        <v>2</v>
+      </c>
+      <c r="F81" s="81">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G81" s="75">
+        <f t="shared" si="3"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A82" s="70">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B82" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="71">
+        <v>6894</v>
+      </c>
+      <c r="D82" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="80">
+        <v>2</v>
+      </c>
+      <c r="F82" s="81">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G82" s="75">
+        <f t="shared" si="3"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A83" s="70">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B83" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="71">
+        <v>6896</v>
+      </c>
+      <c r="D83" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="80">
+        <v>2</v>
+      </c>
+      <c r="F83" s="81">
+        <v>12.42</v>
+      </c>
+      <c r="G83" s="75">
+        <f t="shared" ref="G83:G115" si="5">E83*F83</f>
+        <v>24.84</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A84" s="70">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B84" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="71">
+        <v>6344</v>
+      </c>
+      <c r="D84" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="119">
+        <v>3</v>
+      </c>
+      <c r="F84" s="81">
+        <v>244.47</v>
+      </c>
+      <c r="G84" s="75">
+        <f t="shared" si="5"/>
+        <v>733.41</v>
+      </c>
+      <c r="H84" s="122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A85" s="70">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B85" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="71">
+        <v>7041</v>
+      </c>
+      <c r="D85" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="80">
+        <v>1</v>
+      </c>
+      <c r="F85" s="81">
+        <v>111.55</v>
+      </c>
+      <c r="G85" s="75">
+        <f t="shared" si="5"/>
+        <v>111.55</v>
+      </c>
+      <c r="H85" s="122" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A86" s="70">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B86" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="71">
+        <v>7042</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="80">
+        <v>2</v>
+      </c>
+      <c r="F86" s="81">
+        <v>111.55</v>
+      </c>
+      <c r="G86" s="75">
+        <f t="shared" si="5"/>
+        <v>223.1</v>
+      </c>
+      <c r="H86" s="122" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A87" s="70">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B87" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="71">
+        <v>7043</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="80">
+        <v>2</v>
+      </c>
+      <c r="F87" s="81">
+        <v>120</v>
+      </c>
+      <c r="G87" s="75">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="H87" s="122" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A88" s="70">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B88" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="71">
+        <v>6343</v>
+      </c>
+      <c r="D88" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="119">
+        <v>2</v>
+      </c>
+      <c r="F88" s="81">
+        <v>72.12</v>
+      </c>
+      <c r="G88" s="75">
+        <f t="shared" si="5"/>
+        <v>144.24</v>
+      </c>
+      <c r="H88" s="122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A89" s="70">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B89" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="71">
+        <v>5627</v>
+      </c>
+      <c r="D89" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="80">
+        <v>1</v>
+      </c>
+      <c r="F89" s="81">
+        <v>72.13</v>
+      </c>
+      <c r="G89" s="75">
+        <f t="shared" si="5"/>
+        <v>72.13</v>
+      </c>
+      <c r="H89" s="122" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A90" s="70">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B90" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="71">
+        <v>6912</v>
+      </c>
+      <c r="D90" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="80">
+        <v>4</v>
+      </c>
+      <c r="F90" s="81">
+        <v>5.34</v>
+      </c>
+      <c r="G90" s="75">
+        <f t="shared" si="5"/>
+        <v>21.36</v>
+      </c>
+      <c r="H90" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A91" s="70">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B91" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="71">
+        <v>1494</v>
+      </c>
+      <c r="D91" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="80">
+        <v>2</v>
+      </c>
+      <c r="F91" s="81">
+        <f>10.32/2</f>
+        <v>5.16</v>
+      </c>
+      <c r="G91" s="75">
+        <f t="shared" si="5"/>
+        <v>10.32</v>
+      </c>
+      <c r="H91" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A92" s="70">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B92" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="71">
+        <v>6626</v>
+      </c>
+      <c r="D92" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="80">
+        <v>1</v>
+      </c>
+      <c r="F92" s="81">
+        <v>12.11</v>
+      </c>
+      <c r="G92" s="75">
+        <f t="shared" si="5"/>
+        <v>12.11</v>
+      </c>
+      <c r="H92" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A93" s="70">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B93" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="71">
+        <v>6618</v>
+      </c>
+      <c r="D93" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="80">
+        <v>4</v>
+      </c>
+      <c r="F93" s="81">
+        <v>0.35</v>
+      </c>
+      <c r="G93" s="75">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A94" s="70">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B94" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="71">
+        <v>6619</v>
+      </c>
+      <c r="D94" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="80">
+        <v>4</v>
+      </c>
+      <c r="F94" s="81">
+        <v>0.65</v>
+      </c>
+      <c r="G94" s="75">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A95" s="70">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B95" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="71">
+        <v>6620</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="80">
+        <v>4</v>
+      </c>
+      <c r="F95" s="81">
+        <v>0.76</v>
+      </c>
+      <c r="G95" s="75">
+        <f t="shared" si="5"/>
+        <v>3.04</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A96" s="70">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B96" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="71">
+        <v>6624</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="80">
+        <v>4</v>
+      </c>
+      <c r="F96" s="81">
+        <v>1.66</v>
+      </c>
+      <c r="G96" s="75">
+        <f t="shared" si="5"/>
+        <v>6.64</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A97" s="70">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B97" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="71">
+        <v>7083</v>
+      </c>
+      <c r="D97" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="85">
+        <v>1</v>
+      </c>
+      <c r="F97" s="81">
+        <v>201.16</v>
+      </c>
+      <c r="G97" s="75">
+        <f t="shared" si="5"/>
+        <v>201.16</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A98" s="70">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B98" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="71">
+        <v>6617</v>
+      </c>
+      <c r="D98" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="80">
+        <v>5</v>
+      </c>
+      <c r="F98" s="81">
+        <v>0.21</v>
+      </c>
+      <c r="G98" s="75">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="H98" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A99" s="70">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="B99" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="71">
+        <v>6623</v>
+      </c>
+      <c r="D99" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="80">
+        <v>4</v>
+      </c>
+      <c r="F99" s="81">
+        <v>0.76</v>
+      </c>
+      <c r="G99" s="75">
+        <f t="shared" si="5"/>
+        <v>3.04</v>
+      </c>
+      <c r="H99" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A100" s="70">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B100" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="71">
+        <v>6621</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="80">
+        <v>4</v>
+      </c>
+      <c r="F100" s="81">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G100" s="75">
+        <f t="shared" si="5"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H100" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A101" s="70">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B101" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="71">
+        <v>6622</v>
+      </c>
+      <c r="D101" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="80">
+        <v>4</v>
+      </c>
+      <c r="F101" s="81">
+        <v>1.66</v>
+      </c>
+      <c r="G101" s="75">
+        <f t="shared" si="5"/>
+        <v>6.64</v>
+      </c>
+      <c r="H101" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A102" s="70">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B102" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="71">
+        <v>4725</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="80">
+        <v>1</v>
+      </c>
+      <c r="F102" s="81">
+        <v>61.2</v>
+      </c>
+      <c r="G102" s="75">
+        <f t="shared" si="5"/>
+        <v>61.2</v>
+      </c>
+      <c r="H102" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A103" s="70">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B103" s="116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="71">
+        <v>6890</v>
+      </c>
+      <c r="D103" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="80">
+        <v>2</v>
+      </c>
+      <c r="F103" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G103" s="75">
+        <f t="shared" si="5"/>
+        <v>21.82</v>
+      </c>
+      <c r="H103" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A104" s="70">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B104" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="71">
+        <v>6900</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="80">
+        <v>2</v>
+      </c>
+      <c r="F104" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G104" s="75">
+        <f t="shared" si="5"/>
+        <v>21.82</v>
+      </c>
+      <c r="H104" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A105" s="70">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B105" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="71">
+        <v>6897</v>
+      </c>
+      <c r="D105" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="80">
+        <v>2</v>
+      </c>
+      <c r="F105" s="81">
+        <v>10.91</v>
+      </c>
+      <c r="G105" s="75">
+        <f t="shared" si="5"/>
+        <v>21.82</v>
+      </c>
+      <c r="H105" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A106" s="70">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B106" s="115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" s="71">
+        <v>3211</v>
+      </c>
+      <c r="D106" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="80">
+        <v>1</v>
+      </c>
+      <c r="F106" s="81">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="G106" s="75">
+        <f t="shared" si="5"/>
+        <v>16.579999999999998</v>
+      </c>
+      <c r="H106" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A107" s="70">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B107" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="71">
+        <v>2899</v>
+      </c>
+      <c r="D107" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="80">
+        <v>4</v>
+      </c>
+      <c r="F107" s="81">
+        <v>1</v>
+      </c>
+      <c r="G107" s="75">
+        <f t="shared" ref="G107" si="6">E107*F107</f>
+        <v>4</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A108" s="70">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B108" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="71">
+        <v>4808</v>
+      </c>
+      <c r="D108" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="80">
+        <v>1</v>
+      </c>
+      <c r="F108" s="81">
+        <v>1</v>
+      </c>
+      <c r="G108" s="75">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A109" s="70">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B109" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="C109" s="71">
+        <v>4805</v>
+      </c>
+      <c r="D109" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="80">
+        <v>1</v>
+      </c>
+      <c r="F109" s="81">
+        <v>91.52</v>
+      </c>
+      <c r="G109" s="75">
+        <f t="shared" si="5"/>
+        <v>91.52</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A110" s="70">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B110" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="71">
+        <v>6636</v>
+      </c>
+      <c r="D110" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="80">
+        <v>1</v>
+      </c>
+      <c r="F110" s="81">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G110" s="75">
+        <f t="shared" si="5"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A111" s="70">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B111" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" s="71">
+        <v>6638</v>
+      </c>
+      <c r="D111" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="80">
+        <v>1</v>
+      </c>
+      <c r="F111" s="81">
+        <v>10.15</v>
+      </c>
+      <c r="G111" s="75">
+        <f t="shared" si="5"/>
+        <v>10.15</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A112" s="70">
+        <f t="shared" ref="A112:A126" si="7">A111+1</f>
+        <v>66</v>
+      </c>
+      <c r="B112" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="71">
+        <v>6639</v>
+      </c>
+      <c r="D112" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="80">
+        <v>1</v>
+      </c>
+      <c r="F112" s="81">
+        <v>12</v>
+      </c>
+      <c r="G112" s="75">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A113" s="70">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="B113" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="71">
+        <v>6640</v>
+      </c>
+      <c r="D113" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="80">
+        <v>1</v>
+      </c>
+      <c r="F113" s="81">
+        <v>15.2</v>
+      </c>
+      <c r="G113" s="75">
+        <f t="shared" si="5"/>
+        <v>15.2</v>
+      </c>
+      <c r="H113" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A114" s="70">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="B114" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="71">
+        <v>6641</v>
+      </c>
+      <c r="D114" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="80">
+        <v>1</v>
+      </c>
+      <c r="F114" s="81">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G114" s="75">
+        <f t="shared" si="5"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H114" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A115" s="70">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="B115" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" s="71">
+        <v>6644</v>
+      </c>
+      <c r="D115" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" s="80">
+        <v>1</v>
+      </c>
+      <c r="F115" s="81">
+        <v>13</v>
+      </c>
+      <c r="G115" s="75">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H115" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A116" s="70">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="B116" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="71">
+        <v>6642</v>
+      </c>
+      <c r="D116" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="80">
+        <v>1</v>
+      </c>
+      <c r="F116" s="81">
+        <v>3.74</v>
+      </c>
+      <c r="G116" s="75">
+        <f t="shared" ref="G116:G147" si="8">E116*F116</f>
+        <v>3.74</v>
+      </c>
+      <c r="H116" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A117" s="70">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="B117" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="71">
+        <v>6643</v>
+      </c>
+      <c r="D117" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="80">
+        <v>1</v>
+      </c>
+      <c r="F117" s="81">
+        <v>5.99</v>
+      </c>
+      <c r="G117" s="75">
+        <f t="shared" si="8"/>
+        <v>5.99</v>
+      </c>
+      <c r="H117" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A118" s="70">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="B118" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="71">
+        <v>6634</v>
+      </c>
+      <c r="D118" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="80">
+        <v>1</v>
+      </c>
+      <c r="F118" s="81">
+        <v>2.5</v>
+      </c>
+      <c r="G118" s="75">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="H118" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A119" s="70">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="B119" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="71">
+        <v>6635</v>
+      </c>
+      <c r="D119" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="80">
+        <v>1</v>
+      </c>
+      <c r="F119" s="81">
+        <v>3.2</v>
+      </c>
+      <c r="G119" s="75">
+        <f t="shared" si="8"/>
+        <v>3.2</v>
+      </c>
+      <c r="H119" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A120" s="70">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="B120" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" s="71">
+        <v>4747</v>
+      </c>
+      <c r="D120" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="80">
+        <v>1</v>
+      </c>
+      <c r="F120" s="81">
+        <v>1</v>
+      </c>
+      <c r="G120" s="75">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H120" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A121" s="70">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="B121" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="71">
+        <v>7386</v>
+      </c>
+      <c r="D121" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121" s="80">
+        <v>4</v>
+      </c>
+      <c r="F121" s="81">
+        <v>7</v>
+      </c>
+      <c r="G121" s="75">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="H121" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A122" s="70">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="B122" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="71">
+        <v>7387</v>
+      </c>
+      <c r="D122" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E122" s="80">
+        <v>4</v>
+      </c>
+      <c r="F122" s="81">
+        <v>7.6</v>
+      </c>
+      <c r="G122" s="75">
+        <f t="shared" si="8"/>
+        <v>30.4</v>
+      </c>
+      <c r="H122" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A123" s="70">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="B123" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="71">
+        <v>7388</v>
+      </c>
+      <c r="D123" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E123" s="80">
+        <v>4</v>
+      </c>
+      <c r="F123" s="81">
+        <v>8.5</v>
+      </c>
+      <c r="G123" s="75">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="H123" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A124" s="70">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="B124" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="71">
+        <v>7389</v>
+      </c>
+      <c r="D124" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124" s="80">
+        <v>4</v>
+      </c>
+      <c r="F124" s="81">
+        <v>6.5</v>
+      </c>
+      <c r="G124" s="75">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="H124" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A125" s="70">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="B125" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="71">
+        <v>7390</v>
+      </c>
+      <c r="D125" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E125" s="80">
+        <v>4</v>
+      </c>
+      <c r="F125" s="81">
+        <v>7</v>
+      </c>
+      <c r="G125" s="75">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="H125" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A126" s="70">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="B126" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="71">
+        <v>7391</v>
+      </c>
+      <c r="D126" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E126" s="80">
+        <v>4</v>
+      </c>
+      <c r="F126" s="81">
+        <v>6.9</v>
+      </c>
+      <c r="G126" s="75">
+        <f t="shared" si="8"/>
+        <v>27.6</v>
+      </c>
+      <c r="H126" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A127" s="70"/>
+      <c r="B127" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="71">
+        <v>4497</v>
+      </c>
+      <c r="D127" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="80">
+        <v>1</v>
+      </c>
+      <c r="F127" s="81">
+        <v>11.72</v>
+      </c>
+      <c r="G127" s="75">
+        <f t="shared" si="8"/>
+        <v>11.72</v>
+      </c>
+      <c r="H127" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A128" s="70">
+        <f>A126+1</f>
+        <v>81</v>
+      </c>
+      <c r="B128" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="71">
+        <v>2803</v>
+      </c>
+      <c r="D128" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" s="91">
+        <v>1</v>
+      </c>
+      <c r="F128" s="81">
+        <v>1</v>
+      </c>
+      <c r="G128" s="75">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H128" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A129" s="70">
+        <f>A128+1</f>
+        <v>82</v>
+      </c>
+      <c r="B129" s="114" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" s="71">
+        <v>8880</v>
+      </c>
+      <c r="D129" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="91">
+        <v>2</v>
+      </c>
+      <c r="F129" s="81">
+        <f>65.9/10</f>
+        <v>6.5900000000000007</v>
+      </c>
+      <c r="G129" s="75">
+        <f t="shared" si="8"/>
+        <v>13.180000000000001</v>
+      </c>
+      <c r="H129" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="77" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="70">
+        <f>A129+1</f>
+        <v>83</v>
+      </c>
+      <c r="B130" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="89">
+        <v>1905</v>
+      </c>
+      <c r="D130" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" s="95">
+        <v>2</v>
+      </c>
+      <c r="F130" s="86">
+        <v>9.89</v>
+      </c>
+      <c r="G130" s="75">
+        <f t="shared" si="8"/>
+        <v>19.78</v>
+      </c>
+      <c r="H130" s="78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="54">
+        <f>SUM(E20:E130)</f>
+        <v>669.06499999999994</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="55">
+        <f>SUM(G20:G130)</f>
+        <v>7722.3296499999951</v>
+      </c>
+      <c r="H131" s="43"/>
+    </row>
+    <row r="132" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="44"/>
+    </row>
+    <row r="134" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="45"/>
+    </row>
+    <row r="135" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="44"/>
+    </row>
+    <row r="136" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="45"/>
+    </row>
+    <row r="137" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H137" s="39"/>
+    </row>
+    <row r="138" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C138" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" s="46"/>
+    </row>
+    <row r="139" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141" s="46"/>
+    </row>
+    <row r="142" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="107"/>
+      <c r="G143" s="107"/>
+    </row>
+    <row r="144" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C144" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H144" s="46"/>
+    </row>
+    <row r="145" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" s="107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="107"/>
+      <c r="G146" s="107"/>
+    </row>
+    <row r="147" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" s="46"/>
+    </row>
+    <row r="148" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="107"/>
+      <c r="G149" s="107"/>
+    </row>
+    <row r="150" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C150" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" s="46"/>
+    </row>
+    <row r="151" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="107"/>
+      <c r="G152" s="107"/>
+    </row>
+    <row r="153" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C153" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153" s="46"/>
+    </row>
+    <row r="154" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B156" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H156" s="46"/>
+    </row>
+    <row r="157" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A18:H18">
+    <sortState ref="A19:H131">
+      <sortCondition ref="B18"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="13">
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="F1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="F2" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+    </row>
+    <row r="15" spans="1:8" s="111" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="130" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+    </row>
+    <row r="16" spans="1:8" s="111" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
+        <v>1</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="28">
+        <v>9216</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="35">
+        <v>10</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.47</v>
+      </c>
+      <c r="G20" s="30">
+        <f t="shared" ref="G20:G25" si="0">E20*F20</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="H20" s="136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="28">
+        <v>4248</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="64">
+        <v>10</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="G21" s="30">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H21" s="137"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
+        <f t="shared" ref="A22:A25" si="1">A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1299</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="36">
+        <v>100</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="30">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H22" s="137"/>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="28">
+        <v>4249</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="36">
+        <v>8</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="G23" s="30">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="H23" s="137"/>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="28">
+        <v>9017</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="36">
+        <v>8</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2.06</v>
+      </c>
+      <c r="G24" s="30">
+        <f t="shared" si="0"/>
+        <v>16.48</v>
+      </c>
+      <c r="H24" s="137"/>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="28">
+        <v>6951</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="36">
+        <v>100</v>
+      </c>
+      <c r="F25" s="34">
+        <v>2.06</v>
+      </c>
+      <c r="G25" s="30">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="H25" s="139"/>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="54">
+        <f>SUM(E20:E25)</f>
+        <v>236</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="55">
+        <f>SUM(G20:G25)</f>
+        <v>295.88</v>
+      </c>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+    </row>
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C33" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="112"/>
+      <c r="G38" s="112"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C39" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="112"/>
+      <c r="G41" s="112"/>
+    </row>
+    <row r="42" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="112"/>
+      <c r="G44" s="112"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C45" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="112"/>
+      <c r="G47" s="112"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C48" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" s="39" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
@@ -23,7 +23,7 @@
     <sheet name="Декабрь СИЗ" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Декабрь!$A$18:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Декабрь!$A$19:$H$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -17430,8 +17430,8 @@
   </sheetPr>
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A109" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:A108"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17616,7 +17616,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -17644,8 +17644,7 @@
     </row>
     <row r="20" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="70">
-        <f t="shared" ref="A20:A46" si="0">A19+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="123" t="s">
         <v>253</v>
@@ -17663,7 +17662,7 @@
         <v>4.74</v>
       </c>
       <c r="G20" s="75">
-        <f t="shared" ref="G20:G51" si="1">E20*F20</f>
+        <f t="shared" ref="G20:G51" si="0">E20*F20</f>
         <v>23.700000000000003</v>
       </c>
       <c r="H20" s="78" t="s">
@@ -17672,8 +17671,8 @@
     </row>
     <row r="21" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="70">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="A21:A52" si="1">A20+1</f>
+        <v>2</v>
       </c>
       <c r="B21" s="101" t="s">
         <v>48</v>
@@ -17692,7 +17691,7 @@
         <v>23.477820000000001</v>
       </c>
       <c r="G21" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2347.7820000000002</v>
       </c>
       <c r="H21" s="78" t="s">
@@ -17701,8 +17700,8 @@
     </row>
     <row r="22" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="70">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="B22" s="101" t="s">
         <v>44</v>
@@ -17720,7 +17719,7 @@
         <v>5.76</v>
       </c>
       <c r="G22" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>345.59999999999997</v>
       </c>
       <c r="H22" s="76" t="s">
@@ -17729,8 +17728,8 @@
     </row>
     <row r="23" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="70">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B23" s="101" t="s">
         <v>228</v>
@@ -17748,7 +17747,7 @@
         <v>5.76</v>
       </c>
       <c r="G23" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H23" s="76" t="s">
@@ -17757,8 +17756,8 @@
     </row>
     <row r="24" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="70">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B24" s="101" t="s">
         <v>229</v>
@@ -17776,7 +17775,7 @@
         <v>5.76</v>
       </c>
       <c r="G24" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H24" s="76" t="s">
@@ -17785,8 +17784,8 @@
     </row>
     <row r="25" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="70">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B25" s="101" t="s">
         <v>230</v>
@@ -17804,7 +17803,7 @@
         <v>5.76</v>
       </c>
       <c r="G25" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H25" s="76" t="s">
@@ -17813,8 +17812,8 @@
     </row>
     <row r="26" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="70">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B26" s="101" t="s">
         <v>59</v>
@@ -17832,7 +17831,7 @@
         <v>7.49</v>
       </c>
       <c r="G26" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74.900000000000006</v>
       </c>
       <c r="H26" s="78" t="s">
@@ -17841,8 +17840,8 @@
     </row>
     <row r="27" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="70">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B27" s="101" t="s">
         <v>271</v>
@@ -17861,7 +17860,7 @@
         <v>6.5100000000000007</v>
       </c>
       <c r="G27" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65.100000000000009</v>
       </c>
       <c r="H27" s="78" t="s">
@@ -17870,8 +17869,8 @@
     </row>
     <row r="28" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="70">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B28" s="101" t="s">
         <v>60</v>
@@ -17889,7 +17888,7 @@
         <v>9.56</v>
       </c>
       <c r="G28" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.600000000000009</v>
       </c>
       <c r="H28" s="78" t="s">
@@ -17898,8 +17897,8 @@
     </row>
     <row r="29" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="70">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B29" s="101" t="s">
         <v>61</v>
@@ -17917,7 +17916,7 @@
         <v>9.56</v>
       </c>
       <c r="G29" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.600000000000009</v>
       </c>
       <c r="H29" s="78" t="s">
@@ -17926,8 +17925,8 @@
     </row>
     <row r="30" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="70">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="B30" s="101" t="s">
         <v>61</v>
@@ -17946,7 +17945,7 @@
         <v>8.33</v>
       </c>
       <c r="G30" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>83.3</v>
       </c>
       <c r="H30" s="78" t="s">
@@ -17955,8 +17954,8 @@
     </row>
     <row r="31" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="70">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B31" s="101" t="s">
         <v>272</v>
@@ -17975,7 +17974,7 @@
         <v>10.029999999999999</v>
       </c>
       <c r="G31" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100.3</v>
       </c>
       <c r="H31" s="78" t="s">
@@ -17984,8 +17983,8 @@
     </row>
     <row r="32" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="70">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B32" s="101" t="s">
         <v>273</v>
@@ -18004,7 +18003,7 @@
         <v>3.6599999999999997</v>
       </c>
       <c r="G32" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.599999999999994</v>
       </c>
       <c r="H32" s="78" t="s">
@@ -18013,8 +18012,8 @@
     </row>
     <row r="33" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="70">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="B33" s="101" t="s">
         <v>274</v>
@@ -18033,7 +18032,7 @@
         <v>3.6599999999999997</v>
       </c>
       <c r="G33" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.599999999999994</v>
       </c>
       <c r="H33" s="78" t="s">
@@ -18042,8 +18041,8 @@
     </row>
     <row r="34" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A34" s="70">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B34" s="101" t="s">
         <v>64</v>
@@ -18061,7 +18060,7 @@
         <v>3.66</v>
       </c>
       <c r="G34" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
       <c r="H34" s="78" t="s">
@@ -18070,8 +18069,8 @@
     </row>
     <row r="35" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A35" s="70">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B35" s="101" t="s">
         <v>65</v>
@@ -18089,7 +18088,7 @@
         <v>3.66</v>
       </c>
       <c r="G35" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
       <c r="H35" s="78" t="s">
@@ -18098,8 +18097,8 @@
     </row>
     <row r="36" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A36" s="70">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B36" s="101" t="s">
         <v>66</v>
@@ -18117,7 +18116,7 @@
         <v>3.66</v>
       </c>
       <c r="G36" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
       <c r="H36" s="78" t="s">
@@ -18126,8 +18125,8 @@
     </row>
     <row r="37" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A37" s="70">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B37" s="101" t="s">
         <v>70</v>
@@ -18145,7 +18144,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="G37" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50.599999999999994</v>
       </c>
       <c r="H37" s="78" t="s">
@@ -18154,8 +18153,8 @@
     </row>
     <row r="38" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A38" s="70">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B38" s="101" t="s">
         <v>72</v>
@@ -18173,7 +18172,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="G38" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50.599999999999994</v>
       </c>
       <c r="H38" s="78" t="s">
@@ -18182,8 +18181,8 @@
     </row>
     <row r="39" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A39" s="70">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B39" s="101" t="s">
         <v>76</v>
@@ -18201,7 +18200,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G39" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="H39" s="78" t="s">
@@ -18210,8 +18209,8 @@
     </row>
     <row r="40" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A40" s="70">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B40" s="101" t="s">
         <v>77</v>
@@ -18229,7 +18228,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G40" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="H40" s="78" t="s">
@@ -18238,8 +18237,8 @@
     </row>
     <row r="41" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A41" s="70">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B41" s="101" t="s">
         <v>78</v>
@@ -18257,7 +18256,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G41" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="H41" s="78" t="s">
@@ -18266,8 +18265,8 @@
     </row>
     <row r="42" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A42" s="70">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="B42" s="101" t="s">
         <v>82</v>
@@ -18285,7 +18284,7 @@
         <v>1.24</v>
       </c>
       <c r="G42" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
       <c r="H42" s="78" t="s">
@@ -18294,8 +18293,8 @@
     </row>
     <row r="43" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A43" s="70">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="B43" s="101" t="s">
         <v>89</v>
@@ -18313,7 +18312,7 @@
         <v>4.29</v>
       </c>
       <c r="G43" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85.8</v>
       </c>
       <c r="H43" s="78" t="s">
@@ -18322,8 +18321,8 @@
     </row>
     <row r="44" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A44" s="70">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="B44" s="101" t="s">
         <v>90</v>
@@ -18341,7 +18340,7 @@
         <v>6.9</v>
       </c>
       <c r="G44" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.700000000000003</v>
       </c>
       <c r="H44" s="78" t="s">
@@ -18350,8 +18349,8 @@
     </row>
     <row r="45" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A45" s="70">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="B45" s="101" t="s">
         <v>91</v>
@@ -18369,7 +18368,7 @@
         <v>6.9</v>
       </c>
       <c r="G45" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.700000000000003</v>
       </c>
       <c r="H45" s="78" t="s">
@@ -18378,8 +18377,8 @@
     </row>
     <row r="46" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A46" s="70">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B46" s="101" t="s">
         <v>92</v>
@@ -18397,7 +18396,7 @@
         <v>6.9</v>
       </c>
       <c r="G46" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.700000000000003</v>
       </c>
       <c r="H46" s="78" t="s">
@@ -18406,7 +18405,8 @@
     </row>
     <row r="47" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A47" s="70">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B47" s="101" t="s">
         <v>262</v>
@@ -18421,12 +18421,11 @@
         <v>1</v>
       </c>
       <c r="F47" s="81">
-        <f>2.73</f>
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="G47" s="75">
-        <f t="shared" si="1"/>
-        <v>2.73</v>
+        <f t="shared" si="0"/>
+        <v>2.74</v>
       </c>
       <c r="H47" s="78" t="s">
         <v>194</v>
@@ -18434,8 +18433,8 @@
     </row>
     <row r="48" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A48" s="70">
-        <f t="shared" ref="A48:A78" si="2">A47+1</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="B48" s="123" t="s">
         <v>263</v>
@@ -18454,7 +18453,7 @@
         <v>0.2</v>
       </c>
       <c r="G48" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H48" s="78" t="s">
@@ -18463,8 +18462,8 @@
     </row>
     <row r="49" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A49" s="70">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B49" s="101" t="s">
         <v>268</v>
@@ -18482,7 +18481,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="G49" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1300000000000008</v>
       </c>
       <c r="H49" s="121" t="s">
@@ -18491,8 +18490,8 @@
     </row>
     <row r="50" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A50" s="70">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="B50" s="101" t="s">
         <v>265</v>
@@ -18510,7 +18509,7 @@
         <v>31.86</v>
       </c>
       <c r="G50" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31.86</v>
       </c>
       <c r="H50" s="76" t="s">
@@ -18519,8 +18518,8 @@
     </row>
     <row r="51" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A51" s="70">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="B51" s="101" t="s">
         <v>266</v>
@@ -18539,7 +18538,7 @@
         <v>1.74</v>
       </c>
       <c r="G51" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="H51" s="78" t="s">
@@ -18548,8 +18547,8 @@
     </row>
     <row r="52" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A52" s="70">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="B52" s="123" t="s">
         <v>255</v>
@@ -18567,7 +18566,7 @@
         <v>1995.33</v>
       </c>
       <c r="G52" s="75">
-        <f t="shared" ref="G52:G82" si="3">E52*F52</f>
+        <f t="shared" ref="G52:G83" si="2">E52*F52</f>
         <v>9.9766499999999994</v>
       </c>
       <c r="H52" s="78" t="s">
@@ -18576,8 +18575,8 @@
     </row>
     <row r="53" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A53" s="70">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" ref="A53:A84" si="3">A52+1</f>
+        <v>34</v>
       </c>
       <c r="B53" s="123" t="s">
         <v>256</v>
@@ -18595,7 +18594,7 @@
         <v>1995</v>
       </c>
       <c r="G53" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.95</v>
       </c>
       <c r="H53" s="78" t="s">
@@ -18604,8 +18603,8 @@
     </row>
     <row r="54" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A54" s="70">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="B54" s="123" t="s">
         <v>257</v>
@@ -18623,7 +18622,7 @@
         <v>1995</v>
       </c>
       <c r="G54" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.95</v>
       </c>
       <c r="H54" s="78" t="s">
@@ -18632,8 +18631,8 @@
     </row>
     <row r="55" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A55" s="70">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="B55" s="123" t="s">
         <v>258</v>
@@ -18651,7 +18650,7 @@
         <v>1995.05</v>
       </c>
       <c r="G55" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39.901000000000003</v>
       </c>
       <c r="H55" s="78" t="s">
@@ -18660,8 +18659,8 @@
     </row>
     <row r="56" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A56" s="70">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="B56" s="123" t="s">
         <v>259</v>
@@ -18679,7 +18678,7 @@
         <v>1995</v>
       </c>
       <c r="G56" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39.9</v>
       </c>
       <c r="H56" s="78" t="s">
@@ -18688,8 +18687,8 @@
     </row>
     <row r="57" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A57" s="70">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="B57" s="101" t="s">
         <v>93</v>
@@ -18707,7 +18706,7 @@
         <v>3.8</v>
       </c>
       <c r="G57" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="H57" s="78" t="s">
@@ -18716,8 +18715,8 @@
     </row>
     <row r="58" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A58" s="70">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="B58" s="101" t="s">
         <v>97</v>
@@ -18735,7 +18734,7 @@
         <v>6.81</v>
       </c>
       <c r="G58" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>68.099999999999994</v>
       </c>
       <c r="H58" s="78" t="s">
@@ -18744,8 +18743,8 @@
     </row>
     <row r="59" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A59" s="70">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="B59" s="101" t="s">
         <v>99</v>
@@ -18763,7 +18762,7 @@
         <v>51.3</v>
       </c>
       <c r="G59" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51.3</v>
       </c>
       <c r="H59" s="78" t="s">
@@ -18772,8 +18771,8 @@
     </row>
     <row r="60" spans="1:8" s="77" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A60" s="70">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="B60" s="101" t="s">
         <v>100</v>
@@ -18791,7 +18790,7 @@
         <v>76.72</v>
       </c>
       <c r="G60" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76.72</v>
       </c>
       <c r="H60" s="78" t="s">
@@ -18800,8 +18799,8 @@
     </row>
     <row r="61" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A61" s="70">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="B61" s="101" t="s">
         <v>236</v>
@@ -18819,7 +18818,7 @@
         <v>3.42</v>
       </c>
       <c r="G61" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.26</v>
       </c>
       <c r="H61" s="78" t="s">
@@ -18828,8 +18827,8 @@
     </row>
     <row r="62" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A62" s="70">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="B62" s="101" t="s">
         <v>105</v>
@@ -18847,7 +18846,7 @@
         <v>9.98</v>
       </c>
       <c r="G62" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.96</v>
       </c>
       <c r="H62" s="83" t="s">
@@ -18856,8 +18855,8 @@
     </row>
     <row r="63" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A63" s="70">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="B63" s="101" t="s">
         <v>239</v>
@@ -18876,7 +18875,7 @@
         <v>17.559999999999999</v>
       </c>
       <c r="G63" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35.119999999999997</v>
       </c>
       <c r="H63" s="83" t="s">
@@ -18885,8 +18884,8 @@
     </row>
     <row r="64" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A64" s="70">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="B64" s="101" t="s">
         <v>107</v>
@@ -18904,7 +18903,7 @@
         <v>2.89</v>
       </c>
       <c r="G64" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.78</v>
       </c>
       <c r="H64" s="83" t="s">
@@ -18913,8 +18912,8 @@
     </row>
     <row r="65" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A65" s="70">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="B65" s="101" t="s">
         <v>108</v>
@@ -18932,7 +18931,7 @@
         <v>3.88</v>
       </c>
       <c r="G65" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.76</v>
       </c>
       <c r="H65" s="83" t="s">
@@ -18941,8 +18940,8 @@
     </row>
     <row r="66" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A66" s="70">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="B66" s="101" t="s">
         <v>109</v>
@@ -18960,7 +18959,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="G66" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.100000000000001</v>
       </c>
       <c r="H66" s="83" t="s">
@@ -18969,8 +18968,8 @@
     </row>
     <row r="67" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A67" s="70">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="B67" s="101" t="s">
         <v>110</v>
@@ -18988,7 +18987,7 @@
         <v>5.85</v>
       </c>
       <c r="G67" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11.7</v>
       </c>
       <c r="H67" s="83" t="s">
@@ -18997,8 +18996,8 @@
     </row>
     <row r="68" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A68" s="70">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="B68" s="101" t="s">
         <v>111</v>
@@ -19016,7 +19015,7 @@
         <v>14.82</v>
       </c>
       <c r="G68" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29.64</v>
       </c>
       <c r="H68" s="83" t="s">
@@ -19025,8 +19024,8 @@
     </row>
     <row r="69" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A69" s="70">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="B69" s="101" t="s">
         <v>112</v>
@@ -19044,7 +19043,7 @@
         <v>1.26</v>
       </c>
       <c r="G69" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.52</v>
       </c>
       <c r="H69" s="83" t="s">
@@ -19053,8 +19052,8 @@
     </row>
     <row r="70" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A70" s="70">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="B70" s="101" t="s">
         <v>113</v>
@@ -19072,7 +19071,7 @@
         <v>2.48</v>
       </c>
       <c r="G70" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.96</v>
       </c>
       <c r="H70" s="83" t="s">
@@ -19081,8 +19080,8 @@
     </row>
     <row r="71" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A71" s="70">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="B71" s="101" t="s">
         <v>114</v>
@@ -19100,7 +19099,7 @@
         <v>5.35</v>
       </c>
       <c r="G71" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.7</v>
       </c>
       <c r="H71" s="83" t="s">
@@ -19109,8 +19108,8 @@
     </row>
     <row r="72" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A72" s="70">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="B72" s="101" t="s">
         <v>115</v>
@@ -19128,7 +19127,7 @@
         <v>3.9</v>
       </c>
       <c r="G72" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
       <c r="H72" s="83" t="s">
@@ -19137,8 +19136,8 @@
     </row>
     <row r="73" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A73" s="70">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="B73" s="101" t="s">
         <v>116</v>
@@ -19156,7 +19155,7 @@
         <v>4.2</v>
       </c>
       <c r="G73" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
       <c r="H73" s="83" t="s">
@@ -19165,8 +19164,8 @@
     </row>
     <row r="74" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A74" s="70">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="B74" s="101" t="s">
         <v>117</v>
@@ -19184,7 +19183,7 @@
         <v>8.14</v>
       </c>
       <c r="G74" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.28</v>
       </c>
       <c r="H74" s="83" t="s">
@@ -19193,8 +19192,8 @@
     </row>
     <row r="75" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A75" s="70">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="B75" s="101" t="s">
         <v>128</v>
@@ -19212,7 +19211,7 @@
         <v>11.12</v>
       </c>
       <c r="G75" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.24</v>
       </c>
       <c r="H75" s="83" t="s">
@@ -19221,8 +19220,8 @@
     </row>
     <row r="76" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A76" s="70">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="B76" s="101" t="s">
         <v>129</v>
@@ -19240,7 +19239,7 @@
         <v>11.64</v>
       </c>
       <c r="G76" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.28</v>
       </c>
       <c r="H76" s="83" t="s">
@@ -19249,8 +19248,8 @@
     </row>
     <row r="77" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A77" s="70">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>58</v>
       </c>
       <c r="B77" s="101" t="s">
         <v>130</v>
@@ -19268,7 +19267,7 @@
         <v>12.06</v>
       </c>
       <c r="G77" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24.12</v>
       </c>
       <c r="H77" s="83" t="s">
@@ -19277,8 +19276,8 @@
     </row>
     <row r="78" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A78" s="70">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="B78" s="101" t="s">
         <v>131</v>
@@ -19296,7 +19295,7 @@
         <v>3.05</v>
       </c>
       <c r="G78" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.1499999999999986</v>
       </c>
       <c r="H78" s="83" t="s">
@@ -19305,8 +19304,8 @@
     </row>
     <row r="79" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A79" s="70">
-        <f t="shared" ref="A79:A111" si="4">A78+1</f>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="B79" s="101" t="s">
         <v>132</v>
@@ -19324,7 +19323,7 @@
         <v>16.87</v>
       </c>
       <c r="G79" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33.74</v>
       </c>
       <c r="H79" s="83" t="s">
@@ -19333,8 +19332,8 @@
     </row>
     <row r="80" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A80" s="70">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="B80" s="101" t="s">
         <v>133</v>
@@ -19352,7 +19351,7 @@
         <v>11.13</v>
       </c>
       <c r="G80" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.26</v>
       </c>
       <c r="H80" s="83" t="s">
@@ -19361,8 +19360,8 @@
     </row>
     <row r="81" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A81" s="70">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="B81" s="101" t="s">
         <v>134</v>
@@ -19380,7 +19379,7 @@
         <v>19.850000000000001</v>
       </c>
       <c r="G81" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39.700000000000003</v>
       </c>
       <c r="H81" s="83" t="s">
@@ -19389,8 +19388,8 @@
     </row>
     <row r="82" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A82" s="70">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="B82" s="101" t="s">
         <v>135</v>
@@ -19408,7 +19407,7 @@
         <v>19.850000000000001</v>
       </c>
       <c r="G82" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39.700000000000003</v>
       </c>
       <c r="H82" s="83" t="s">
@@ -19417,8 +19416,8 @@
     </row>
     <row r="83" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A83" s="70">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="B83" s="101" t="s">
         <v>136</v>
@@ -19436,7 +19435,7 @@
         <v>12.42</v>
       </c>
       <c r="G83" s="75">
-        <f t="shared" ref="G83:G115" si="5">E83*F83</f>
+        <f t="shared" si="2"/>
         <v>24.84</v>
       </c>
       <c r="H83" s="83" t="s">
@@ -19445,8 +19444,8 @@
     </row>
     <row r="84" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A84" s="70">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="B84" s="101" t="s">
         <v>283</v>
@@ -19464,7 +19463,7 @@
         <v>244.47</v>
       </c>
       <c r="G84" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G84:G115" si="4">E84*F84</f>
         <v>733.41</v>
       </c>
       <c r="H84" s="122" t="s">
@@ -19473,8 +19472,8 @@
     </row>
     <row r="85" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A85" s="70">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <f t="shared" ref="A85:A116" si="5">A84+1</f>
+        <v>66</v>
       </c>
       <c r="B85" s="101" t="s">
         <v>138</v>
@@ -19492,7 +19491,7 @@
         <v>111.55</v>
       </c>
       <c r="G85" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>111.55</v>
       </c>
       <c r="H85" s="122" t="s">
@@ -19501,8 +19500,8 @@
     </row>
     <row r="86" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A86" s="70">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
       <c r="B86" s="101" t="s">
         <v>139</v>
@@ -19520,7 +19519,7 @@
         <v>111.55</v>
       </c>
       <c r="G86" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>223.1</v>
       </c>
       <c r="H86" s="122" t="s">
@@ -19529,8 +19528,8 @@
     </row>
     <row r="87" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A87" s="70">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>68</v>
       </c>
       <c r="B87" s="101" t="s">
         <v>140</v>
@@ -19548,7 +19547,7 @@
         <v>120</v>
       </c>
       <c r="G87" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="H87" s="122" t="s">
@@ -19557,8 +19556,8 @@
     </row>
     <row r="88" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A88" s="70">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>69</v>
       </c>
       <c r="B88" s="101" t="s">
         <v>43</v>
@@ -19576,7 +19575,7 @@
         <v>72.12</v>
       </c>
       <c r="G88" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>144.24</v>
       </c>
       <c r="H88" s="122" t="s">
@@ -19585,8 +19584,8 @@
     </row>
     <row r="89" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A89" s="70">
-        <f t="shared" si="4"/>
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
       <c r="B89" s="101" t="s">
         <v>275</v>
@@ -19604,7 +19603,7 @@
         <v>72.13</v>
       </c>
       <c r="G89" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>72.13</v>
       </c>
       <c r="H89" s="122" t="s">
@@ -19613,8 +19612,8 @@
     </row>
     <row r="90" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A90" s="70">
-        <f t="shared" si="4"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>71</v>
       </c>
       <c r="B90" s="101" t="s">
         <v>141</v>
@@ -19632,7 +19631,7 @@
         <v>5.34</v>
       </c>
       <c r="G90" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.36</v>
       </c>
       <c r="H90" s="121" t="s">
@@ -19641,8 +19640,8 @@
     </row>
     <row r="91" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A91" s="70">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>72</v>
       </c>
       <c r="B91" s="101" t="s">
         <v>267</v>
@@ -19661,7 +19660,7 @@
         <v>5.16</v>
       </c>
       <c r="G91" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.32</v>
       </c>
       <c r="H91" s="121" t="s">
@@ -19670,8 +19669,8 @@
     </row>
     <row r="92" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A92" s="70">
-        <f t="shared" si="4"/>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>73</v>
       </c>
       <c r="B92" s="101" t="s">
         <v>142</v>
@@ -19689,7 +19688,7 @@
         <v>12.11</v>
       </c>
       <c r="G92" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.11</v>
       </c>
       <c r="H92" s="121" t="s">
@@ -19698,8 +19697,8 @@
     </row>
     <row r="93" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A93" s="70">
-        <f t="shared" si="4"/>
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>74</v>
       </c>
       <c r="B93" s="101" t="s">
         <v>143</v>
@@ -19717,7 +19716,7 @@
         <v>0.35</v>
       </c>
       <c r="G93" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
       <c r="H93" s="83" t="s">
@@ -19726,8 +19725,8 @@
     </row>
     <row r="94" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A94" s="70">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
       <c r="B94" s="101" t="s">
         <v>144</v>
@@ -19745,7 +19744,7 @@
         <v>0.65</v>
       </c>
       <c r="G94" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
       <c r="H94" s="83" t="s">
@@ -19754,8 +19753,8 @@
     </row>
     <row r="95" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A95" s="70">
-        <f t="shared" si="4"/>
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
       <c r="B95" s="101" t="s">
         <v>145</v>
@@ -19773,7 +19772,7 @@
         <v>0.76</v>
       </c>
       <c r="G95" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.04</v>
       </c>
       <c r="H95" s="83" t="s">
@@ -19782,8 +19781,8 @@
     </row>
     <row r="96" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A96" s="70">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>77</v>
       </c>
       <c r="B96" s="101" t="s">
         <v>146</v>
@@ -19801,7 +19800,7 @@
         <v>1.66</v>
       </c>
       <c r="G96" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.64</v>
       </c>
       <c r="H96" s="83" t="s">
@@ -19810,8 +19809,8 @@
     </row>
     <row r="97" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A97" s="70">
-        <f t="shared" si="4"/>
-        <v>51</v>
+        <f t="shared" si="5"/>
+        <v>78</v>
       </c>
       <c r="B97" s="115" t="s">
         <v>154</v>
@@ -19829,7 +19828,7 @@
         <v>201.16</v>
       </c>
       <c r="G97" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>201.16</v>
       </c>
       <c r="H97" s="83" t="s">
@@ -19838,8 +19837,8 @@
     </row>
     <row r="98" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A98" s="70">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
       <c r="B98" s="101" t="s">
         <v>155</v>
@@ -19857,7 +19856,7 @@
         <v>0.21</v>
       </c>
       <c r="G98" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.05</v>
       </c>
       <c r="H98" s="83" t="s">
@@ -19866,8 +19865,8 @@
     </row>
     <row r="99" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A99" s="70">
-        <f t="shared" si="4"/>
-        <v>53</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="B99" s="101" t="s">
         <v>156</v>
@@ -19885,7 +19884,7 @@
         <v>0.76</v>
       </c>
       <c r="G99" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.04</v>
       </c>
       <c r="H99" s="83" t="s">
@@ -19894,8 +19893,8 @@
     </row>
     <row r="100" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A100" s="70">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>81</v>
       </c>
       <c r="B100" s="101" t="s">
         <v>157</v>
@@ -19913,7 +19912,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="G100" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.3600000000000003</v>
       </c>
       <c r="H100" s="83" t="s">
@@ -19922,8 +19921,8 @@
     </row>
     <row r="101" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A101" s="70">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>82</v>
       </c>
       <c r="B101" s="101" t="s">
         <v>158</v>
@@ -19941,7 +19940,7 @@
         <v>1.66</v>
       </c>
       <c r="G101" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.64</v>
       </c>
       <c r="H101" s="83" t="s">
@@ -19950,8 +19949,8 @@
     </row>
     <row r="102" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A102" s="70">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>83</v>
       </c>
       <c r="B102" s="101" t="s">
         <v>279</v>
@@ -19969,7 +19968,7 @@
         <v>61.2</v>
       </c>
       <c r="G102" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.2</v>
       </c>
       <c r="H102" s="83" t="s">
@@ -19978,8 +19977,8 @@
     </row>
     <row r="103" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A103" s="70">
-        <f t="shared" si="4"/>
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>84</v>
       </c>
       <c r="B103" s="116" t="s">
         <v>242</v>
@@ -19997,7 +19996,7 @@
         <v>10.91</v>
       </c>
       <c r="G103" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.82</v>
       </c>
       <c r="H103" s="83" t="s">
@@ -20006,8 +20005,8 @@
     </row>
     <row r="104" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A104" s="70">
-        <f t="shared" si="4"/>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>85</v>
       </c>
       <c r="B104" s="116" t="s">
         <v>165</v>
@@ -20025,7 +20024,7 @@
         <v>10.91</v>
       </c>
       <c r="G104" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.82</v>
       </c>
       <c r="H104" s="83" t="s">
@@ -20034,8 +20033,8 @@
     </row>
     <row r="105" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A105" s="70">
-        <f t="shared" si="4"/>
-        <v>59</v>
+        <f t="shared" si="5"/>
+        <v>86</v>
       </c>
       <c r="B105" s="101" t="s">
         <v>166</v>
@@ -20053,7 +20052,7 @@
         <v>10.91</v>
       </c>
       <c r="G105" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.82</v>
       </c>
       <c r="H105" s="83" t="s">
@@ -20062,8 +20061,8 @@
     </row>
     <row r="106" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A106" s="70">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>87</v>
       </c>
       <c r="B106" s="115" t="s">
         <v>269</v>
@@ -20081,7 +20080,7 @@
         <v>16.579999999999998</v>
       </c>
       <c r="G106" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16.579999999999998</v>
       </c>
       <c r="H106" s="83" t="s">
@@ -20090,8 +20089,8 @@
     </row>
     <row r="107" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A107" s="70">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <f t="shared" si="5"/>
+        <v>88</v>
       </c>
       <c r="B107" s="101" t="s">
         <v>280</v>
@@ -20109,7 +20108,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="75">
-        <f t="shared" ref="G107" si="6">E107*F107</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H107" s="83" t="s">
@@ -20118,8 +20117,8 @@
     </row>
     <row r="108" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A108" s="70">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f t="shared" si="5"/>
+        <v>89</v>
       </c>
       <c r="B108" s="101" t="s">
         <v>280</v>
@@ -20137,7 +20136,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H108" s="83" t="s">
@@ -20146,8 +20145,8 @@
     </row>
     <row r="109" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A109" s="70">
-        <f t="shared" si="4"/>
-        <v>63</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="B109" s="101" t="s">
         <v>281</v>
@@ -20165,7 +20164,7 @@
         <v>91.52</v>
       </c>
       <c r="G109" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>91.52</v>
       </c>
       <c r="H109" s="83" t="s">
@@ -20174,8 +20173,8 @@
     </row>
     <row r="110" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A110" s="70">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <f t="shared" si="5"/>
+        <v>91</v>
       </c>
       <c r="B110" s="101" t="s">
         <v>167</v>
@@ -20193,7 +20192,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="G110" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.050000000000001</v>
       </c>
       <c r="H110" s="83" t="s">
@@ -20202,8 +20201,8 @@
     </row>
     <row r="111" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A111" s="70">
-        <f t="shared" si="4"/>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
       <c r="B111" s="101" t="s">
         <v>169</v>
@@ -20221,7 +20220,7 @@
         <v>10.15</v>
       </c>
       <c r="G111" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.15</v>
       </c>
       <c r="H111" s="83" t="s">
@@ -20230,8 +20229,8 @@
     </row>
     <row r="112" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A112" s="70">
-        <f t="shared" ref="A112:A126" si="7">A111+1</f>
-        <v>66</v>
+        <f t="shared" si="5"/>
+        <v>93</v>
       </c>
       <c r="B112" s="101" t="s">
         <v>170</v>
@@ -20249,7 +20248,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H112" s="83" t="s">
@@ -20258,8 +20257,8 @@
     </row>
     <row r="113" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A113" s="70">
-        <f t="shared" si="7"/>
-        <v>67</v>
+        <f t="shared" si="5"/>
+        <v>94</v>
       </c>
       <c r="B113" s="101" t="s">
         <v>171</v>
@@ -20277,7 +20276,7 @@
         <v>15.2</v>
       </c>
       <c r="G113" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.2</v>
       </c>
       <c r="H113" s="83" t="s">
@@ -20286,8 +20285,8 @@
     </row>
     <row r="114" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A114" s="70">
-        <f t="shared" si="7"/>
-        <v>68</v>
+        <f t="shared" si="5"/>
+        <v>95</v>
       </c>
       <c r="B114" s="101" t="s">
         <v>172</v>
@@ -20305,7 +20304,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="G114" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18.899999999999999</v>
       </c>
       <c r="H114" s="83" t="s">
@@ -20314,8 +20313,8 @@
     </row>
     <row r="115" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A115" s="70">
-        <f t="shared" si="7"/>
-        <v>69</v>
+        <f t="shared" si="5"/>
+        <v>96</v>
       </c>
       <c r="B115" s="101" t="s">
         <v>173</v>
@@ -20333,7 +20332,7 @@
         <v>13</v>
       </c>
       <c r="G115" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H115" s="83" t="s">
@@ -20342,8 +20341,8 @@
     </row>
     <row r="116" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A116" s="70">
-        <f t="shared" si="7"/>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>97</v>
       </c>
       <c r="B116" s="101" t="s">
         <v>174</v>
@@ -20361,7 +20360,7 @@
         <v>3.74</v>
       </c>
       <c r="G116" s="75">
-        <f t="shared" ref="G116:G147" si="8">E116*F116</f>
+        <f t="shared" ref="G116:G147" si="6">E116*F116</f>
         <v>3.74</v>
       </c>
       <c r="H116" s="83" t="s">
@@ -20370,8 +20369,8 @@
     </row>
     <row r="117" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A117" s="70">
-        <f t="shared" si="7"/>
-        <v>71</v>
+        <f t="shared" ref="A117:A130" si="7">A116+1</f>
+        <v>98</v>
       </c>
       <c r="B117" s="101" t="s">
         <v>175</v>
@@ -20389,7 +20388,7 @@
         <v>5.99</v>
       </c>
       <c r="G117" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.99</v>
       </c>
       <c r="H117" s="83" t="s">
@@ -20399,7 +20398,7 @@
     <row r="118" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A118" s="70">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B118" s="101" t="s">
         <v>176</v>
@@ -20417,7 +20416,7 @@
         <v>2.5</v>
       </c>
       <c r="G118" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="H118" s="83" t="s">
@@ -20427,7 +20426,7 @@
     <row r="119" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A119" s="70">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B119" s="101" t="s">
         <v>177</v>
@@ -20445,7 +20444,7 @@
         <v>3.2</v>
       </c>
       <c r="G119" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="H119" s="83" t="s">
@@ -20455,7 +20454,7 @@
     <row r="120" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A120" s="70">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B120" s="101" t="s">
         <v>282</v>
@@ -20467,14 +20466,14 @@
         <v>46</v>
       </c>
       <c r="E120" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120" s="81">
         <v>1</v>
       </c>
       <c r="G120" s="75">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="H120" s="121" t="s">
         <v>194</v>
@@ -20483,7 +20482,7 @@
     <row r="121" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A121" s="70">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B121" s="101" t="s">
         <v>178</v>
@@ -20501,7 +20500,7 @@
         <v>7</v>
       </c>
       <c r="G121" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="H121" s="78" t="s">
@@ -20511,7 +20510,7 @@
     <row r="122" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A122" s="70">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B122" s="101" t="s">
         <v>179</v>
@@ -20529,7 +20528,7 @@
         <v>7.6</v>
       </c>
       <c r="G122" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>30.4</v>
       </c>
       <c r="H122" s="78" t="s">
@@ -20539,7 +20538,7 @@
     <row r="123" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A123" s="70">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B123" s="101" t="s">
         <v>180</v>
@@ -20557,7 +20556,7 @@
         <v>8.5</v>
       </c>
       <c r="G123" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="H123" s="78" t="s">
@@ -20567,7 +20566,7 @@
     <row r="124" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A124" s="70">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B124" s="101" t="s">
         <v>181</v>
@@ -20585,7 +20584,7 @@
         <v>6.5</v>
       </c>
       <c r="G124" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="H124" s="78" t="s">
@@ -20595,7 +20594,7 @@
     <row r="125" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A125" s="70">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B125" s="101" t="s">
         <v>182</v>
@@ -20613,7 +20612,7 @@
         <v>7</v>
       </c>
       <c r="G125" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="H125" s="78" t="s">
@@ -20623,7 +20622,7 @@
     <row r="126" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A126" s="70">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B126" s="101" t="s">
         <v>183</v>
@@ -20641,7 +20640,7 @@
         <v>6.9</v>
       </c>
       <c r="G126" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>27.6</v>
       </c>
       <c r="H126" s="78" t="s">
@@ -20649,7 +20648,10 @@
       </c>
     </row>
     <row r="127" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A127" s="70"/>
+      <c r="A127" s="70">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
       <c r="B127" s="101" t="s">
         <v>276</v>
       </c>
@@ -20666,7 +20668,7 @@
         <v>11.72</v>
       </c>
       <c r="G127" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11.72</v>
       </c>
       <c r="H127" s="78" t="s">
@@ -20675,8 +20677,8 @@
     </row>
     <row r="128" spans="1:8" s="77" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A128" s="70">
-        <f>A126+1</f>
-        <v>81</v>
+        <f t="shared" si="7"/>
+        <v>109</v>
       </c>
       <c r="B128" s="101" t="s">
         <v>276</v>
@@ -20694,7 +20696,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H128" s="78" t="s">
@@ -20703,8 +20705,8 @@
     </row>
     <row r="129" spans="1:8" s="77" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A129" s="70">
-        <f>A128+1</f>
-        <v>82</v>
+        <f t="shared" si="7"/>
+        <v>110</v>
       </c>
       <c r="B129" s="114" t="s">
         <v>270</v>
@@ -20723,7 +20725,7 @@
         <v>6.5900000000000007</v>
       </c>
       <c r="G129" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>13.180000000000001</v>
       </c>
       <c r="H129" s="78" t="s">
@@ -20732,8 +20734,8 @@
     </row>
     <row r="130" spans="1:8" s="77" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="70">
-        <f>A129+1</f>
-        <v>83</v>
+        <f t="shared" si="7"/>
+        <v>111</v>
       </c>
       <c r="B130" s="114" t="s">
         <v>186</v>
@@ -20751,7 +20753,7 @@
         <v>9.89</v>
       </c>
       <c r="G130" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>19.78</v>
       </c>
       <c r="H130" s="78" t="s">
@@ -20767,14 +20769,14 @@
       <c r="D131" s="24"/>
       <c r="E131" s="54">
         <f>SUM(E20:E130)</f>
-        <v>669.06499999999994</v>
+        <v>670.06499999999994</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="55">
         <f>SUM(G20:G130)</f>
-        <v>7722.3296499999951</v>
+        <v>7723.3396499999953</v>
       </c>
       <c r="H131" s="43"/>
     </row>
@@ -21017,11 +21019,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A18:H18">
-    <sortState ref="A19:H131">
-      <sortCondition ref="B18"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A19:H19"/>
   <mergeCells count="13">
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>

--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2019.xlsx
@@ -1827,6 +1827,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1843,24 +1861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2201,53 +2201,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -2258,43 +2258,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2306,28 +2306,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -6694,6 +6694,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A8:H8"/>
@@ -6701,12 +6707,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6739,53 +6739,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -6796,43 +6796,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6844,28 +6844,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -7351,6 +7351,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H25"/>
     <mergeCell ref="F5:H5"/>
@@ -7359,12 +7365,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -7396,53 +7396,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -7453,43 +7453,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7501,28 +7501,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -7930,6 +7930,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="F5:H5"/>
@@ -7938,12 +7944,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -7975,53 +7975,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -8032,43 +8032,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8080,28 +8080,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -12209,6 +12209,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A8:H8"/>
@@ -12216,12 +12222,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -12253,53 +12253,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -12310,43 +12310,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12358,28 +12358,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="62" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -12902,6 +12902,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H24"/>
     <mergeCell ref="F5:H5"/>
@@ -12910,12 +12916,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -12947,53 +12947,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -13004,43 +13004,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -13052,28 +13052,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="99" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="99" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -16763,6 +16763,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A8:H8"/>
@@ -16770,12 +16776,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -16807,53 +16807,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -16864,43 +16864,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -16912,28 +16912,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="99" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="99" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -17402,6 +17402,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H23"/>
     <mergeCell ref="F5:H5"/>
@@ -17410,12 +17416,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -17430,8 +17430,8 @@
   </sheetPr>
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A112" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17447,53 +17447,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -17504,43 +17504,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -17552,28 +17552,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="109" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="109" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -20360,7 +20360,7 @@
         <v>3.74</v>
       </c>
       <c r="G116" s="75">
-        <f t="shared" ref="G116:G147" si="6">E116*F116</f>
+        <f t="shared" ref="G116:G130" si="6">E116*F116</f>
         <v>3.74</v>
       </c>
       <c r="H116" s="83" t="s">
@@ -21021,6 +21021,12 @@
   </sheetData>
   <autoFilter ref="A19:H19"/>
   <mergeCells count="13">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A8:H8"/>
@@ -21028,12 +21034,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -21065,53 +21065,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="F1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
@@ -21122,43 +21122,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -21170,28 +21170,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" s="111" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" s="111" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="39"/>
@@ -21684,12 +21684,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="H20:H25"/>
     <mergeCell ref="F5:H5"/>
@@ -21698,6 +21692,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
